--- a/TEMPLATE_HRD_SKILLSHEET_200421.xlsx
+++ b/TEMPLATE_HRD_SKILLSHEET_200421.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\TDA.GA\WIP\2. BIEU MAU\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770B9702-1A9A-493A-A6BA-7812DDCE9091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="①Sơ yếu lý lịch" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
     <definedName name="Z_C85CA1FF_BEC6_465F_BE85_22B8FCC780F3_.wvu.Cols" localSheetId="0">'①Sơ yếu lý lịch'!$AI:$AI</definedName>
     <definedName name="Z_C85CA1FF_BEC6_465F_BE85_22B8FCC780F3_.wvu.PrintArea" localSheetId="0">'①Sơ yếu lý lịch'!$A$1:$AF$55</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>Sơ yếu lý lịch</t>
   </si>
@@ -513,11 +507,20 @@
   <si>
     <t>[▼Chọn]</t>
   </si>
+  <si>
+    <t>Thào A</t>
+  </si>
+  <si>
+    <t>Vảng</t>
+  </si>
+  <si>
+    <t>Nam giới</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;&quot;#&quot;歳&quot;"/>
   </numFmts>
@@ -2211,6 +2214,333 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="97" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2238,337 +2568,178 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="97" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2579,12 +2750,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2611,168 +2776,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3031,14 +3034,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00ABEA"/>
   </sheetPr>
   <dimension ref="A1:AT1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:S9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -3082,17 +3085,17 @@
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
-      <c r="L1" s="115" t="s">
+      <c r="L1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
       <c r="U1" s="16"/>
       <c r="V1" s="16"/>
       <c r="W1" s="16"/>
@@ -3132,15 +3135,15 @@
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
       <c r="U2" s="16"/>
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
@@ -3183,21 +3186,21 @@
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="116"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
       <c r="X3" s="18"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="118"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="92"/>
       <c r="AA3" s="19" t="s">
         <v>78</v>
       </c>
@@ -3214,9 +3217,9 @@
       <c r="AH3" s="4"/>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="4"/>
-      <c r="AK3" s="4">
+      <c r="AK3" s="4" t="str">
         <f>J6</f>
-        <v>0</v>
+        <v>Nam giới</v>
       </c>
       <c r="AL3" s="4"/>
       <c r="AM3" s="4"/>
@@ -3280,51 +3283,51 @@
       <c r="AT4" s="1"/>
     </row>
     <row r="5" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="119" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="121" t="s">
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="120"/>
-      <c r="L5" s="121" t="s">
+      <c r="K5" s="49"/>
+      <c r="L5" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="120"/>
-      <c r="T5" s="140" t="s">
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="120"/>
-      <c r="Z5" s="122" t="s">
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="AA5" s="118"/>
-      <c r="AB5" s="118"/>
-      <c r="AC5" s="118"/>
-      <c r="AD5" s="118"/>
-      <c r="AE5" s="123"/>
+      <c r="AA5" s="92"/>
+      <c r="AB5" s="92"/>
+      <c r="AC5" s="92"/>
+      <c r="AD5" s="92"/>
+      <c r="AE5" s="96"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
@@ -3347,19 +3350,25 @@
       <c r="AT5" s="1"/>
     </row>
     <row r="6" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A6" s="143"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="138"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="130"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="106" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="103"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="51"/>
       <c r="N6" s="31" t="s">
         <v>20</v>
       </c>
@@ -3372,22 +3381,22 @@
         <v>21</v>
       </c>
       <c r="S6" s="25"/>
-      <c r="T6" s="141" t="s">
+      <c r="T6" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="U6" s="72"/>
-      <c r="V6" s="103" t="s">
+      <c r="U6" s="69"/>
+      <c r="V6" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="124"/>
-      <c r="AA6" s="116"/>
-      <c r="AB6" s="116"/>
-      <c r="AC6" s="116"/>
-      <c r="AD6" s="116"/>
-      <c r="AE6" s="125"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="97"/>
+      <c r="AA6" s="90"/>
+      <c r="AB6" s="90"/>
+      <c r="AC6" s="90"/>
+      <c r="AD6" s="90"/>
+      <c r="AE6" s="98"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
@@ -3410,17 +3419,17 @@
       <c r="AT6" s="1"/>
     </row>
     <row r="7" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A7" s="144"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="137"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="105"/>
       <c r="L7" s="34"/>
       <c r="M7" s="35"/>
       <c r="N7" s="36" t="s">
@@ -3433,22 +3442,22 @@
       <c r="Q7" s="36"/>
       <c r="R7" s="35"/>
       <c r="S7" s="26"/>
-      <c r="T7" s="105" t="s">
+      <c r="T7" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="U7" s="88"/>
-      <c r="V7" s="108" t="s">
+      <c r="U7" s="79"/>
+      <c r="V7" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="109"/>
-      <c r="Z7" s="124"/>
-      <c r="AA7" s="116"/>
-      <c r="AB7" s="116"/>
-      <c r="AC7" s="116"/>
-      <c r="AD7" s="116"/>
-      <c r="AE7" s="125"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="97"/>
+      <c r="AA7" s="90"/>
+      <c r="AB7" s="90"/>
+      <c r="AC7" s="90"/>
+      <c r="AD7" s="90"/>
+      <c r="AE7" s="98"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
@@ -3471,39 +3480,39 @@
       <c r="AT7" s="1"/>
     </row>
     <row r="8" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A8" s="148" t="s">
+      <c r="A8" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="151"/>
-      <c r="C8" s="82"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="27"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="120"/>
-      <c r="T8" s="106"/>
-      <c r="U8" s="107"/>
-      <c r="V8" s="110"/>
-      <c r="W8" s="111"/>
-      <c r="X8" s="111"/>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="124"/>
-      <c r="AA8" s="116"/>
-      <c r="AB8" s="116"/>
-      <c r="AC8" s="116"/>
-      <c r="AD8" s="116"/>
-      <c r="AE8" s="125"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="110"/>
+      <c r="U8" s="111"/>
+      <c r="V8" s="113"/>
+      <c r="W8" s="114"/>
+      <c r="X8" s="114"/>
+      <c r="Y8" s="115"/>
+      <c r="Z8" s="97"/>
+      <c r="AA8" s="90"/>
+      <c r="AB8" s="90"/>
+      <c r="AC8" s="90"/>
+      <c r="AD8" s="90"/>
+      <c r="AE8" s="98"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
@@ -3523,39 +3532,39 @@
       <c r="AT8" s="1"/>
     </row>
     <row r="9" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A9" s="149"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="141" t="s">
+      <c r="A9" s="57"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="U9" s="72"/>
-      <c r="V9" s="155"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="104"/>
-      <c r="Z9" s="124"/>
-      <c r="AA9" s="116"/>
-      <c r="AB9" s="116"/>
-      <c r="AC9" s="116"/>
-      <c r="AD9" s="116"/>
-      <c r="AE9" s="125"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="97"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="90"/>
+      <c r="AC9" s="90"/>
+      <c r="AD9" s="90"/>
+      <c r="AE9" s="98"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
@@ -3575,39 +3584,39 @@
       <c r="AT9" s="1"/>
     </row>
     <row r="10" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A10" s="149"/>
-      <c r="B10" s="153"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="141" t="s">
+      <c r="A10" s="57"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="U10" s="72"/>
-      <c r="V10" s="155"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="104"/>
-      <c r="Z10" s="124"/>
-      <c r="AA10" s="116"/>
-      <c r="AB10" s="116"/>
-      <c r="AC10" s="116"/>
-      <c r="AD10" s="116"/>
-      <c r="AE10" s="125"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="97"/>
+      <c r="AA10" s="90"/>
+      <c r="AB10" s="90"/>
+      <c r="AC10" s="90"/>
+      <c r="AD10" s="90"/>
+      <c r="AE10" s="98"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
@@ -3627,37 +3636,37 @@
       <c r="AT10" s="1"/>
     </row>
     <row r="11" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A11" s="150"/>
-      <c r="B11" s="126"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="127"/>
-      <c r="K11" s="127"/>
-      <c r="L11" s="127"/>
-      <c r="M11" s="127"/>
-      <c r="N11" s="127"/>
-      <c r="O11" s="127"/>
-      <c r="P11" s="127"/>
-      <c r="Q11" s="127"/>
-      <c r="R11" s="127"/>
-      <c r="S11" s="154"/>
-      <c r="T11" s="156"/>
-      <c r="U11" s="157"/>
-      <c r="V11" s="158"/>
-      <c r="W11" s="159"/>
-      <c r="X11" s="159"/>
-      <c r="Y11" s="160"/>
-      <c r="Z11" s="126"/>
-      <c r="AA11" s="127"/>
-      <c r="AB11" s="127"/>
-      <c r="AC11" s="127"/>
-      <c r="AD11" s="127"/>
-      <c r="AE11" s="128"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="74"/>
+      <c r="V11" s="75"/>
+      <c r="W11" s="76"/>
+      <c r="X11" s="76"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="66"/>
+      <c r="AD11" s="66"/>
+      <c r="AE11" s="99"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
@@ -3675,39 +3684,39 @@
       <c r="AT11" s="1"/>
     </row>
     <row r="12" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="101"/>
-      <c r="S12" s="101"/>
-      <c r="T12" s="101"/>
-      <c r="U12" s="101"/>
-      <c r="V12" s="101"/>
-      <c r="W12" s="101"/>
-      <c r="X12" s="101"/>
-      <c r="Y12" s="101"/>
-      <c r="Z12" s="101"/>
-      <c r="AA12" s="101"/>
-      <c r="AB12" s="101"/>
-      <c r="AC12" s="101"/>
-      <c r="AD12" s="101"/>
-      <c r="AE12" s="102"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="87"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="87"/>
+      <c r="Y12" s="87"/>
+      <c r="Z12" s="87"/>
+      <c r="AA12" s="87"/>
+      <c r="AB12" s="87"/>
+      <c r="AC12" s="87"/>
+      <c r="AD12" s="87"/>
+      <c r="AE12" s="120"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
@@ -3727,39 +3736,39 @@
       <c r="AT12" s="1"/>
     </row>
     <row r="13" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="66"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="66"/>
-      <c r="AB13" s="66"/>
-      <c r="AC13" s="66"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="67"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+      <c r="S13" s="122"/>
+      <c r="T13" s="122"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="122"/>
+      <c r="W13" s="122"/>
+      <c r="X13" s="122"/>
+      <c r="Y13" s="122"/>
+      <c r="Z13" s="122"/>
+      <c r="AA13" s="122"/>
+      <c r="AB13" s="122"/>
+      <c r="AC13" s="122"/>
+      <c r="AD13" s="122"/>
+      <c r="AE13" s="123"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
@@ -3779,45 +3788,45 @@
       <c r="AT13" s="1"/>
     </row>
     <row r="14" spans="1:46" ht="17.25" customHeight="1">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="86" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="92" t="s">
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="82"/>
-      <c r="U14" s="82"/>
-      <c r="V14" s="82"/>
-      <c r="W14" s="82"/>
-      <c r="X14" s="82"/>
-      <c r="Y14" s="82"/>
-      <c r="Z14" s="83"/>
-      <c r="AA14" s="86" t="s">
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="AB14" s="82"/>
-      <c r="AC14" s="82"/>
-      <c r="AD14" s="82"/>
-      <c r="AE14" s="91"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="48"/>
+      <c r="AE14" s="126"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
@@ -3837,8 +3846,8 @@
       <c r="AT14" s="1"/>
     </row>
     <row r="15" spans="1:46" ht="17.25" customHeight="1">
-      <c r="A15" s="85"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="130"/>
+      <c r="B15" s="84"/>
       <c r="C15" s="38" t="s">
         <v>20</v>
       </c>
@@ -3846,8 +3855,8 @@
       <c r="E15" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="99"/>
-      <c r="G15" s="51"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="84"/>
       <c r="H15" s="38" t="s">
         <v>20</v>
       </c>
@@ -3855,27 +3864,27 @@
       <c r="J15" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="93"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="51"/>
-      <c r="AA15" s="98"/>
-      <c r="AB15" s="55"/>
-      <c r="AC15" s="55"/>
-      <c r="AD15" s="55"/>
-      <c r="AE15" s="56"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="118"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="118"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="118"/>
+      <c r="Q15" s="118"/>
+      <c r="R15" s="118"/>
+      <c r="S15" s="118"/>
+      <c r="T15" s="118"/>
+      <c r="U15" s="118"/>
+      <c r="V15" s="118"/>
+      <c r="W15" s="118"/>
+      <c r="X15" s="118"/>
+      <c r="Y15" s="118"/>
+      <c r="Z15" s="84"/>
+      <c r="AA15" s="128"/>
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="71"/>
+      <c r="AE15" s="129"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
@@ -3895,8 +3904,8 @@
       <c r="AT15" s="1"/>
     </row>
     <row r="16" spans="1:46" ht="17.25" customHeight="1">
-      <c r="A16" s="71"/>
-      <c r="B16" s="72"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="28" t="s">
         <v>20</v>
       </c>
@@ -3904,8 +3913,8 @@
       <c r="E16" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="98"/>
-      <c r="G16" s="72"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="69"/>
       <c r="H16" s="28" t="s">
         <v>20</v>
       </c>
@@ -3913,27 +3922,27 @@
       <c r="J16" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="54"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="55"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="98"/>
-      <c r="AB16" s="55"/>
-      <c r="AC16" s="55"/>
-      <c r="AD16" s="55"/>
-      <c r="AE16" s="56"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="71"/>
+      <c r="V16" s="71"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="128"/>
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="71"/>
+      <c r="AE16" s="129"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
@@ -3951,8 +3960,8 @@
       <c r="AT16" s="1"/>
     </row>
     <row r="17" spans="1:46" ht="17.25" customHeight="1">
-      <c r="A17" s="71"/>
-      <c r="B17" s="72"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="28" t="s">
         <v>20</v>
       </c>
@@ -3960,8 +3969,8 @@
       <c r="E17" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="98"/>
-      <c r="G17" s="72"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="69"/>
       <c r="H17" s="28" t="s">
         <v>20</v>
       </c>
@@ -3969,27 +3978,27 @@
       <c r="J17" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="K17" s="54"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="72"/>
-      <c r="AA17" s="98"/>
-      <c r="AB17" s="55"/>
-      <c r="AC17" s="55"/>
-      <c r="AD17" s="55"/>
-      <c r="AE17" s="56"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="71"/>
+      <c r="Y17" s="71"/>
+      <c r="Z17" s="69"/>
+      <c r="AA17" s="128"/>
+      <c r="AB17" s="71"/>
+      <c r="AC17" s="71"/>
+      <c r="AD17" s="71"/>
+      <c r="AE17" s="129"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
@@ -4007,37 +4016,37 @@
       <c r="AT17" s="1"/>
     </row>
     <row r="18" spans="1:46" ht="17.25" customHeight="1">
-      <c r="A18" s="71"/>
-      <c r="B18" s="72"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="69"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="72"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="69"/>
       <c r="H18" s="28"/>
       <c r="I18" s="30"/>
       <c r="J18" s="28"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="55"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="72"/>
-      <c r="AA18" s="98"/>
-      <c r="AB18" s="55"/>
-      <c r="AC18" s="55"/>
-      <c r="AD18" s="55"/>
-      <c r="AE18" s="56"/>
+      <c r="K18" s="131"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="71"/>
+      <c r="Z18" s="69"/>
+      <c r="AA18" s="128"/>
+      <c r="AB18" s="71"/>
+      <c r="AC18" s="71"/>
+      <c r="AD18" s="71"/>
+      <c r="AE18" s="129"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
@@ -4057,39 +4066,39 @@
       <c r="AT18" s="1"/>
     </row>
     <row r="19" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="138" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="58"/>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="58"/>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="58"/>
-      <c r="AC19" s="58"/>
-      <c r="AD19" s="58"/>
-      <c r="AE19" s="59"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="63"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="63"/>
+      <c r="AA19" s="63"/>
+      <c r="AB19" s="63"/>
+      <c r="AC19" s="63"/>
+      <c r="AD19" s="63"/>
+      <c r="AE19" s="134"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
@@ -4109,37 +4118,37 @@
       <c r="AT19" s="1"/>
     </row>
     <row r="20" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A20" s="89"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="61"/>
-      <c r="V20" s="61"/>
-      <c r="W20" s="61"/>
-      <c r="X20" s="61"/>
-      <c r="Y20" s="61"/>
-      <c r="Z20" s="61"/>
-      <c r="AA20" s="61"/>
-      <c r="AB20" s="61"/>
-      <c r="AC20" s="61"/>
-      <c r="AD20" s="61"/>
-      <c r="AE20" s="62"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="81"/>
+      <c r="V20" s="81"/>
+      <c r="W20" s="81"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="81"/>
+      <c r="Z20" s="81"/>
+      <c r="AA20" s="81"/>
+      <c r="AB20" s="81"/>
+      <c r="AC20" s="81"/>
+      <c r="AD20" s="81"/>
+      <c r="AE20" s="136"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
@@ -4159,39 +4168,39 @@
       <c r="AT20" s="1"/>
     </row>
     <row r="21" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="66"/>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="67"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="122"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="122"/>
+      <c r="P21" s="122"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="122"/>
+      <c r="S21" s="122"/>
+      <c r="T21" s="122"/>
+      <c r="U21" s="122"/>
+      <c r="V21" s="122"/>
+      <c r="W21" s="122"/>
+      <c r="X21" s="122"/>
+      <c r="Y21" s="122"/>
+      <c r="Z21" s="122"/>
+      <c r="AA21" s="122"/>
+      <c r="AB21" s="122"/>
+      <c r="AC21" s="122"/>
+      <c r="AD21" s="122"/>
+      <c r="AE21" s="123"/>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
@@ -4211,41 +4220,41 @@
       <c r="AT21" s="3"/>
     </row>
     <row r="22" spans="1:46" ht="17.25" customHeight="1">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="92" t="s">
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="82"/>
-      <c r="T22" s="82"/>
-      <c r="U22" s="82"/>
-      <c r="V22" s="82"/>
-      <c r="W22" s="82"/>
-      <c r="X22" s="82"/>
-      <c r="Y22" s="82"/>
-      <c r="Z22" s="82"/>
-      <c r="AA22" s="82"/>
-      <c r="AB22" s="82"/>
-      <c r="AC22" s="82"/>
-      <c r="AD22" s="82"/>
-      <c r="AE22" s="91"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="48"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="48"/>
+      <c r="AD22" s="48"/>
+      <c r="AE22" s="126"/>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
@@ -4263,8 +4272,8 @@
       <c r="AT22" s="3"/>
     </row>
     <row r="23" spans="1:46" ht="17.25" customHeight="1">
-      <c r="A23" s="96"/>
-      <c r="B23" s="97"/>
+      <c r="A23" s="139"/>
+      <c r="B23" s="140"/>
       <c r="C23" s="38" t="s">
         <v>20</v>
       </c>
@@ -4272,32 +4281,32 @@
       <c r="E23" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="93"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="53"/>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="53"/>
-      <c r="AD23" s="53"/>
-      <c r="AE23" s="94"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="118"/>
+      <c r="P23" s="118"/>
+      <c r="Q23" s="118"/>
+      <c r="R23" s="118"/>
+      <c r="S23" s="118"/>
+      <c r="T23" s="118"/>
+      <c r="U23" s="118"/>
+      <c r="V23" s="118"/>
+      <c r="W23" s="118"/>
+      <c r="X23" s="118"/>
+      <c r="Y23" s="118"/>
+      <c r="Z23" s="118"/>
+      <c r="AA23" s="118"/>
+      <c r="AB23" s="118"/>
+      <c r="AC23" s="118"/>
+      <c r="AD23" s="118"/>
+      <c r="AE23" s="137"/>
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
@@ -4317,37 +4326,37 @@
       <c r="AT23" s="3"/>
     </row>
     <row r="24" spans="1:46" ht="17.25" customHeight="1">
-      <c r="A24" s="71"/>
-      <c r="B24" s="72"/>
+      <c r="A24" s="85"/>
+      <c r="B24" s="69"/>
       <c r="C24" s="28"/>
       <c r="D24" s="29"/>
       <c r="E24" s="28"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="55"/>
-      <c r="Z24" s="55"/>
-      <c r="AA24" s="55"/>
-      <c r="AB24" s="55"/>
-      <c r="AC24" s="55"/>
-      <c r="AD24" s="55"/>
-      <c r="AE24" s="56"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="71"/>
+      <c r="Z24" s="71"/>
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="71"/>
+      <c r="AC24" s="71"/>
+      <c r="AD24" s="71"/>
+      <c r="AE24" s="129"/>
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
@@ -4367,37 +4376,37 @@
       <c r="AT24" s="3"/>
     </row>
     <row r="25" spans="1:46" ht="17.25" customHeight="1">
-      <c r="A25" s="71"/>
-      <c r="B25" s="72"/>
+      <c r="A25" s="85"/>
+      <c r="B25" s="69"/>
       <c r="C25" s="28"/>
       <c r="D25" s="29"/>
       <c r="E25" s="28"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="55"/>
-      <c r="AA25" s="55"/>
-      <c r="AB25" s="55"/>
-      <c r="AC25" s="55"/>
-      <c r="AD25" s="55"/>
-      <c r="AE25" s="56"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="71"/>
+      <c r="V25" s="71"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="71"/>
+      <c r="Y25" s="71"/>
+      <c r="Z25" s="71"/>
+      <c r="AA25" s="71"/>
+      <c r="AB25" s="71"/>
+      <c r="AC25" s="71"/>
+      <c r="AD25" s="71"/>
+      <c r="AE25" s="129"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
@@ -4417,37 +4426,37 @@
       <c r="AT25" s="3"/>
     </row>
     <row r="26" spans="1:46" ht="17.25" customHeight="1">
-      <c r="A26" s="71"/>
-      <c r="B26" s="72"/>
+      <c r="A26" s="85"/>
+      <c r="B26" s="69"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="55"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="55"/>
-      <c r="Z26" s="55"/>
-      <c r="AA26" s="55"/>
-      <c r="AB26" s="55"/>
-      <c r="AC26" s="55"/>
-      <c r="AD26" s="55"/>
-      <c r="AE26" s="56"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="71"/>
+      <c r="V26" s="71"/>
+      <c r="W26" s="71"/>
+      <c r="X26" s="71"/>
+      <c r="Y26" s="71"/>
+      <c r="Z26" s="71"/>
+      <c r="AA26" s="71"/>
+      <c r="AB26" s="71"/>
+      <c r="AC26" s="71"/>
+      <c r="AD26" s="71"/>
+      <c r="AE26" s="129"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
@@ -4467,39 +4476,39 @@
       <c r="AT26" s="3"/>
     </row>
     <row r="27" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="58"/>
-      <c r="Y27" s="58"/>
-      <c r="Z27" s="58"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="58"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="59"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="63"/>
+      <c r="AA27" s="63"/>
+      <c r="AB27" s="63"/>
+      <c r="AC27" s="63"/>
+      <c r="AD27" s="63"/>
+      <c r="AE27" s="134"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
@@ -4519,37 +4528,37 @@
       <c r="AT27" s="1"/>
     </row>
     <row r="28" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A28" s="89"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="61"/>
-      <c r="W28" s="61"/>
-      <c r="X28" s="61"/>
-      <c r="Y28" s="61"/>
-      <c r="Z28" s="61"/>
-      <c r="AA28" s="61"/>
-      <c r="AB28" s="61"/>
-      <c r="AC28" s="61"/>
-      <c r="AD28" s="61"/>
-      <c r="AE28" s="62"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="81"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="81"/>
+      <c r="S28" s="81"/>
+      <c r="T28" s="81"/>
+      <c r="U28" s="81"/>
+      <c r="V28" s="81"/>
+      <c r="W28" s="81"/>
+      <c r="X28" s="81"/>
+      <c r="Y28" s="81"/>
+      <c r="Z28" s="81"/>
+      <c r="AA28" s="81"/>
+      <c r="AB28" s="81"/>
+      <c r="AC28" s="81"/>
+      <c r="AD28" s="81"/>
+      <c r="AE28" s="136"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
@@ -4567,39 +4576,39 @@
       <c r="AT28" s="1"/>
     </row>
     <row r="29" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="66"/>
-      <c r="S29" s="66"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="66"/>
-      <c r="V29" s="66"/>
-      <c r="W29" s="66"/>
-      <c r="X29" s="66"/>
-      <c r="Y29" s="66"/>
-      <c r="Z29" s="66"/>
-      <c r="AA29" s="66"/>
-      <c r="AB29" s="66"/>
-      <c r="AC29" s="66"/>
-      <c r="AD29" s="66"/>
-      <c r="AE29" s="67"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="122"/>
+      <c r="L29" s="122"/>
+      <c r="M29" s="122"/>
+      <c r="N29" s="122"/>
+      <c r="O29" s="122"/>
+      <c r="P29" s="122"/>
+      <c r="Q29" s="122"/>
+      <c r="R29" s="122"/>
+      <c r="S29" s="122"/>
+      <c r="T29" s="122"/>
+      <c r="U29" s="122"/>
+      <c r="V29" s="122"/>
+      <c r="W29" s="122"/>
+      <c r="X29" s="122"/>
+      <c r="Y29" s="122"/>
+      <c r="Z29" s="122"/>
+      <c r="AA29" s="122"/>
+      <c r="AB29" s="122"/>
+      <c r="AC29" s="122"/>
+      <c r="AD29" s="122"/>
+      <c r="AE29" s="123"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
@@ -4619,45 +4628,45 @@
       <c r="AT29" s="1"/>
     </row>
     <row r="30" spans="1:46" ht="17.25" customHeight="1">
-      <c r="A30" s="81" t="s">
+      <c r="A30" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="86" t="s">
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="86" t="s">
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="82"/>
-      <c r="Q30" s="82"/>
-      <c r="R30" s="82"/>
-      <c r="S30" s="82"/>
-      <c r="T30" s="82"/>
-      <c r="U30" s="82"/>
-      <c r="V30" s="82"/>
-      <c r="W30" s="82"/>
-      <c r="X30" s="82"/>
-      <c r="Y30" s="82"/>
-      <c r="Z30" s="82"/>
-      <c r="AA30" s="82"/>
-      <c r="AB30" s="83"/>
-      <c r="AC30" s="86" t="s">
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="48"/>
+      <c r="Z30" s="48"/>
+      <c r="AA30" s="48"/>
+      <c r="AB30" s="61"/>
+      <c r="AC30" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="AD30" s="82"/>
-      <c r="AE30" s="91"/>
+      <c r="AD30" s="48"/>
+      <c r="AE30" s="126"/>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
@@ -4678,8 +4687,8 @@
       <c r="AT30" s="1"/>
     </row>
     <row r="31" spans="1:46" ht="17.25" customHeight="1">
-      <c r="A31" s="84"/>
-      <c r="B31" s="51"/>
+      <c r="A31" s="149"/>
+      <c r="B31" s="84"/>
       <c r="C31" s="38" t="s">
         <v>85</v>
       </c>
@@ -4687,8 +4696,8 @@
       <c r="E31" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="50"/>
-      <c r="G31" s="51"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="84"/>
       <c r="H31" s="38" t="s">
         <v>85</v>
       </c>
@@ -4696,27 +4705,27 @@
       <c r="J31" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="K31" s="52"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="53"/>
-      <c r="Y31" s="53"/>
-      <c r="Z31" s="53"/>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="51"/>
-      <c r="AC31" s="52"/>
-      <c r="AD31" s="68"/>
-      <c r="AE31" s="69"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="118"/>
+      <c r="M31" s="118"/>
+      <c r="N31" s="118"/>
+      <c r="O31" s="118"/>
+      <c r="P31" s="118"/>
+      <c r="Q31" s="118"/>
+      <c r="R31" s="118"/>
+      <c r="S31" s="118"/>
+      <c r="T31" s="118"/>
+      <c r="U31" s="118"/>
+      <c r="V31" s="118"/>
+      <c r="W31" s="118"/>
+      <c r="X31" s="118"/>
+      <c r="Y31" s="118"/>
+      <c r="Z31" s="118"/>
+      <c r="AA31" s="118"/>
+      <c r="AB31" s="84"/>
+      <c r="AC31" s="41"/>
+      <c r="AD31" s="42"/>
+      <c r="AE31" s="43"/>
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
@@ -4737,8 +4746,8 @@
       <c r="AT31" s="1"/>
     </row>
     <row r="32" spans="1:46" ht="17.25" customHeight="1">
-      <c r="A32" s="84"/>
-      <c r="B32" s="51"/>
+      <c r="A32" s="149"/>
+      <c r="B32" s="84"/>
       <c r="C32" s="38" t="s">
         <v>85</v>
       </c>
@@ -4746,8 +4755,8 @@
       <c r="E32" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F32" s="50"/>
-      <c r="G32" s="51"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="84"/>
       <c r="H32" s="38" t="s">
         <v>85</v>
       </c>
@@ -4755,27 +4764,27 @@
       <c r="J32" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K32" s="70"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
-      <c r="V32" s="53"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="53"/>
-      <c r="Y32" s="53"/>
-      <c r="Z32" s="53"/>
-      <c r="AA32" s="53"/>
-      <c r="AB32" s="51"/>
-      <c r="AC32" s="52"/>
-      <c r="AD32" s="68"/>
-      <c r="AE32" s="69"/>
+      <c r="K32" s="160"/>
+      <c r="L32" s="118"/>
+      <c r="M32" s="118"/>
+      <c r="N32" s="118"/>
+      <c r="O32" s="118"/>
+      <c r="P32" s="118"/>
+      <c r="Q32" s="118"/>
+      <c r="R32" s="118"/>
+      <c r="S32" s="118"/>
+      <c r="T32" s="118"/>
+      <c r="U32" s="118"/>
+      <c r="V32" s="118"/>
+      <c r="W32" s="118"/>
+      <c r="X32" s="118"/>
+      <c r="Y32" s="118"/>
+      <c r="Z32" s="118"/>
+      <c r="AA32" s="118"/>
+      <c r="AB32" s="84"/>
+      <c r="AC32" s="41"/>
+      <c r="AD32" s="42"/>
+      <c r="AE32" s="43"/>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
@@ -4796,8 +4805,8 @@
       <c r="AT32" s="1"/>
     </row>
     <row r="33" spans="1:46" ht="17.25" customHeight="1">
-      <c r="A33" s="84"/>
-      <c r="B33" s="51"/>
+      <c r="A33" s="149"/>
+      <c r="B33" s="84"/>
       <c r="C33" s="38" t="s">
         <v>85</v>
       </c>
@@ -4805,8 +4814,8 @@
       <c r="E33" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="50"/>
-      <c r="G33" s="51"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="84"/>
       <c r="H33" s="38" t="s">
         <v>85</v>
       </c>
@@ -4814,27 +4823,27 @@
       <c r="J33" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="K33" s="52"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="53"/>
-      <c r="Y33" s="53"/>
-      <c r="Z33" s="53"/>
-      <c r="AA33" s="53"/>
-      <c r="AB33" s="51"/>
-      <c r="AC33" s="52"/>
-      <c r="AD33" s="68"/>
-      <c r="AE33" s="69"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="118"/>
+      <c r="M33" s="118"/>
+      <c r="N33" s="118"/>
+      <c r="O33" s="118"/>
+      <c r="P33" s="118"/>
+      <c r="Q33" s="118"/>
+      <c r="R33" s="118"/>
+      <c r="S33" s="118"/>
+      <c r="T33" s="118"/>
+      <c r="U33" s="118"/>
+      <c r="V33" s="118"/>
+      <c r="W33" s="118"/>
+      <c r="X33" s="118"/>
+      <c r="Y33" s="118"/>
+      <c r="Z33" s="118"/>
+      <c r="AA33" s="118"/>
+      <c r="AB33" s="84"/>
+      <c r="AC33" s="41"/>
+      <c r="AD33" s="42"/>
+      <c r="AE33" s="43"/>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
@@ -4855,8 +4864,8 @@
       <c r="AT33" s="1"/>
     </row>
     <row r="34" spans="1:46" s="8" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A34" s="84"/>
-      <c r="B34" s="51"/>
+      <c r="A34" s="149"/>
+      <c r="B34" s="84"/>
       <c r="C34" s="38" t="s">
         <v>85</v>
       </c>
@@ -4864,8 +4873,8 @@
       <c r="E34" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="50"/>
-      <c r="G34" s="51"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="84"/>
       <c r="H34" s="38" t="s">
         <v>85</v>
       </c>
@@ -4873,27 +4882,27 @@
       <c r="J34" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="K34" s="52"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="53"/>
-      <c r="U34" s="53"/>
-      <c r="V34" s="53"/>
-      <c r="W34" s="53"/>
-      <c r="X34" s="53"/>
-      <c r="Y34" s="53"/>
-      <c r="Z34" s="53"/>
-      <c r="AA34" s="53"/>
-      <c r="AB34" s="51"/>
-      <c r="AC34" s="52"/>
-      <c r="AD34" s="68"/>
-      <c r="AE34" s="69"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="118"/>
+      <c r="M34" s="118"/>
+      <c r="N34" s="118"/>
+      <c r="O34" s="118"/>
+      <c r="P34" s="118"/>
+      <c r="Q34" s="118"/>
+      <c r="R34" s="118"/>
+      <c r="S34" s="118"/>
+      <c r="T34" s="118"/>
+      <c r="U34" s="118"/>
+      <c r="V34" s="118"/>
+      <c r="W34" s="118"/>
+      <c r="X34" s="118"/>
+      <c r="Y34" s="118"/>
+      <c r="Z34" s="118"/>
+      <c r="AA34" s="118"/>
+      <c r="AB34" s="84"/>
+      <c r="AC34" s="41"/>
+      <c r="AD34" s="42"/>
+      <c r="AE34" s="43"/>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
@@ -4911,8 +4920,8 @@
       <c r="AT34" s="1"/>
     </row>
     <row r="35" spans="1:46" ht="17.25" customHeight="1">
-      <c r="A35" s="85"/>
-      <c r="B35" s="51"/>
+      <c r="A35" s="130"/>
+      <c r="B35" s="84"/>
       <c r="C35" s="38" t="s">
         <v>85</v>
       </c>
@@ -4920,8 +4929,8 @@
       <c r="E35" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="50"/>
-      <c r="G35" s="51"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="84"/>
       <c r="H35" s="38" t="s">
         <v>85</v>
       </c>
@@ -4929,27 +4938,27 @@
       <c r="J35" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K35" s="52"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="53"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="53"/>
-      <c r="V35" s="53"/>
-      <c r="W35" s="53"/>
-      <c r="X35" s="53"/>
-      <c r="Y35" s="53"/>
-      <c r="Z35" s="53"/>
-      <c r="AA35" s="53"/>
-      <c r="AB35" s="51"/>
-      <c r="AC35" s="52"/>
-      <c r="AD35" s="68"/>
-      <c r="AE35" s="69"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="118"/>
+      <c r="M35" s="118"/>
+      <c r="N35" s="118"/>
+      <c r="O35" s="118"/>
+      <c r="P35" s="118"/>
+      <c r="Q35" s="118"/>
+      <c r="R35" s="118"/>
+      <c r="S35" s="118"/>
+      <c r="T35" s="118"/>
+      <c r="U35" s="118"/>
+      <c r="V35" s="118"/>
+      <c r="W35" s="118"/>
+      <c r="X35" s="118"/>
+      <c r="Y35" s="118"/>
+      <c r="Z35" s="118"/>
+      <c r="AA35" s="118"/>
+      <c r="AB35" s="84"/>
+      <c r="AC35" s="41"/>
+      <c r="AD35" s="42"/>
+      <c r="AE35" s="43"/>
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
@@ -4970,39 +4979,39 @@
       <c r="AT35" s="1"/>
     </row>
     <row r="36" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A36" s="87" t="s">
+      <c r="A36" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="58"/>
-      <c r="Q36" s="58"/>
-      <c r="R36" s="58"/>
-      <c r="S36" s="58"/>
-      <c r="T36" s="58"/>
-      <c r="U36" s="58"/>
-      <c r="V36" s="58"/>
-      <c r="W36" s="58"/>
-      <c r="X36" s="58"/>
-      <c r="Y36" s="58"/>
-      <c r="Z36" s="58"/>
-      <c r="AA36" s="58"/>
-      <c r="AB36" s="58"/>
-      <c r="AC36" s="58"/>
-      <c r="AD36" s="58"/>
-      <c r="AE36" s="59"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="63"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="63"/>
+      <c r="Z36" s="63"/>
+      <c r="AA36" s="63"/>
+      <c r="AB36" s="63"/>
+      <c r="AC36" s="63"/>
+      <c r="AD36" s="63"/>
+      <c r="AE36" s="134"/>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
@@ -5020,37 +5029,37 @@
       <c r="AT36" s="1"/>
     </row>
     <row r="37" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A37" s="89"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="61"/>
-      <c r="O37" s="61"/>
-      <c r="P37" s="61"/>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="61"/>
-      <c r="S37" s="61"/>
-      <c r="T37" s="61"/>
-      <c r="U37" s="61"/>
-      <c r="V37" s="61"/>
-      <c r="W37" s="61"/>
-      <c r="X37" s="61"/>
-      <c r="Y37" s="61"/>
-      <c r="Z37" s="61"/>
-      <c r="AA37" s="61"/>
-      <c r="AB37" s="61"/>
-      <c r="AC37" s="61"/>
-      <c r="AD37" s="61"/>
-      <c r="AE37" s="62"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="135"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="81"/>
+      <c r="M37" s="81"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="81"/>
+      <c r="P37" s="81"/>
+      <c r="Q37" s="81"/>
+      <c r="R37" s="81"/>
+      <c r="S37" s="81"/>
+      <c r="T37" s="81"/>
+      <c r="U37" s="81"/>
+      <c r="V37" s="81"/>
+      <c r="W37" s="81"/>
+      <c r="X37" s="81"/>
+      <c r="Y37" s="81"/>
+      <c r="Z37" s="81"/>
+      <c r="AA37" s="81"/>
+      <c r="AB37" s="81"/>
+      <c r="AC37" s="81"/>
+      <c r="AD37" s="81"/>
+      <c r="AE37" s="136"/>
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
@@ -5068,41 +5077,41 @@
       <c r="AT37" s="3"/>
     </row>
     <row r="38" spans="1:46" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="141" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="74" t="s">
+      <c r="B38" s="122"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="122"/>
+      <c r="E38" s="122"/>
+      <c r="F38" s="122"/>
+      <c r="G38" s="122"/>
+      <c r="H38" s="122"/>
+      <c r="I38" s="122"/>
+      <c r="J38" s="122"/>
+      <c r="K38" s="122"/>
+      <c r="L38" s="122"/>
+      <c r="M38" s="122"/>
+      <c r="N38" s="142" t="s">
         <v>77</v>
       </c>
-      <c r="O38" s="66"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="66"/>
-      <c r="R38" s="66"/>
-      <c r="S38" s="66"/>
-      <c r="T38" s="66"/>
-      <c r="U38" s="66"/>
-      <c r="V38" s="66"/>
-      <c r="W38" s="66"/>
-      <c r="X38" s="66"/>
-      <c r="Y38" s="66"/>
-      <c r="Z38" s="66"/>
-      <c r="AA38" s="66"/>
-      <c r="AB38" s="66"/>
-      <c r="AC38" s="66"/>
-      <c r="AD38" s="66"/>
-      <c r="AE38" s="67"/>
+      <c r="O38" s="122"/>
+      <c r="P38" s="122"/>
+      <c r="Q38" s="122"/>
+      <c r="R38" s="122"/>
+      <c r="S38" s="122"/>
+      <c r="T38" s="122"/>
+      <c r="U38" s="122"/>
+      <c r="V38" s="122"/>
+      <c r="W38" s="122"/>
+      <c r="X38" s="122"/>
+      <c r="Y38" s="122"/>
+      <c r="Z38" s="122"/>
+      <c r="AA38" s="122"/>
+      <c r="AB38" s="122"/>
+      <c r="AC38" s="122"/>
+      <c r="AD38" s="122"/>
+      <c r="AE38" s="123"/>
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
@@ -5120,37 +5129,37 @@
       <c r="AT38" s="3"/>
     </row>
     <row r="39" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A39" s="75"/>
-      <c r="B39" s="76"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="77"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="42"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="42"/>
-      <c r="U39" s="42"/>
-      <c r="V39" s="42"/>
-      <c r="W39" s="42"/>
-      <c r="X39" s="42"/>
-      <c r="Y39" s="42"/>
-      <c r="Z39" s="42"/>
-      <c r="AA39" s="42"/>
-      <c r="AB39" s="42"/>
-      <c r="AC39" s="42"/>
-      <c r="AD39" s="42"/>
-      <c r="AE39" s="43"/>
+      <c r="A39" s="143"/>
+      <c r="B39" s="144"/>
+      <c r="C39" s="144"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="144"/>
+      <c r="F39" s="144"/>
+      <c r="G39" s="144"/>
+      <c r="H39" s="144"/>
+      <c r="I39" s="144"/>
+      <c r="J39" s="144"/>
+      <c r="K39" s="144"/>
+      <c r="L39" s="144"/>
+      <c r="M39" s="145"/>
+      <c r="N39" s="150"/>
+      <c r="O39" s="151"/>
+      <c r="P39" s="151"/>
+      <c r="Q39" s="151"/>
+      <c r="R39" s="151"/>
+      <c r="S39" s="151"/>
+      <c r="T39" s="151"/>
+      <c r="U39" s="151"/>
+      <c r="V39" s="151"/>
+      <c r="W39" s="151"/>
+      <c r="X39" s="151"/>
+      <c r="Y39" s="151"/>
+      <c r="Z39" s="151"/>
+      <c r="AA39" s="151"/>
+      <c r="AB39" s="151"/>
+      <c r="AC39" s="151"/>
+      <c r="AD39" s="151"/>
+      <c r="AE39" s="152"/>
       <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
@@ -5168,37 +5177,37 @@
       <c r="AT39" s="3"/>
     </row>
     <row r="40" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A40" s="78"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="45"/>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="45"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="45"/>
-      <c r="U40" s="45"/>
-      <c r="V40" s="45"/>
-      <c r="W40" s="45"/>
-      <c r="X40" s="45"/>
-      <c r="Y40" s="45"/>
-      <c r="Z40" s="45"/>
-      <c r="AA40" s="45"/>
-      <c r="AB40" s="45"/>
-      <c r="AC40" s="45"/>
-      <c r="AD40" s="45"/>
-      <c r="AE40" s="46"/>
+      <c r="A40" s="146"/>
+      <c r="B40" s="144"/>
+      <c r="C40" s="144"/>
+      <c r="D40" s="144"/>
+      <c r="E40" s="144"/>
+      <c r="F40" s="144"/>
+      <c r="G40" s="144"/>
+      <c r="H40" s="144"/>
+      <c r="I40" s="144"/>
+      <c r="J40" s="144"/>
+      <c r="K40" s="144"/>
+      <c r="L40" s="144"/>
+      <c r="M40" s="145"/>
+      <c r="N40" s="153"/>
+      <c r="O40" s="154"/>
+      <c r="P40" s="154"/>
+      <c r="Q40" s="154"/>
+      <c r="R40" s="154"/>
+      <c r="S40" s="154"/>
+      <c r="T40" s="154"/>
+      <c r="U40" s="154"/>
+      <c r="V40" s="154"/>
+      <c r="W40" s="154"/>
+      <c r="X40" s="154"/>
+      <c r="Y40" s="154"/>
+      <c r="Z40" s="154"/>
+      <c r="AA40" s="154"/>
+      <c r="AB40" s="154"/>
+      <c r="AC40" s="154"/>
+      <c r="AD40" s="154"/>
+      <c r="AE40" s="155"/>
       <c r="AF40" s="3"/>
       <c r="AG40" s="3"/>
       <c r="AH40" s="3"/>
@@ -5216,37 +5225,37 @@
       <c r="AT40" s="3"/>
     </row>
     <row r="41" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A41" s="78"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="77"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="45"/>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="45"/>
-      <c r="S41" s="45"/>
-      <c r="T41" s="45"/>
-      <c r="U41" s="45"/>
-      <c r="V41" s="45"/>
-      <c r="W41" s="45"/>
-      <c r="X41" s="45"/>
-      <c r="Y41" s="45"/>
-      <c r="Z41" s="45"/>
-      <c r="AA41" s="45"/>
-      <c r="AB41" s="45"/>
-      <c r="AC41" s="45"/>
-      <c r="AD41" s="45"/>
-      <c r="AE41" s="46"/>
+      <c r="A41" s="146"/>
+      <c r="B41" s="144"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="144"/>
+      <c r="F41" s="144"/>
+      <c r="G41" s="144"/>
+      <c r="H41" s="144"/>
+      <c r="I41" s="144"/>
+      <c r="J41" s="144"/>
+      <c r="K41" s="144"/>
+      <c r="L41" s="144"/>
+      <c r="M41" s="145"/>
+      <c r="N41" s="153"/>
+      <c r="O41" s="154"/>
+      <c r="P41" s="154"/>
+      <c r="Q41" s="154"/>
+      <c r="R41" s="154"/>
+      <c r="S41" s="154"/>
+      <c r="T41" s="154"/>
+      <c r="U41" s="154"/>
+      <c r="V41" s="154"/>
+      <c r="W41" s="154"/>
+      <c r="X41" s="154"/>
+      <c r="Y41" s="154"/>
+      <c r="Z41" s="154"/>
+      <c r="AA41" s="154"/>
+      <c r="AB41" s="154"/>
+      <c r="AC41" s="154"/>
+      <c r="AD41" s="154"/>
+      <c r="AE41" s="155"/>
       <c r="AF41" s="3"/>
       <c r="AG41" s="3"/>
       <c r="AH41" s="3"/>
@@ -5264,37 +5273,37 @@
       <c r="AT41" s="3"/>
     </row>
     <row r="42" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A42" s="78"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="76"/>
-      <c r="K42" s="76"/>
-      <c r="L42" s="76"/>
-      <c r="M42" s="77"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="45"/>
-      <c r="S42" s="45"/>
-      <c r="T42" s="45"/>
-      <c r="U42" s="45"/>
-      <c r="V42" s="45"/>
-      <c r="W42" s="45"/>
-      <c r="X42" s="45"/>
-      <c r="Y42" s="45"/>
-      <c r="Z42" s="45"/>
-      <c r="AA42" s="45"/>
-      <c r="AB42" s="45"/>
-      <c r="AC42" s="45"/>
-      <c r="AD42" s="45"/>
-      <c r="AE42" s="46"/>
+      <c r="A42" s="146"/>
+      <c r="B42" s="144"/>
+      <c r="C42" s="144"/>
+      <c r="D42" s="144"/>
+      <c r="E42" s="144"/>
+      <c r="F42" s="144"/>
+      <c r="G42" s="144"/>
+      <c r="H42" s="144"/>
+      <c r="I42" s="144"/>
+      <c r="J42" s="144"/>
+      <c r="K42" s="144"/>
+      <c r="L42" s="144"/>
+      <c r="M42" s="145"/>
+      <c r="N42" s="153"/>
+      <c r="O42" s="154"/>
+      <c r="P42" s="154"/>
+      <c r="Q42" s="154"/>
+      <c r="R42" s="154"/>
+      <c r="S42" s="154"/>
+      <c r="T42" s="154"/>
+      <c r="U42" s="154"/>
+      <c r="V42" s="154"/>
+      <c r="W42" s="154"/>
+      <c r="X42" s="154"/>
+      <c r="Y42" s="154"/>
+      <c r="Z42" s="154"/>
+      <c r="AA42" s="154"/>
+      <c r="AB42" s="154"/>
+      <c r="AC42" s="154"/>
+      <c r="AD42" s="154"/>
+      <c r="AE42" s="155"/>
       <c r="AF42" s="3"/>
       <c r="AG42" s="3"/>
       <c r="AH42" s="3"/>
@@ -5312,37 +5321,37 @@
       <c r="AT42" s="3"/>
     </row>
     <row r="43" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A43" s="78"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="76"/>
-      <c r="K43" s="76"/>
-      <c r="L43" s="76"/>
-      <c r="M43" s="77"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="45"/>
-      <c r="P43" s="45"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="45"/>
-      <c r="S43" s="45"/>
-      <c r="T43" s="45"/>
-      <c r="U43" s="45"/>
-      <c r="V43" s="45"/>
-      <c r="W43" s="45"/>
-      <c r="X43" s="45"/>
-      <c r="Y43" s="45"/>
-      <c r="Z43" s="45"/>
-      <c r="AA43" s="45"/>
-      <c r="AB43" s="45"/>
-      <c r="AC43" s="45"/>
-      <c r="AD43" s="45"/>
-      <c r="AE43" s="46"/>
+      <c r="A43" s="146"/>
+      <c r="B43" s="144"/>
+      <c r="C43" s="144"/>
+      <c r="D43" s="144"/>
+      <c r="E43" s="144"/>
+      <c r="F43" s="144"/>
+      <c r="G43" s="144"/>
+      <c r="H43" s="144"/>
+      <c r="I43" s="144"/>
+      <c r="J43" s="144"/>
+      <c r="K43" s="144"/>
+      <c r="L43" s="144"/>
+      <c r="M43" s="145"/>
+      <c r="N43" s="153"/>
+      <c r="O43" s="154"/>
+      <c r="P43" s="154"/>
+      <c r="Q43" s="154"/>
+      <c r="R43" s="154"/>
+      <c r="S43" s="154"/>
+      <c r="T43" s="154"/>
+      <c r="U43" s="154"/>
+      <c r="V43" s="154"/>
+      <c r="W43" s="154"/>
+      <c r="X43" s="154"/>
+      <c r="Y43" s="154"/>
+      <c r="Z43" s="154"/>
+      <c r="AA43" s="154"/>
+      <c r="AB43" s="154"/>
+      <c r="AC43" s="154"/>
+      <c r="AD43" s="154"/>
+      <c r="AE43" s="155"/>
       <c r="AF43" s="3"/>
       <c r="AG43" s="3"/>
       <c r="AH43" s="3"/>
@@ -5360,37 +5369,37 @@
       <c r="AT43" s="3"/>
     </row>
     <row r="44" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A44" s="78"/>
-      <c r="B44" s="76"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="76"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="77"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="45"/>
-      <c r="P44" s="45"/>
-      <c r="Q44" s="45"/>
-      <c r="R44" s="45"/>
-      <c r="S44" s="45"/>
-      <c r="T44" s="45"/>
-      <c r="U44" s="45"/>
-      <c r="V44" s="45"/>
-      <c r="W44" s="45"/>
-      <c r="X44" s="45"/>
-      <c r="Y44" s="45"/>
-      <c r="Z44" s="45"/>
-      <c r="AA44" s="45"/>
-      <c r="AB44" s="45"/>
-      <c r="AC44" s="45"/>
-      <c r="AD44" s="45"/>
-      <c r="AE44" s="46"/>
+      <c r="A44" s="146"/>
+      <c r="B44" s="144"/>
+      <c r="C44" s="144"/>
+      <c r="D44" s="144"/>
+      <c r="E44" s="144"/>
+      <c r="F44" s="144"/>
+      <c r="G44" s="144"/>
+      <c r="H44" s="144"/>
+      <c r="I44" s="144"/>
+      <c r="J44" s="144"/>
+      <c r="K44" s="144"/>
+      <c r="L44" s="144"/>
+      <c r="M44" s="145"/>
+      <c r="N44" s="153"/>
+      <c r="O44" s="154"/>
+      <c r="P44" s="154"/>
+      <c r="Q44" s="154"/>
+      <c r="R44" s="154"/>
+      <c r="S44" s="154"/>
+      <c r="T44" s="154"/>
+      <c r="U44" s="154"/>
+      <c r="V44" s="154"/>
+      <c r="W44" s="154"/>
+      <c r="X44" s="154"/>
+      <c r="Y44" s="154"/>
+      <c r="Z44" s="154"/>
+      <c r="AA44" s="154"/>
+      <c r="AB44" s="154"/>
+      <c r="AC44" s="154"/>
+      <c r="AD44" s="154"/>
+      <c r="AE44" s="155"/>
       <c r="AF44" s="3"/>
       <c r="AG44" s="3"/>
       <c r="AH44" s="3"/>
@@ -5408,37 +5417,37 @@
       <c r="AT44" s="3"/>
     </row>
     <row r="45" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A45" s="78"/>
-      <c r="B45" s="76"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="76"/>
-      <c r="H45" s="76"/>
-      <c r="I45" s="76"/>
-      <c r="J45" s="76"/>
-      <c r="K45" s="76"/>
-      <c r="L45" s="76"/>
-      <c r="M45" s="77"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="45"/>
-      <c r="P45" s="45"/>
-      <c r="Q45" s="45"/>
-      <c r="R45" s="45"/>
-      <c r="S45" s="45"/>
-      <c r="T45" s="45"/>
-      <c r="U45" s="45"/>
-      <c r="V45" s="45"/>
-      <c r="W45" s="45"/>
-      <c r="X45" s="45"/>
-      <c r="Y45" s="45"/>
-      <c r="Z45" s="45"/>
-      <c r="AA45" s="45"/>
-      <c r="AB45" s="45"/>
-      <c r="AC45" s="45"/>
-      <c r="AD45" s="45"/>
-      <c r="AE45" s="46"/>
+      <c r="A45" s="146"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="144"/>
+      <c r="H45" s="144"/>
+      <c r="I45" s="144"/>
+      <c r="J45" s="144"/>
+      <c r="K45" s="144"/>
+      <c r="L45" s="144"/>
+      <c r="M45" s="145"/>
+      <c r="N45" s="153"/>
+      <c r="O45" s="154"/>
+      <c r="P45" s="154"/>
+      <c r="Q45" s="154"/>
+      <c r="R45" s="154"/>
+      <c r="S45" s="154"/>
+      <c r="T45" s="154"/>
+      <c r="U45" s="154"/>
+      <c r="V45" s="154"/>
+      <c r="W45" s="154"/>
+      <c r="X45" s="154"/>
+      <c r="Y45" s="154"/>
+      <c r="Z45" s="154"/>
+      <c r="AA45" s="154"/>
+      <c r="AB45" s="154"/>
+      <c r="AC45" s="154"/>
+      <c r="AD45" s="154"/>
+      <c r="AE45" s="155"/>
       <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
       <c r="AH45" s="3"/>
@@ -5456,37 +5465,37 @@
       <c r="AT45" s="3"/>
     </row>
     <row r="46" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A46" s="78"/>
-      <c r="B46" s="76"/>
-      <c r="C46" s="76"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="76"/>
-      <c r="K46" s="76"/>
-      <c r="L46" s="76"/>
-      <c r="M46" s="77"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="45"/>
-      <c r="P46" s="45"/>
-      <c r="Q46" s="45"/>
-      <c r="R46" s="45"/>
-      <c r="S46" s="45"/>
-      <c r="T46" s="45"/>
-      <c r="U46" s="45"/>
-      <c r="V46" s="45"/>
-      <c r="W46" s="45"/>
-      <c r="X46" s="45"/>
-      <c r="Y46" s="45"/>
-      <c r="Z46" s="45"/>
-      <c r="AA46" s="45"/>
-      <c r="AB46" s="45"/>
-      <c r="AC46" s="45"/>
-      <c r="AD46" s="45"/>
-      <c r="AE46" s="46"/>
+      <c r="A46" s="146"/>
+      <c r="B46" s="144"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="144"/>
+      <c r="F46" s="144"/>
+      <c r="G46" s="144"/>
+      <c r="H46" s="144"/>
+      <c r="I46" s="144"/>
+      <c r="J46" s="144"/>
+      <c r="K46" s="144"/>
+      <c r="L46" s="144"/>
+      <c r="M46" s="145"/>
+      <c r="N46" s="153"/>
+      <c r="O46" s="154"/>
+      <c r="P46" s="154"/>
+      <c r="Q46" s="154"/>
+      <c r="R46" s="154"/>
+      <c r="S46" s="154"/>
+      <c r="T46" s="154"/>
+      <c r="U46" s="154"/>
+      <c r="V46" s="154"/>
+      <c r="W46" s="154"/>
+      <c r="X46" s="154"/>
+      <c r="Y46" s="154"/>
+      <c r="Z46" s="154"/>
+      <c r="AA46" s="154"/>
+      <c r="AB46" s="154"/>
+      <c r="AC46" s="154"/>
+      <c r="AD46" s="154"/>
+      <c r="AE46" s="155"/>
       <c r="AF46" s="3"/>
       <c r="AG46" s="3"/>
       <c r="AH46" s="3"/>
@@ -5504,37 +5513,37 @@
       <c r="AT46" s="3"/>
     </row>
     <row r="47" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A47" s="78"/>
-      <c r="B47" s="76"/>
-      <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="76"/>
-      <c r="K47" s="76"/>
-      <c r="L47" s="76"/>
-      <c r="M47" s="77"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="45"/>
-      <c r="P47" s="45"/>
-      <c r="Q47" s="45"/>
-      <c r="R47" s="45"/>
-      <c r="S47" s="45"/>
-      <c r="T47" s="45"/>
-      <c r="U47" s="45"/>
-      <c r="V47" s="45"/>
-      <c r="W47" s="45"/>
-      <c r="X47" s="45"/>
-      <c r="Y47" s="45"/>
-      <c r="Z47" s="45"/>
-      <c r="AA47" s="45"/>
-      <c r="AB47" s="45"/>
-      <c r="AC47" s="45"/>
-      <c r="AD47" s="45"/>
-      <c r="AE47" s="46"/>
+      <c r="A47" s="146"/>
+      <c r="B47" s="144"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="144"/>
+      <c r="E47" s="144"/>
+      <c r="F47" s="144"/>
+      <c r="G47" s="144"/>
+      <c r="H47" s="144"/>
+      <c r="I47" s="144"/>
+      <c r="J47" s="144"/>
+      <c r="K47" s="144"/>
+      <c r="L47" s="144"/>
+      <c r="M47" s="145"/>
+      <c r="N47" s="153"/>
+      <c r="O47" s="154"/>
+      <c r="P47" s="154"/>
+      <c r="Q47" s="154"/>
+      <c r="R47" s="154"/>
+      <c r="S47" s="154"/>
+      <c r="T47" s="154"/>
+      <c r="U47" s="154"/>
+      <c r="V47" s="154"/>
+      <c r="W47" s="154"/>
+      <c r="X47" s="154"/>
+      <c r="Y47" s="154"/>
+      <c r="Z47" s="154"/>
+      <c r="AA47" s="154"/>
+      <c r="AB47" s="154"/>
+      <c r="AC47" s="154"/>
+      <c r="AD47" s="154"/>
+      <c r="AE47" s="155"/>
       <c r="AF47" s="3"/>
       <c r="AG47" s="3"/>
       <c r="AH47" s="3"/>
@@ -5552,37 +5561,37 @@
       <c r="AT47" s="3"/>
     </row>
     <row r="48" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A48" s="78"/>
-      <c r="B48" s="76"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="76"/>
-      <c r="I48" s="76"/>
-      <c r="J48" s="76"/>
-      <c r="K48" s="76"/>
-      <c r="L48" s="76"/>
-      <c r="M48" s="77"/>
-      <c r="N48" s="44"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="45"/>
-      <c r="S48" s="45"/>
-      <c r="T48" s="45"/>
-      <c r="U48" s="45"/>
-      <c r="V48" s="45"/>
-      <c r="W48" s="45"/>
-      <c r="X48" s="45"/>
-      <c r="Y48" s="45"/>
-      <c r="Z48" s="45"/>
-      <c r="AA48" s="45"/>
-      <c r="AB48" s="45"/>
-      <c r="AC48" s="45"/>
-      <c r="AD48" s="45"/>
-      <c r="AE48" s="46"/>
+      <c r="A48" s="146"/>
+      <c r="B48" s="144"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="144"/>
+      <c r="E48" s="144"/>
+      <c r="F48" s="144"/>
+      <c r="G48" s="144"/>
+      <c r="H48" s="144"/>
+      <c r="I48" s="144"/>
+      <c r="J48" s="144"/>
+      <c r="K48" s="144"/>
+      <c r="L48" s="144"/>
+      <c r="M48" s="145"/>
+      <c r="N48" s="153"/>
+      <c r="O48" s="154"/>
+      <c r="P48" s="154"/>
+      <c r="Q48" s="154"/>
+      <c r="R48" s="154"/>
+      <c r="S48" s="154"/>
+      <c r="T48" s="154"/>
+      <c r="U48" s="154"/>
+      <c r="V48" s="154"/>
+      <c r="W48" s="154"/>
+      <c r="X48" s="154"/>
+      <c r="Y48" s="154"/>
+      <c r="Z48" s="154"/>
+      <c r="AA48" s="154"/>
+      <c r="AB48" s="154"/>
+      <c r="AC48" s="154"/>
+      <c r="AD48" s="154"/>
+      <c r="AE48" s="155"/>
       <c r="AF48" s="3"/>
       <c r="AG48" s="3"/>
       <c r="AH48" s="3"/>
@@ -5600,37 +5609,37 @@
       <c r="AT48" s="3"/>
     </row>
     <row r="49" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A49" s="78"/>
-      <c r="B49" s="76"/>
-      <c r="C49" s="76"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="76"/>
-      <c r="H49" s="76"/>
-      <c r="I49" s="76"/>
-      <c r="J49" s="76"/>
-      <c r="K49" s="76"/>
-      <c r="L49" s="76"/>
-      <c r="M49" s="77"/>
-      <c r="N49" s="44"/>
-      <c r="O49" s="45"/>
-      <c r="P49" s="45"/>
-      <c r="Q49" s="45"/>
-      <c r="R49" s="45"/>
-      <c r="S49" s="45"/>
-      <c r="T49" s="45"/>
-      <c r="U49" s="45"/>
-      <c r="V49" s="45"/>
-      <c r="W49" s="45"/>
-      <c r="X49" s="45"/>
-      <c r="Y49" s="45"/>
-      <c r="Z49" s="45"/>
-      <c r="AA49" s="45"/>
-      <c r="AB49" s="45"/>
-      <c r="AC49" s="45"/>
-      <c r="AD49" s="45"/>
-      <c r="AE49" s="46"/>
+      <c r="A49" s="146"/>
+      <c r="B49" s="144"/>
+      <c r="C49" s="144"/>
+      <c r="D49" s="144"/>
+      <c r="E49" s="144"/>
+      <c r="F49" s="144"/>
+      <c r="G49" s="144"/>
+      <c r="H49" s="144"/>
+      <c r="I49" s="144"/>
+      <c r="J49" s="144"/>
+      <c r="K49" s="144"/>
+      <c r="L49" s="144"/>
+      <c r="M49" s="145"/>
+      <c r="N49" s="153"/>
+      <c r="O49" s="154"/>
+      <c r="P49" s="154"/>
+      <c r="Q49" s="154"/>
+      <c r="R49" s="154"/>
+      <c r="S49" s="154"/>
+      <c r="T49" s="154"/>
+      <c r="U49" s="154"/>
+      <c r="V49" s="154"/>
+      <c r="W49" s="154"/>
+      <c r="X49" s="154"/>
+      <c r="Y49" s="154"/>
+      <c r="Z49" s="154"/>
+      <c r="AA49" s="154"/>
+      <c r="AB49" s="154"/>
+      <c r="AC49" s="154"/>
+      <c r="AD49" s="154"/>
+      <c r="AE49" s="155"/>
       <c r="AF49" s="3"/>
       <c r="AG49" s="3"/>
       <c r="AH49" s="3"/>
@@ -5648,37 +5657,37 @@
       <c r="AT49" s="3"/>
     </row>
     <row r="50" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A50" s="78"/>
-      <c r="B50" s="76"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="76"/>
-      <c r="I50" s="76"/>
-      <c r="J50" s="76"/>
-      <c r="K50" s="76"/>
-      <c r="L50" s="76"/>
-      <c r="M50" s="77"/>
-      <c r="N50" s="44"/>
-      <c r="O50" s="45"/>
-      <c r="P50" s="45"/>
-      <c r="Q50" s="45"/>
-      <c r="R50" s="45"/>
-      <c r="S50" s="45"/>
-      <c r="T50" s="45"/>
-      <c r="U50" s="45"/>
-      <c r="V50" s="45"/>
-      <c r="W50" s="45"/>
-      <c r="X50" s="45"/>
-      <c r="Y50" s="45"/>
-      <c r="Z50" s="45"/>
-      <c r="AA50" s="45"/>
-      <c r="AB50" s="45"/>
-      <c r="AC50" s="45"/>
-      <c r="AD50" s="45"/>
-      <c r="AE50" s="46"/>
+      <c r="A50" s="146"/>
+      <c r="B50" s="144"/>
+      <c r="C50" s="144"/>
+      <c r="D50" s="144"/>
+      <c r="E50" s="144"/>
+      <c r="F50" s="144"/>
+      <c r="G50" s="144"/>
+      <c r="H50" s="144"/>
+      <c r="I50" s="144"/>
+      <c r="J50" s="144"/>
+      <c r="K50" s="144"/>
+      <c r="L50" s="144"/>
+      <c r="M50" s="145"/>
+      <c r="N50" s="153"/>
+      <c r="O50" s="154"/>
+      <c r="P50" s="154"/>
+      <c r="Q50" s="154"/>
+      <c r="R50" s="154"/>
+      <c r="S50" s="154"/>
+      <c r="T50" s="154"/>
+      <c r="U50" s="154"/>
+      <c r="V50" s="154"/>
+      <c r="W50" s="154"/>
+      <c r="X50" s="154"/>
+      <c r="Y50" s="154"/>
+      <c r="Z50" s="154"/>
+      <c r="AA50" s="154"/>
+      <c r="AB50" s="154"/>
+      <c r="AC50" s="154"/>
+      <c r="AD50" s="154"/>
+      <c r="AE50" s="155"/>
       <c r="AF50" s="3"/>
       <c r="AG50" s="3"/>
       <c r="AH50" s="3"/>
@@ -5696,37 +5705,37 @@
       <c r="AT50" s="3"/>
     </row>
     <row r="51" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A51" s="78"/>
-      <c r="B51" s="76"/>
-      <c r="C51" s="76"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="76"/>
-      <c r="H51" s="76"/>
-      <c r="I51" s="76"/>
-      <c r="J51" s="76"/>
-      <c r="K51" s="76"/>
-      <c r="L51" s="76"/>
-      <c r="M51" s="77"/>
-      <c r="N51" s="44"/>
-      <c r="O51" s="45"/>
-      <c r="P51" s="45"/>
-      <c r="Q51" s="45"/>
-      <c r="R51" s="45"/>
-      <c r="S51" s="45"/>
-      <c r="T51" s="45"/>
-      <c r="U51" s="45"/>
-      <c r="V51" s="45"/>
-      <c r="W51" s="45"/>
-      <c r="X51" s="45"/>
-      <c r="Y51" s="45"/>
-      <c r="Z51" s="45"/>
-      <c r="AA51" s="45"/>
-      <c r="AB51" s="45"/>
-      <c r="AC51" s="45"/>
-      <c r="AD51" s="45"/>
-      <c r="AE51" s="46"/>
+      <c r="A51" s="146"/>
+      <c r="B51" s="144"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="144"/>
+      <c r="E51" s="144"/>
+      <c r="F51" s="144"/>
+      <c r="G51" s="144"/>
+      <c r="H51" s="144"/>
+      <c r="I51" s="144"/>
+      <c r="J51" s="144"/>
+      <c r="K51" s="144"/>
+      <c r="L51" s="144"/>
+      <c r="M51" s="145"/>
+      <c r="N51" s="153"/>
+      <c r="O51" s="154"/>
+      <c r="P51" s="154"/>
+      <c r="Q51" s="154"/>
+      <c r="R51" s="154"/>
+      <c r="S51" s="154"/>
+      <c r="T51" s="154"/>
+      <c r="U51" s="154"/>
+      <c r="V51" s="154"/>
+      <c r="W51" s="154"/>
+      <c r="X51" s="154"/>
+      <c r="Y51" s="154"/>
+      <c r="Z51" s="154"/>
+      <c r="AA51" s="154"/>
+      <c r="AB51" s="154"/>
+      <c r="AC51" s="154"/>
+      <c r="AD51" s="154"/>
+      <c r="AE51" s="155"/>
       <c r="AF51" s="3"/>
       <c r="AG51" s="3"/>
       <c r="AH51" s="3"/>
@@ -5744,37 +5753,37 @@
       <c r="AT51" s="3"/>
     </row>
     <row r="52" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A52" s="78"/>
-      <c r="B52" s="76"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="76"/>
-      <c r="H52" s="76"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="77"/>
-      <c r="N52" s="44"/>
-      <c r="O52" s="45"/>
-      <c r="P52" s="45"/>
-      <c r="Q52" s="45"/>
-      <c r="R52" s="45"/>
-      <c r="S52" s="45"/>
-      <c r="T52" s="45"/>
-      <c r="U52" s="45"/>
-      <c r="V52" s="45"/>
-      <c r="W52" s="45"/>
-      <c r="X52" s="45"/>
-      <c r="Y52" s="45"/>
-      <c r="Z52" s="45"/>
-      <c r="AA52" s="45"/>
-      <c r="AB52" s="45"/>
-      <c r="AC52" s="45"/>
-      <c r="AD52" s="45"/>
-      <c r="AE52" s="46"/>
+      <c r="A52" s="146"/>
+      <c r="B52" s="144"/>
+      <c r="C52" s="144"/>
+      <c r="D52" s="144"/>
+      <c r="E52" s="144"/>
+      <c r="F52" s="144"/>
+      <c r="G52" s="144"/>
+      <c r="H52" s="144"/>
+      <c r="I52" s="144"/>
+      <c r="J52" s="144"/>
+      <c r="K52" s="144"/>
+      <c r="L52" s="144"/>
+      <c r="M52" s="145"/>
+      <c r="N52" s="153"/>
+      <c r="O52" s="154"/>
+      <c r="P52" s="154"/>
+      <c r="Q52" s="154"/>
+      <c r="R52" s="154"/>
+      <c r="S52" s="154"/>
+      <c r="T52" s="154"/>
+      <c r="U52" s="154"/>
+      <c r="V52" s="154"/>
+      <c r="W52" s="154"/>
+      <c r="X52" s="154"/>
+      <c r="Y52" s="154"/>
+      <c r="Z52" s="154"/>
+      <c r="AA52" s="154"/>
+      <c r="AB52" s="154"/>
+      <c r="AC52" s="154"/>
+      <c r="AD52" s="154"/>
+      <c r="AE52" s="155"/>
       <c r="AF52" s="3"/>
       <c r="AG52" s="3"/>
       <c r="AH52" s="3"/>
@@ -5792,37 +5801,37 @@
       <c r="AT52" s="3"/>
     </row>
     <row r="53" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A53" s="78"/>
-      <c r="B53" s="76"/>
-      <c r="C53" s="76"/>
-      <c r="D53" s="76"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="76"/>
-      <c r="M53" s="77"/>
-      <c r="N53" s="44"/>
-      <c r="O53" s="45"/>
-      <c r="P53" s="45"/>
-      <c r="Q53" s="45"/>
-      <c r="R53" s="45"/>
-      <c r="S53" s="45"/>
-      <c r="T53" s="45"/>
-      <c r="U53" s="45"/>
-      <c r="V53" s="45"/>
-      <c r="W53" s="45"/>
-      <c r="X53" s="45"/>
-      <c r="Y53" s="45"/>
-      <c r="Z53" s="45"/>
-      <c r="AA53" s="45"/>
-      <c r="AB53" s="45"/>
-      <c r="AC53" s="45"/>
-      <c r="AD53" s="45"/>
-      <c r="AE53" s="46"/>
+      <c r="A53" s="146"/>
+      <c r="B53" s="144"/>
+      <c r="C53" s="144"/>
+      <c r="D53" s="144"/>
+      <c r="E53" s="144"/>
+      <c r="F53" s="144"/>
+      <c r="G53" s="144"/>
+      <c r="H53" s="144"/>
+      <c r="I53" s="144"/>
+      <c r="J53" s="144"/>
+      <c r="K53" s="144"/>
+      <c r="L53" s="144"/>
+      <c r="M53" s="145"/>
+      <c r="N53" s="153"/>
+      <c r="O53" s="154"/>
+      <c r="P53" s="154"/>
+      <c r="Q53" s="154"/>
+      <c r="R53" s="154"/>
+      <c r="S53" s="154"/>
+      <c r="T53" s="154"/>
+      <c r="U53" s="154"/>
+      <c r="V53" s="154"/>
+      <c r="W53" s="154"/>
+      <c r="X53" s="154"/>
+      <c r="Y53" s="154"/>
+      <c r="Z53" s="154"/>
+      <c r="AA53" s="154"/>
+      <c r="AB53" s="154"/>
+      <c r="AC53" s="154"/>
+      <c r="AD53" s="154"/>
+      <c r="AE53" s="155"/>
       <c r="AF53" s="3"/>
       <c r="AG53" s="3"/>
       <c r="AH53" s="3"/>
@@ -5840,37 +5849,37 @@
       <c r="AT53" s="3"/>
     </row>
     <row r="54" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A54" s="78"/>
-      <c r="B54" s="76"/>
-      <c r="C54" s="76"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="76"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="76"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="76"/>
-      <c r="M54" s="77"/>
-      <c r="N54" s="44"/>
-      <c r="O54" s="45"/>
-      <c r="P54" s="45"/>
-      <c r="Q54" s="45"/>
-      <c r="R54" s="45"/>
-      <c r="S54" s="45"/>
-      <c r="T54" s="45"/>
-      <c r="U54" s="45"/>
-      <c r="V54" s="45"/>
-      <c r="W54" s="45"/>
-      <c r="X54" s="45"/>
-      <c r="Y54" s="45"/>
-      <c r="Z54" s="45"/>
-      <c r="AA54" s="45"/>
-      <c r="AB54" s="45"/>
-      <c r="AC54" s="45"/>
-      <c r="AD54" s="45"/>
-      <c r="AE54" s="46"/>
+      <c r="A54" s="146"/>
+      <c r="B54" s="144"/>
+      <c r="C54" s="144"/>
+      <c r="D54" s="144"/>
+      <c r="E54" s="144"/>
+      <c r="F54" s="144"/>
+      <c r="G54" s="144"/>
+      <c r="H54" s="144"/>
+      <c r="I54" s="144"/>
+      <c r="J54" s="144"/>
+      <c r="K54" s="144"/>
+      <c r="L54" s="144"/>
+      <c r="M54" s="145"/>
+      <c r="N54" s="153"/>
+      <c r="O54" s="154"/>
+      <c r="P54" s="154"/>
+      <c r="Q54" s="154"/>
+      <c r="R54" s="154"/>
+      <c r="S54" s="154"/>
+      <c r="T54" s="154"/>
+      <c r="U54" s="154"/>
+      <c r="V54" s="154"/>
+      <c r="W54" s="154"/>
+      <c r="X54" s="154"/>
+      <c r="Y54" s="154"/>
+      <c r="Z54" s="154"/>
+      <c r="AA54" s="154"/>
+      <c r="AB54" s="154"/>
+      <c r="AC54" s="154"/>
+      <c r="AD54" s="154"/>
+      <c r="AE54" s="155"/>
       <c r="AF54" s="3"/>
       <c r="AG54" s="3"/>
       <c r="AH54" s="3"/>
@@ -5888,37 +5897,37 @@
       <c r="AT54" s="3"/>
     </row>
     <row r="55" spans="1:46" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A55" s="79"/>
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="80"/>
-      <c r="H55" s="80"/>
-      <c r="I55" s="80"/>
-      <c r="J55" s="80"/>
-      <c r="K55" s="80"/>
-      <c r="L55" s="80"/>
-      <c r="M55" s="80"/>
-      <c r="N55" s="47"/>
-      <c r="O55" s="48"/>
-      <c r="P55" s="48"/>
-      <c r="Q55" s="48"/>
-      <c r="R55" s="48"/>
-      <c r="S55" s="48"/>
-      <c r="T55" s="48"/>
-      <c r="U55" s="48"/>
-      <c r="V55" s="48"/>
-      <c r="W55" s="48"/>
-      <c r="X55" s="48"/>
-      <c r="Y55" s="48"/>
-      <c r="Z55" s="48"/>
-      <c r="AA55" s="48"/>
-      <c r="AB55" s="48"/>
-      <c r="AC55" s="48"/>
-      <c r="AD55" s="48"/>
-      <c r="AE55" s="49"/>
+      <c r="A55" s="147"/>
+      <c r="B55" s="148"/>
+      <c r="C55" s="148"/>
+      <c r="D55" s="148"/>
+      <c r="E55" s="148"/>
+      <c r="F55" s="148"/>
+      <c r="G55" s="148"/>
+      <c r="H55" s="148"/>
+      <c r="I55" s="148"/>
+      <c r="J55" s="148"/>
+      <c r="K55" s="148"/>
+      <c r="L55" s="148"/>
+      <c r="M55" s="148"/>
+      <c r="N55" s="156"/>
+      <c r="O55" s="157"/>
+      <c r="P55" s="157"/>
+      <c r="Q55" s="157"/>
+      <c r="R55" s="157"/>
+      <c r="S55" s="157"/>
+      <c r="T55" s="157"/>
+      <c r="U55" s="157"/>
+      <c r="V55" s="157"/>
+      <c r="W55" s="157"/>
+      <c r="X55" s="157"/>
+      <c r="Y55" s="157"/>
+      <c r="Z55" s="157"/>
+      <c r="AA55" s="157"/>
+      <c r="AB55" s="157"/>
+      <c r="AC55" s="157"/>
+      <c r="AD55" s="157"/>
+      <c r="AE55" s="158"/>
       <c r="AF55" s="3"/>
       <c r="AG55" s="3"/>
       <c r="AH55" s="3"/>
@@ -15531,6 +15540,88 @@
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="N39:AE55"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="K34:AB34"/>
+    <mergeCell ref="F25:AE25"/>
+    <mergeCell ref="F36:AE37"/>
+    <mergeCell ref="F26:AE26"/>
+    <mergeCell ref="F27:AE28"/>
+    <mergeCell ref="A29:AE29"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="K32:AB32"/>
+    <mergeCell ref="K33:AB33"/>
+    <mergeCell ref="K35:AB35"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A38:M38"/>
+    <mergeCell ref="N38:AE38"/>
+    <mergeCell ref="A39:M55"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="K30:AB30"/>
+    <mergeCell ref="K31:AB31"/>
+    <mergeCell ref="A36:E37"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="F19:AE20"/>
+    <mergeCell ref="A21:AE21"/>
+    <mergeCell ref="F22:AE22"/>
+    <mergeCell ref="F23:AE23"/>
+    <mergeCell ref="F24:AE24"/>
+    <mergeCell ref="A19:E20"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="K17:Z17"/>
+    <mergeCell ref="AA17:AE17"/>
+    <mergeCell ref="AA18:AE18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:Z18"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="AA15:AE15"/>
+    <mergeCell ref="K16:Z16"/>
+    <mergeCell ref="AA16:AE16"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="T7:U8"/>
+    <mergeCell ref="V7:Y8"/>
+    <mergeCell ref="K14:Z14"/>
+    <mergeCell ref="K15:Z15"/>
+    <mergeCell ref="E12:AE12"/>
+    <mergeCell ref="A13:AE13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="AA14:AE14"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="L1:T3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:S5"/>
+    <mergeCell ref="Z5:AE11"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B9:S9"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F6:I7"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="T5:Y5"/>
+    <mergeCell ref="T6:U6"/>
     <mergeCell ref="AC34:AE34"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="G8:S8"/>
@@ -15547,88 +15638,6 @@
     <mergeCell ref="V11:Y11"/>
     <mergeCell ref="A27:E28"/>
     <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="L1:T3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:S5"/>
-    <mergeCell ref="Z5:AE11"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="B9:S9"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F6:I7"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="T5:Y5"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="T7:U8"/>
-    <mergeCell ref="V7:Y8"/>
-    <mergeCell ref="K14:Z14"/>
-    <mergeCell ref="K15:Z15"/>
-    <mergeCell ref="E12:AE12"/>
-    <mergeCell ref="A13:AE13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="AA14:AE14"/>
-    <mergeCell ref="K17:Z17"/>
-    <mergeCell ref="AA17:AE17"/>
-    <mergeCell ref="AA18:AE18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:Z18"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="AA15:AE15"/>
-    <mergeCell ref="K16:Z16"/>
-    <mergeCell ref="AA16:AE16"/>
-    <mergeCell ref="F19:AE20"/>
-    <mergeCell ref="A21:AE21"/>
-    <mergeCell ref="F22:AE22"/>
-    <mergeCell ref="F23:AE23"/>
-    <mergeCell ref="F24:AE24"/>
-    <mergeCell ref="A19:E20"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A38:M38"/>
-    <mergeCell ref="N38:AE38"/>
-    <mergeCell ref="A39:M55"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="K30:AB30"/>
-    <mergeCell ref="K31:AB31"/>
-    <mergeCell ref="A36:E37"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="N39:AE55"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="K34:AB34"/>
-    <mergeCell ref="F25:AE25"/>
-    <mergeCell ref="F36:AE37"/>
-    <mergeCell ref="F26:AE26"/>
-    <mergeCell ref="F27:AE28"/>
-    <mergeCell ref="A29:AE29"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="K32:AB32"/>
-    <mergeCell ref="K33:AB33"/>
-    <mergeCell ref="K35:AB35"/>
-    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="F26:AE26 K18:Z18">
@@ -15657,13 +15666,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="配偶者の有無 - 選択してください" sqref="V6" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="配偶者の有無 - 選択してください" sqref="V6">
       <formula1>$AI$8:$AI$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="J6" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="J6">
       <formula1>$AI$5:$AI$7</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="AC31:AE35" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="AC31:AE35"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
@@ -15671,15 +15680,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF99CC00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:R9"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -15737,14 +15746,14 @@
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="220" t="s">
+      <c r="F2" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -15763,25 +15772,25 @@
     </row>
     <row r="3" spans="1:26" ht="21" customHeight="1">
       <c r="A3" s="9"/>
-      <c r="B3" s="195"/>
-      <c r="C3" s="221"/>
-      <c r="D3" s="222"/>
-      <c r="E3" s="223"/>
-      <c r="F3" s="224"/>
-      <c r="G3" s="225" t="s">
+      <c r="B3" s="163"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="221"/>
-      <c r="I3" s="226"/>
-      <c r="J3" s="227"/>
-      <c r="K3" s="227"/>
-      <c r="L3" s="227"/>
-      <c r="M3" s="227"/>
-      <c r="N3" s="227"/>
-      <c r="O3" s="227"/>
-      <c r="P3" s="227"/>
-      <c r="Q3" s="227"/>
-      <c r="R3" s="228"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="170"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
       <c r="S3" s="11"/>
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
@@ -15793,27 +15802,27 @@
     </row>
     <row r="4" spans="1:26" ht="21" customHeight="1">
       <c r="A4" s="9"/>
-      <c r="B4" s="187" t="s">
+      <c r="B4" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="188"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="217"/>
-      <c r="G4" s="218" t="s">
+      <c r="C4" s="173"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="188"/>
-      <c r="I4" s="219"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="94"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="137"/>
       <c r="S4" s="11"/>
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
@@ -15825,27 +15834,27 @@
     </row>
     <row r="5" spans="1:26" ht="21" customHeight="1">
       <c r="A5" s="9"/>
-      <c r="B5" s="187" t="s">
+      <c r="B5" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="188"/>
-      <c r="D5" s="216"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="217"/>
-      <c r="G5" s="218" t="s">
+      <c r="C5" s="173"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="188"/>
-      <c r="I5" s="215"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="94"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="137"/>
       <c r="S5" s="11"/>
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
@@ -15857,25 +15866,25 @@
     </row>
     <row r="6" spans="1:26" ht="21" customHeight="1">
       <c r="A6" s="9"/>
-      <c r="B6" s="187"/>
-      <c r="C6" s="188"/>
-      <c r="D6" s="216"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="217"/>
-      <c r="G6" s="218" t="s">
+      <c r="B6" s="172"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="188"/>
-      <c r="I6" s="216"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="94"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="174"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="137"/>
       <c r="S6" s="11"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
@@ -15887,27 +15896,27 @@
     </row>
     <row r="7" spans="1:26" ht="21" customHeight="1">
       <c r="A7" s="9"/>
-      <c r="B7" s="189" t="s">
+      <c r="B7" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="190"/>
-      <c r="D7" s="191"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="194" t="s">
+      <c r="C7" s="192"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="195"/>
+      <c r="G7" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="190"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="200"/>
+      <c r="H7" s="192"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="148"/>
+      <c r="N7" s="148"/>
+      <c r="O7" s="148"/>
+      <c r="P7" s="148"/>
+      <c r="Q7" s="148"/>
+      <c r="R7" s="201"/>
       <c r="S7" s="11"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
@@ -15919,23 +15928,23 @@
     </row>
     <row r="8" spans="1:26" ht="25.5" customHeight="1">
       <c r="A8" s="9"/>
-      <c r="B8" s="201"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="202"/>
-      <c r="H8" s="202"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
-      <c r="L8" s="202"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="202"/>
-      <c r="P8" s="202"/>
-      <c r="Q8" s="202"/>
-      <c r="R8" s="202"/>
+      <c r="B8" s="202"/>
+      <c r="C8" s="203"/>
+      <c r="D8" s="203"/>
+      <c r="E8" s="203"/>
+      <c r="F8" s="203"/>
+      <c r="G8" s="203"/>
+      <c r="H8" s="203"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="203"/>
+      <c r="K8" s="203"/>
+      <c r="L8" s="203"/>
+      <c r="M8" s="203"/>
+      <c r="N8" s="203"/>
+      <c r="O8" s="203"/>
+      <c r="P8" s="203"/>
+      <c r="Q8" s="203"/>
+      <c r="R8" s="203"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
@@ -15947,24 +15956,24 @@
     </row>
     <row r="9" spans="1:26" ht="28.5" customHeight="1">
       <c r="A9" s="9"/>
-      <c r="B9" s="195" t="s">
+      <c r="B9" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="196"/>
-      <c r="D9" s="203"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="204"/>
-      <c r="G9" s="204"/>
-      <c r="H9" s="204"/>
-      <c r="I9" s="204"/>
-      <c r="J9" s="204"/>
-      <c r="K9" s="204"/>
-      <c r="L9" s="204"/>
-      <c r="M9" s="204"/>
-      <c r="N9" s="204"/>
-      <c r="O9" s="204"/>
-      <c r="P9" s="204"/>
-      <c r="Q9" s="204"/>
+      <c r="C9" s="197"/>
+      <c r="D9" s="204"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="180"/>
+      <c r="H9" s="180"/>
+      <c r="I9" s="180"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="180"/>
+      <c r="L9" s="180"/>
+      <c r="M9" s="180"/>
+      <c r="N9" s="180"/>
+      <c r="O9" s="180"/>
+      <c r="P9" s="180"/>
+      <c r="Q9" s="180"/>
       <c r="R9" s="205"/>
       <c r="S9" s="11"/>
       <c r="T9" s="9"/>
@@ -15977,10 +15986,10 @@
     </row>
     <row r="10" spans="1:26" ht="28.5" customHeight="1">
       <c r="A10" s="9"/>
-      <c r="B10" s="187" t="s">
+      <c r="B10" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="197"/>
+      <c r="C10" s="198"/>
       <c r="D10" s="206"/>
       <c r="E10" s="207"/>
       <c r="F10" s="207"/>
@@ -16007,25 +16016,25 @@
     </row>
     <row r="11" spans="1:26" ht="28.5" customHeight="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="189" t="s">
+      <c r="B11" s="191" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="198"/>
+      <c r="C11" s="199"/>
       <c r="D11" s="209"/>
-      <c r="E11" s="210"/>
-      <c r="F11" s="210"/>
-      <c r="G11" s="210"/>
-      <c r="H11" s="210"/>
-      <c r="I11" s="210"/>
-      <c r="J11" s="210"/>
-      <c r="K11" s="210"/>
-      <c r="L11" s="210"/>
-      <c r="M11" s="210"/>
-      <c r="N11" s="210"/>
-      <c r="O11" s="210"/>
-      <c r="P11" s="210"/>
-      <c r="Q11" s="210"/>
-      <c r="R11" s="211"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="162"/>
+      <c r="K11" s="162"/>
+      <c r="L11" s="162"/>
+      <c r="M11" s="162"/>
+      <c r="N11" s="162"/>
+      <c r="O11" s="162"/>
+      <c r="P11" s="162"/>
+      <c r="Q11" s="162"/>
+      <c r="R11" s="210"/>
       <c r="S11" s="11"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
@@ -16065,39 +16074,39 @@
     </row>
     <row r="13" spans="1:26" ht="18.75" customHeight="1">
       <c r="A13" s="9"/>
-      <c r="B13" s="212" t="s">
+      <c r="B13" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="204"/>
-      <c r="D13" s="204"/>
-      <c r="E13" s="213"/>
-      <c r="F13" s="182" t="s">
+      <c r="C13" s="180"/>
+      <c r="D13" s="180"/>
+      <c r="E13" s="181"/>
+      <c r="F13" s="183" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="182" t="s">
+      <c r="G13" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="182" t="s">
+      <c r="H13" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="182" t="s">
+      <c r="I13" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="182" t="s">
+      <c r="J13" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="182" t="s">
+      <c r="K13" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="184" t="s">
+      <c r="L13" s="188" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="185"/>
-      <c r="N13" s="185"/>
-      <c r="O13" s="185"/>
-      <c r="P13" s="185"/>
-      <c r="Q13" s="185"/>
-      <c r="R13" s="186"/>
+      <c r="M13" s="189"/>
+      <c r="N13" s="189"/>
+      <c r="O13" s="189"/>
+      <c r="P13" s="189"/>
+      <c r="Q13" s="189"/>
+      <c r="R13" s="190"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
@@ -16109,16 +16118,16 @@
     </row>
     <row r="14" spans="1:26" ht="171" customHeight="1">
       <c r="A14" s="9"/>
-      <c r="B14" s="214"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="183"/>
-      <c r="K14" s="183"/>
+      <c r="B14" s="182"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="184"/>
+      <c r="G14" s="184"/>
+      <c r="H14" s="184"/>
+      <c r="I14" s="184"/>
+      <c r="J14" s="184"/>
+      <c r="K14" s="184"/>
       <c r="L14" s="12" t="s">
         <v>35</v>
       </c>
@@ -16151,29 +16160,29 @@
     </row>
     <row r="15" spans="1:26" ht="24" customHeight="1">
       <c r="A15" s="9"/>
-      <c r="B15" s="166">
+      <c r="B15" s="220">
         <v>1</v>
       </c>
-      <c r="C15" s="169"/>
-      <c r="D15" s="171" t="s">
+      <c r="C15" s="223"/>
+      <c r="D15" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="173"/>
+      <c r="E15" s="227"/>
       <c r="F15" s="14" t="s">
         <v>86</v>
       </c>
       <c r="G15" s="15"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="165"/>
-      <c r="K15" s="165"/>
-      <c r="L15" s="176"/>
-      <c r="M15" s="176"/>
-      <c r="N15" s="176"/>
-      <c r="O15" s="176"/>
-      <c r="P15" s="176"/>
-      <c r="Q15" s="176"/>
-      <c r="R15" s="179"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="211"/>
+      <c r="J15" s="211"/>
+      <c r="K15" s="211"/>
+      <c r="L15" s="214"/>
+      <c r="M15" s="214"/>
+      <c r="N15" s="214"/>
+      <c r="O15" s="214"/>
+      <c r="P15" s="214"/>
+      <c r="Q15" s="214"/>
+      <c r="R15" s="185"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
@@ -16185,25 +16194,25 @@
     </row>
     <row r="16" spans="1:26" ht="294.75" customHeight="1">
       <c r="A16" s="9"/>
-      <c r="B16" s="167"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="163" t="s">
+      <c r="B16" s="221"/>
+      <c r="C16" s="224"/>
+      <c r="D16" s="226"/>
+      <c r="E16" s="228"/>
+      <c r="F16" s="219" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="165"/>
-      <c r="H16" s="175"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="175"/>
-      <c r="K16" s="175"/>
-      <c r="L16" s="177"/>
-      <c r="M16" s="177"/>
-      <c r="N16" s="177"/>
-      <c r="O16" s="177"/>
-      <c r="P16" s="177"/>
-      <c r="Q16" s="177"/>
-      <c r="R16" s="180"/>
+      <c r="G16" s="211"/>
+      <c r="H16" s="212"/>
+      <c r="I16" s="212"/>
+      <c r="J16" s="212"/>
+      <c r="K16" s="212"/>
+      <c r="L16" s="215"/>
+      <c r="M16" s="215"/>
+      <c r="N16" s="215"/>
+      <c r="O16" s="215"/>
+      <c r="P16" s="215"/>
+      <c r="Q16" s="215"/>
+      <c r="R16" s="186"/>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
@@ -16215,25 +16224,25 @@
     </row>
     <row r="17" spans="1:26" ht="24" customHeight="1">
       <c r="A17" s="9"/>
-      <c r="B17" s="168"/>
-      <c r="C17" s="161" t="s">
+      <c r="B17" s="222"/>
+      <c r="C17" s="217" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="162"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="164"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="164"/>
-      <c r="K17" s="164"/>
-      <c r="L17" s="178"/>
-      <c r="M17" s="178"/>
-      <c r="N17" s="178"/>
-      <c r="O17" s="178"/>
-      <c r="P17" s="178"/>
-      <c r="Q17" s="178"/>
-      <c r="R17" s="181"/>
+      <c r="D17" s="218"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="213"/>
+      <c r="G17" s="213"/>
+      <c r="H17" s="213"/>
+      <c r="I17" s="213"/>
+      <c r="J17" s="213"/>
+      <c r="K17" s="213"/>
+      <c r="L17" s="216"/>
+      <c r="M17" s="216"/>
+      <c r="N17" s="216"/>
+      <c r="O17" s="216"/>
+      <c r="P17" s="216"/>
+      <c r="Q17" s="216"/>
+      <c r="R17" s="187"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
@@ -22262,27 +22271,23 @@
     <row r="991" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="N15:N17"/>
+    <mergeCell ref="O15:O17"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="Q15:Q17"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
     <mergeCell ref="R15:R17"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:K14"/>
@@ -22299,30 +22304,34 @@
     <mergeCell ref="D9:R9"/>
     <mergeCell ref="D10:R10"/>
     <mergeCell ref="D11:R11"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="N15:N17"/>
-    <mergeCell ref="O15:O17"/>
-    <mergeCell ref="P15:P17"/>
-    <mergeCell ref="Q15:Q17"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:R3"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt=" - " sqref="I4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt=" - " sqref="I4">
       <formula1>"Nam giới,Nữ giới"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L15:R15" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L15:R15">
       <formula1>"●"</formula1>
     </dataValidation>
   </dataValidations>

--- a/TEMPLATE_HRD_SKILLSHEET_200421.xlsx
+++ b/TEMPLATE_HRD_SKILLSHEET_200421.xlsx
@@ -25,14 +25,14 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mghABbA6H5xL7oPg67gLgSFG4mHYQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="" roundtripDataSignature="AMtx7mghABbA6H5xL7oPg67gLgSFG4mHYQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="116">
   <si>
     <t>Sơ yếu lý lịch</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Bộ phận</t>
-  </si>
-  <si>
-    <t>Ngày</t>
   </si>
   <si>
     <t>Họ</t>
@@ -129,9 +126,6 @@
     <t>Năm</t>
   </si>
   <si>
-    <t>Ngày sinh</t>
-  </si>
-  <si>
     <t>Nghiệp vụ</t>
   </si>
   <si>
@@ -159,17 +153,11 @@
     <t>Nội dung công việc</t>
   </si>
   <si>
-    <t>（Tròn</t>
-  </si>
-  <si>
     <t>Vai trò
 Quy mô dự án</t>
   </si>
   <si>
     <t>Ngôn ngữ</t>
-  </si>
-  <si>
-    <t>tuổi）</t>
   </si>
   <si>
     <t>DB</t>
@@ -290,12 +278,6 @@
     <t>Không</t>
   </si>
   <si>
-    <t>? Tháng</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>1人住まい</t>
   </si>
   <si>
@@ -382,19 +364,6 @@
     <t>Điểm tự PR bản thân</t>
   </si>
   <si>
-    <r>
-      <t>Nă</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>m</t>
-    </r>
-  </si>
-  <si>
     <t>Thành phần gia đình</t>
   </si>
   <si>
@@ -417,28 +386,6 @@
     <t>Số người cần hỗ trợ</t>
   </si>
   <si>
-    <r>
-      <t>Ngườ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">i
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(bao gồm cả vợ/chồng)</t>
-    </r>
-  </si>
-  <si>
     <t>Other
 （Lĩnh vực sở trường・Luận văn・Khác）</t>
   </si>
@@ -453,26 +400,110 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Tên dự án: </t>
+    <t>Thào A</t>
+  </si>
+  <si>
+    <t>Vảng</t>
+  </si>
+  <si>
+    <t>Nam giới</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <r>
+      <t>0</t>
+    </r>
+    <r>
       <rPr>
-        <b/>
-        <sz val="14"/>
+        <sz val="9"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">【Summary】
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
+        <sz val="6"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">
+      <t>(bao gồm cả vợ/chồng)</t>
+    </r>
+  </si>
+  <si>
+    <t>vang.thao@tda.company</t>
+  </si>
+  <si>
+    <t>PTDT Nội Trú Bát Xát</t>
+  </si>
+  <si>
+    <t>Phổ Thông Vùng Cao Việt Bắc</t>
+  </si>
+  <si>
+    <t>ĐH Công Nghệ Thông Tin &amp; Truyền Thông - ĐH Thái Nguyên</t>
+  </si>
+  <si>
+    <t>Thuyết trình, Tiếng Anh</t>
+  </si>
+  <si>
+    <t>Học nhanh kiến thức mới, trung thực, tư duy tốt, chăm chỉ, chịu được áp lực cao, nghiêm túc trong công việc.</t>
+  </si>
+  <si>
+    <t>Biết một số ngôn ngữ lập trình ( Java, C/C++, C#, PHP, Flutter, Kotlin). Biết lập trình Android cơ bản. Đọc hiểu tài liệu tiếng Anh.</t>
+  </si>
+  <si>
+    <t>THÀO A VẢNG</t>
+  </si>
+  <si>
+    <t>A Lù, Bát Xát, Lào Cai</t>
+  </si>
+  <si>
+    <t>Kỹ sư</t>
+  </si>
+  <si>
+    <t>Đọc hiểu tài liệu tiếng Anh</t>
+  </si>
+  <si>
+    <t>Lập trình Android, Thuật toán</t>
+  </si>
+  <si>
+    <t>Phát triển phần mềm</t>
+  </si>
+  <si>
+    <t>Tên dự án: Ứng Dụng Hỗ Trợ Tìm Phòng Trọ Cho Sinh Viên</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Firebase</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Android Studio</t>
+  </si>
+  <si>
+    <t>●</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lập trình viên(Team 4 người) </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">【Summary】
+- Ứng dụng có chức năng giúp người tìm trọ xem thông tin phòng trọ, liên hệ chủ trọ.
+- Giúp chủ trọ đăng trọ mới và quản ký phòng trọ đã đăng.
 </t>
     </r>
     <r>
@@ -482,8 +513,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">【Role】
-</t>
+      <t>【Role】</t>
     </r>
     <r>
       <rPr>
@@ -492,6 +522,7 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
+Code các chức năng chính. Tham gia hỗ trợ các thành viên khác Khảo sát, phân tích, thiết kế, kiểm thử.
 </t>
     </r>
     <r>
@@ -501,20 +532,126 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>【Skill học được】</t>
+      <t xml:space="preserve">【Skill học được] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kỹ năng làm việc nhóm, hiểu được quy trình phát triển 1 phần mềm hoàn chỉnh. Cải thiện kỹ năng lập trình Android và phân tích thiết kế hệ thống.</t>
     </r>
   </si>
   <si>
-    <t>[▼Chọn]</t>
+    <t>10 Tháng</t>
   </si>
   <si>
-    <t>Thào A</t>
+    <t>Tên dự án: QRCode - Tạo Và Quyét Mã Vạch</t>
   </si>
   <si>
-    <t>Vảng</t>
+    <t>Lập trình viên(Ứng dụng tự cá nhân xây dựng)</t>
   </si>
   <si>
-    <t>Nam giới</t>
+    <t>1 Tháng</t>
+  </si>
+  <si>
+    <t>Tên dự án: Ứng Dụng Ghi Chú MyNote</t>
+  </si>
+  <si>
+    <t>Lập trình viên(Ứng dụng cá nhân)</t>
+  </si>
+  <si>
+    <t>SQLite</t>
+  </si>
+  <si>
+    <t>Tính toán, giải quyết vấn đề</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">【Summary】
+- Ứng dụng có chức năng Tạo mã vạch mới, Quyét mã vạch bằng Camera, Quyét mã vạch bằng hình ảnh.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>【Role】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Code các chức năng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">【Skill học được] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cải thiện kỹ năng lập trình Android, kỹ năng sử dụng thư viện để lập trình, kỹ năng thao tác với phần cứng của thiết bị di động.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">【Summary】
+Ứng dụng chi chú: Thêm, Sửa, Xoá ghi chú
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>【Role】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Code các chức năng của ứng dụng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">【Skill học được] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rèn luyện kỹ năng sử dụng CSDL SQLite, kỹ năng code Android</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2349,7 +2486,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="94" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2574,6 +2711,96 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2627,42 +2854,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2722,60 +2913,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3041,7 +3178,7 @@
   <dimension ref="A1:AT1001"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:K7"/>
+      <selection activeCell="K34" sqref="K34:AB34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -3170,7 +3307,7 @@
       <c r="AR2" s="1"/>
       <c r="AS2" s="1" t="str">
         <f>V6</f>
-        <v>[▼Chọn]</v>
+        <v>Không</v>
       </c>
       <c r="AT2" s="1"/>
     </row>
@@ -3202,15 +3339,15 @@
       <c r="Y3" s="91"/>
       <c r="Z3" s="92"/>
       <c r="AA3" s="19" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AB3" s="19"/>
       <c r="AC3" s="19" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="AD3" s="20"/>
       <c r="AE3" s="21" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
@@ -3284,26 +3421,26 @@
     </row>
     <row r="5" spans="1:46" ht="16.5" customHeight="1">
       <c r="A5" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="101" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
       <c r="E5" s="61"/>
       <c r="F5" s="93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="48"/>
       <c r="H5" s="48"/>
       <c r="I5" s="49"/>
       <c r="J5" s="94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K5" s="49"/>
       <c r="L5" s="94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M5" s="48"/>
       <c r="N5" s="48"/>
@@ -3313,7 +3450,7 @@
       <c r="R5" s="48"/>
       <c r="S5" s="49"/>
       <c r="T5" s="107" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="U5" s="48"/>
       <c r="V5" s="48"/>
@@ -3321,7 +3458,7 @@
       <c r="X5" s="48"/>
       <c r="Y5" s="49"/>
       <c r="Z5" s="95" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AA5" s="92"/>
       <c r="AB5" s="92"/>
@@ -3332,12 +3469,12 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1" t="str">
         <f>V6</f>
-        <v>[▼Chọn]</v>
+        <v>Không</v>
       </c>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
@@ -3352,41 +3489,41 @@
     <row r="6" spans="1:46" ht="16.5" customHeight="1">
       <c r="A6" s="45"/>
       <c r="B6" s="50" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
       <c r="E6" s="52"/>
       <c r="F6" s="102" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G6" s="51"/>
       <c r="H6" s="51"/>
       <c r="I6" s="103"/>
       <c r="J6" s="106" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K6" s="103"/>
       <c r="L6" s="50"/>
       <c r="M6" s="51"/>
-      <c r="N6" s="31" t="s">
-        <v>20</v>
+      <c r="N6" s="31">
+        <v>1998</v>
       </c>
       <c r="O6" s="32"/>
-      <c r="P6" s="31" t="s">
-        <v>2</v>
+      <c r="P6" s="31">
+        <v>5</v>
       </c>
       <c r="Q6" s="32"/>
-      <c r="R6" s="33" t="s">
-        <v>21</v>
+      <c r="R6" s="33">
+        <v>19</v>
       </c>
       <c r="S6" s="25"/>
       <c r="T6" s="68" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="U6" s="69"/>
       <c r="V6" s="108" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="W6" s="71"/>
       <c r="X6" s="71"/>
@@ -3401,7 +3538,7 @@
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1" t="e">
@@ -3432,22 +3569,22 @@
       <c r="K7" s="105"/>
       <c r="L7" s="34"/>
       <c r="M7" s="35"/>
-      <c r="N7" s="36" t="s">
-        <v>26</v>
+      <c r="N7" s="36">
+        <v>22</v>
       </c>
       <c r="O7" s="37"/>
       <c r="P7" s="36" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="Q7" s="36"/>
       <c r="R7" s="35"/>
       <c r="S7" s="26"/>
       <c r="T7" s="109" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U7" s="79"/>
       <c r="V7" s="112" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W7" s="63"/>
       <c r="X7" s="63"/>
@@ -3462,7 +3599,7 @@
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1">
@@ -3481,7 +3618,7 @@
     </row>
     <row r="8" spans="1:46" ht="16.5" customHeight="1">
       <c r="A8" s="56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="59"/>
       <c r="C8" s="48"/>
@@ -3517,7 +3654,7 @@
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
@@ -3552,10 +3689,12 @@
       <c r="R9" s="71"/>
       <c r="S9" s="69"/>
       <c r="T9" s="68" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="U9" s="69"/>
-      <c r="V9" s="70"/>
+      <c r="V9" s="70">
+        <v>948604695</v>
+      </c>
       <c r="W9" s="71"/>
       <c r="X9" s="71"/>
       <c r="Y9" s="72"/>
@@ -3569,7 +3708,7 @@
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
@@ -3604,7 +3743,7 @@
       <c r="R10" s="63"/>
       <c r="S10" s="64"/>
       <c r="T10" s="68" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U10" s="69"/>
       <c r="V10" s="70"/>
@@ -3621,7 +3760,7 @@
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
@@ -3685,7 +3824,7 @@
     </row>
     <row r="12" spans="1:46" ht="16.5" customHeight="1">
       <c r="A12" s="86" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B12" s="87"/>
       <c r="C12" s="87"/>
@@ -3721,7 +3860,7 @@
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
@@ -3737,7 +3876,7 @@
     </row>
     <row r="13" spans="1:46" ht="16.5" customHeight="1">
       <c r="A13" s="121" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B13" s="122"/>
       <c r="C13" s="122"/>
@@ -3773,7 +3912,7 @@
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
       <c r="AI13" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
@@ -3789,21 +3928,21 @@
     </row>
     <row r="14" spans="1:46" ht="17.25" customHeight="1">
       <c r="A14" s="124" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="48"/>
       <c r="E14" s="61"/>
       <c r="F14" s="125" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G14" s="48"/>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
       <c r="J14" s="61"/>
       <c r="K14" s="116" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L14" s="48"/>
       <c r="M14" s="48"/>
@@ -3821,7 +3960,7 @@
       <c r="Y14" s="48"/>
       <c r="Z14" s="61"/>
       <c r="AA14" s="125" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="AB14" s="48"/>
       <c r="AC14" s="48"/>
@@ -3831,7 +3970,7 @@
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
@@ -3848,23 +3987,25 @@
     <row r="15" spans="1:46" ht="17.25" customHeight="1">
       <c r="A15" s="130"/>
       <c r="B15" s="84"/>
-      <c r="C15" s="38" t="s">
-        <v>20</v>
+      <c r="C15" s="38">
+        <v>2009</v>
       </c>
       <c r="D15" s="38"/>
-      <c r="E15" s="38" t="s">
-        <v>2</v>
+      <c r="E15" s="38">
+        <v>8</v>
       </c>
       <c r="F15" s="132"/>
       <c r="G15" s="84"/>
-      <c r="H15" s="38" t="s">
-        <v>20</v>
+      <c r="H15" s="38">
+        <v>2013</v>
       </c>
       <c r="I15" s="38"/>
-      <c r="J15" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K15" s="117"/>
+      <c r="J15" s="38">
+        <v>6</v>
+      </c>
+      <c r="K15" s="117" t="s">
+        <v>86</v>
+      </c>
       <c r="L15" s="118"/>
       <c r="M15" s="118"/>
       <c r="N15" s="118"/>
@@ -3889,7 +4030,7 @@
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
       <c r="AI15" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
@@ -3906,23 +4047,25 @@
     <row r="16" spans="1:46" ht="17.25" customHeight="1">
       <c r="A16" s="85"/>
       <c r="B16" s="69"/>
-      <c r="C16" s="28" t="s">
-        <v>20</v>
+      <c r="C16" s="28">
+        <v>2013</v>
       </c>
       <c r="D16" s="28"/>
-      <c r="E16" s="28" t="s">
-        <v>2</v>
+      <c r="E16" s="28">
+        <v>8</v>
       </c>
       <c r="F16" s="128"/>
       <c r="G16" s="69"/>
-      <c r="H16" s="28" t="s">
-        <v>20</v>
+      <c r="H16" s="28">
+        <v>2016</v>
       </c>
       <c r="I16" s="28"/>
-      <c r="J16" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="K16" s="127"/>
+      <c r="J16" s="28">
+        <v>6</v>
+      </c>
+      <c r="K16" s="127" t="s">
+        <v>87</v>
+      </c>
       <c r="L16" s="71"/>
       <c r="M16" s="71"/>
       <c r="N16" s="71"/>
@@ -3962,23 +4105,25 @@
     <row r="17" spans="1:46" ht="17.25" customHeight="1">
       <c r="A17" s="85"/>
       <c r="B17" s="69"/>
-      <c r="C17" s="28" t="s">
-        <v>20</v>
+      <c r="C17" s="28">
+        <v>2016</v>
       </c>
       <c r="D17" s="29"/>
-      <c r="E17" s="28" t="s">
-        <v>2</v>
+      <c r="E17" s="28">
+        <v>8</v>
       </c>
       <c r="F17" s="128"/>
       <c r="G17" s="69"/>
-      <c r="H17" s="28" t="s">
-        <v>20</v>
+      <c r="H17" s="28">
+        <v>2021</v>
       </c>
       <c r="I17" s="29"/>
-      <c r="J17" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="K17" s="127"/>
+      <c r="J17" s="28">
+        <v>6</v>
+      </c>
+      <c r="K17" s="127" t="s">
+        <v>88</v>
+      </c>
       <c r="L17" s="71"/>
       <c r="M17" s="71"/>
       <c r="N17" s="71"/>
@@ -3994,7 +4139,9 @@
       <c r="X17" s="71"/>
       <c r="Y17" s="71"/>
       <c r="Z17" s="69"/>
-      <c r="AA17" s="128"/>
+      <c r="AA17" s="128" t="s">
+        <v>89</v>
+      </c>
       <c r="AB17" s="71"/>
       <c r="AC17" s="71"/>
       <c r="AD17" s="71"/>
@@ -4051,7 +4198,7 @@
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
       <c r="AI18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
@@ -4067,13 +4214,15 @@
     </row>
     <row r="19" spans="1:46" ht="16.5" customHeight="1">
       <c r="A19" s="138" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B19" s="63"/>
       <c r="C19" s="63"/>
       <c r="D19" s="63"/>
       <c r="E19" s="79"/>
-      <c r="F19" s="133"/>
+      <c r="F19" s="133" t="s">
+        <v>113</v>
+      </c>
       <c r="G19" s="63"/>
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
@@ -4103,7 +4252,7 @@
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
@@ -4153,7 +4302,7 @@
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
@@ -4169,7 +4318,7 @@
     </row>
     <row r="21" spans="1:46" ht="16.5" customHeight="1">
       <c r="A21" s="121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="122"/>
       <c r="C21" s="122"/>
@@ -4205,7 +4354,7 @@
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="AJ21" s="3"/>
       <c r="AK21" s="3"/>
@@ -4221,14 +4370,14 @@
     </row>
     <row r="22" spans="1:46" ht="17.25" customHeight="1">
       <c r="A22" s="124" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
       <c r="D22" s="48"/>
       <c r="E22" s="61"/>
       <c r="F22" s="116" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G22" s="48"/>
       <c r="H22" s="48"/>
@@ -4275,7 +4424,7 @@
       <c r="A23" s="139"/>
       <c r="B23" s="140"/>
       <c r="C23" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="38" t="s">
@@ -4311,7 +4460,7 @@
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AJ23" s="3"/>
       <c r="AK23" s="3"/>
@@ -4361,7 +4510,7 @@
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
@@ -4411,7 +4560,7 @@
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3"/>
@@ -4461,7 +4610,7 @@
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
       <c r="AI26" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
@@ -4477,7 +4626,7 @@
     </row>
     <row r="27" spans="1:46" ht="16.5" customHeight="1">
       <c r="A27" s="78" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B27" s="63"/>
       <c r="C27" s="63"/>
@@ -4513,7 +4662,7 @@
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
       <c r="AI27" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
@@ -4577,7 +4726,7 @@
     </row>
     <row r="29" spans="1:46" ht="16.5" customHeight="1">
       <c r="A29" s="121" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B29" s="122"/>
       <c r="C29" s="122"/>
@@ -4613,7 +4762,7 @@
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
@@ -4629,21 +4778,21 @@
     </row>
     <row r="30" spans="1:46" ht="17.25" customHeight="1">
       <c r="A30" s="124" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B30" s="48"/>
       <c r="C30" s="48"/>
       <c r="D30" s="48"/>
       <c r="E30" s="61"/>
       <c r="F30" s="125" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G30" s="48"/>
       <c r="H30" s="48"/>
       <c r="I30" s="48"/>
       <c r="J30" s="61"/>
       <c r="K30" s="125" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L30" s="48"/>
       <c r="M30" s="48"/>
@@ -4663,7 +4812,7 @@
       <c r="AA30" s="48"/>
       <c r="AB30" s="61"/>
       <c r="AC30" s="125" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AD30" s="48"/>
       <c r="AE30" s="126"/>
@@ -4690,7 +4839,7 @@
       <c r="A31" s="149"/>
       <c r="B31" s="84"/>
       <c r="C31" s="38" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="40" t="s">
@@ -4699,7 +4848,7 @@
       <c r="F31" s="83"/>
       <c r="G31" s="84"/>
       <c r="H31" s="38" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I31" s="39"/>
       <c r="J31" s="40" t="s">
@@ -4749,7 +4898,7 @@
       <c r="A32" s="149"/>
       <c r="B32" s="84"/>
       <c r="C32" s="38" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D32" s="39"/>
       <c r="E32" s="38" t="s">
@@ -4758,7 +4907,7 @@
       <c r="F32" s="83"/>
       <c r="G32" s="84"/>
       <c r="H32" s="38" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I32" s="39"/>
       <c r="J32" s="38" t="s">
@@ -4808,7 +4957,7 @@
       <c r="A33" s="149"/>
       <c r="B33" s="84"/>
       <c r="C33" s="38" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D33" s="39"/>
       <c r="E33" s="40" t="s">
@@ -4817,7 +4966,7 @@
       <c r="F33" s="83"/>
       <c r="G33" s="84"/>
       <c r="H33" s="38" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I33" s="39"/>
       <c r="J33" s="40" t="s">
@@ -4867,7 +5016,7 @@
       <c r="A34" s="149"/>
       <c r="B34" s="84"/>
       <c r="C34" s="38" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D34" s="39"/>
       <c r="E34" s="40" t="s">
@@ -4876,7 +5025,7 @@
       <c r="F34" s="83"/>
       <c r="G34" s="84"/>
       <c r="H34" s="38" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I34" s="39"/>
       <c r="J34" s="40" t="s">
@@ -4923,7 +5072,7 @@
       <c r="A35" s="130"/>
       <c r="B35" s="84"/>
       <c r="C35" s="38" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D35" s="39"/>
       <c r="E35" s="38" t="s">
@@ -4932,7 +5081,7 @@
       <c r="F35" s="83"/>
       <c r="G35" s="84"/>
       <c r="H35" s="38" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I35" s="39"/>
       <c r="J35" s="38" t="s">
@@ -4980,7 +5129,7 @@
     </row>
     <row r="36" spans="1:46" ht="16.5" customHeight="1">
       <c r="A36" s="78" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B36" s="63"/>
       <c r="C36" s="63"/>
@@ -5078,7 +5227,7 @@
     </row>
     <row r="38" spans="1:46" ht="16.5" customHeight="1" thickTop="1">
       <c r="A38" s="141" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B38" s="122"/>
       <c r="C38" s="122"/>
@@ -5093,7 +5242,7 @@
       <c r="L38" s="122"/>
       <c r="M38" s="122"/>
       <c r="N38" s="142" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="O38" s="122"/>
       <c r="P38" s="122"/>
@@ -5129,7 +5278,9 @@
       <c r="AT38" s="3"/>
     </row>
     <row r="39" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A39" s="143"/>
+      <c r="A39" s="143" t="s">
+        <v>91</v>
+      </c>
       <c r="B39" s="144"/>
       <c r="C39" s="144"/>
       <c r="D39" s="144"/>
@@ -5142,7 +5293,9 @@
       <c r="K39" s="144"/>
       <c r="L39" s="144"/>
       <c r="M39" s="145"/>
-      <c r="N39" s="150"/>
+      <c r="N39" s="150" t="s">
+        <v>90</v>
+      </c>
       <c r="O39" s="151"/>
       <c r="P39" s="151"/>
       <c r="Q39" s="151"/>
@@ -15674,8 +15827,11 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="AC31:AE35"/>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A12" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15687,8 +15843,8 @@
   </sheetPr>
   <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:F5"/>
+    <sheetView showGridLines="0" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -15746,14 +15902,14 @@
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="161" t="s">
+      <c r="F2" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
+      <c r="K2" s="192"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -15772,25 +15928,27 @@
     </row>
     <row r="3" spans="1:26" ht="21" customHeight="1">
       <c r="A3" s="9"/>
-      <c r="B3" s="163"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="168" t="s">
+      <c r="B3" s="193"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="164"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="171"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="199" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="200"/>
+      <c r="P3" s="200"/>
+      <c r="Q3" s="200"/>
+      <c r="R3" s="201"/>
       <c r="S3" s="11"/>
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
@@ -15802,18 +15960,22 @@
     </row>
     <row r="4" spans="1:26" ht="21" customHeight="1">
       <c r="A4" s="9"/>
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="203"/>
+      <c r="D4" s="204" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="118"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="173"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="176" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="173"/>
-      <c r="I4" s="178"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="208" t="s">
+        <v>80</v>
+      </c>
       <c r="J4" s="118"/>
       <c r="K4" s="118"/>
       <c r="L4" s="118"/>
@@ -15834,18 +15996,22 @@
     </row>
     <row r="5" spans="1:26" ht="21" customHeight="1">
       <c r="A5" s="9"/>
-      <c r="B5" s="172" t="s">
+      <c r="B5" s="202" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="203"/>
+      <c r="D5" s="204" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="118"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="173"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="175"/>
-      <c r="G5" s="176" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="173"/>
-      <c r="I5" s="177"/>
+      <c r="H5" s="203"/>
+      <c r="I5" s="207">
+        <v>22</v>
+      </c>
       <c r="J5" s="118"/>
       <c r="K5" s="118"/>
       <c r="L5" s="118"/>
@@ -15866,16 +16032,18 @@
     </row>
     <row r="6" spans="1:26" ht="21" customHeight="1">
       <c r="A6" s="9"/>
-      <c r="B6" s="172"/>
-      <c r="C6" s="173"/>
-      <c r="D6" s="174"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="204"/>
       <c r="E6" s="118"/>
-      <c r="F6" s="175"/>
-      <c r="G6" s="176" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="173"/>
-      <c r="I6" s="174"/>
+      <c r="F6" s="205"/>
+      <c r="G6" s="206" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="203"/>
+      <c r="I6" s="204" t="s">
+        <v>94</v>
+      </c>
       <c r="J6" s="118"/>
       <c r="K6" s="118"/>
       <c r="L6" s="118"/>
@@ -15896,18 +16064,20 @@
     </row>
     <row r="7" spans="1:26" ht="21" customHeight="1">
       <c r="A7" s="9"/>
-      <c r="B7" s="191" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="192"/>
-      <c r="D7" s="193"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="195"/>
-      <c r="G7" s="196" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="192"/>
-      <c r="I7" s="200"/>
+      <c r="B7" s="209" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="210"/>
+      <c r="D7" s="211"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="213"/>
+      <c r="G7" s="214" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="210"/>
+      <c r="I7" s="218" t="s">
+        <v>95</v>
+      </c>
       <c r="J7" s="148"/>
       <c r="K7" s="148"/>
       <c r="L7" s="148"/>
@@ -15916,7 +16086,7 @@
       <c r="O7" s="148"/>
       <c r="P7" s="148"/>
       <c r="Q7" s="148"/>
-      <c r="R7" s="201"/>
+      <c r="R7" s="219"/>
       <c r="S7" s="11"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
@@ -15928,23 +16098,23 @@
     </row>
     <row r="8" spans="1:26" ht="25.5" customHeight="1">
       <c r="A8" s="9"/>
-      <c r="B8" s="202"/>
-      <c r="C8" s="203"/>
-      <c r="D8" s="203"/>
-      <c r="E8" s="203"/>
-      <c r="F8" s="203"/>
-      <c r="G8" s="203"/>
-      <c r="H8" s="203"/>
-      <c r="I8" s="203"/>
-      <c r="J8" s="203"/>
-      <c r="K8" s="203"/>
-      <c r="L8" s="203"/>
-      <c r="M8" s="203"/>
-      <c r="N8" s="203"/>
-      <c r="O8" s="203"/>
-      <c r="P8" s="203"/>
-      <c r="Q8" s="203"/>
-      <c r="R8" s="203"/>
+      <c r="B8" s="220"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="221"/>
+      <c r="I8" s="221"/>
+      <c r="J8" s="221"/>
+      <c r="K8" s="221"/>
+      <c r="L8" s="221"/>
+      <c r="M8" s="221"/>
+      <c r="N8" s="221"/>
+      <c r="O8" s="221"/>
+      <c r="P8" s="221"/>
+      <c r="Q8" s="221"/>
+      <c r="R8" s="221"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
@@ -15956,25 +16126,27 @@
     </row>
     <row r="9" spans="1:26" ht="28.5" customHeight="1">
       <c r="A9" s="9"/>
-      <c r="B9" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="197"/>
-      <c r="D9" s="204"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="180"/>
-      <c r="J9" s="180"/>
-      <c r="K9" s="180"/>
-      <c r="L9" s="180"/>
-      <c r="M9" s="180"/>
-      <c r="N9" s="180"/>
-      <c r="O9" s="180"/>
-      <c r="P9" s="180"/>
-      <c r="Q9" s="180"/>
-      <c r="R9" s="205"/>
+      <c r="B9" s="193" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="215"/>
+      <c r="D9" s="222" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="188"/>
+      <c r="F9" s="188"/>
+      <c r="G9" s="188"/>
+      <c r="H9" s="188"/>
+      <c r="I9" s="188"/>
+      <c r="J9" s="188"/>
+      <c r="K9" s="188"/>
+      <c r="L9" s="188"/>
+      <c r="M9" s="188"/>
+      <c r="N9" s="188"/>
+      <c r="O9" s="188"/>
+      <c r="P9" s="188"/>
+      <c r="Q9" s="188"/>
+      <c r="R9" s="223"/>
       <c r="S9" s="11"/>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
@@ -15986,25 +16158,27 @@
     </row>
     <row r="10" spans="1:26" ht="28.5" customHeight="1">
       <c r="A10" s="9"/>
-      <c r="B10" s="172" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="198"/>
-      <c r="D10" s="206"/>
-      <c r="E10" s="207"/>
-      <c r="F10" s="207"/>
-      <c r="G10" s="207"/>
-      <c r="H10" s="207"/>
-      <c r="I10" s="207"/>
-      <c r="J10" s="207"/>
-      <c r="K10" s="207"/>
-      <c r="L10" s="207"/>
-      <c r="M10" s="207"/>
-      <c r="N10" s="207"/>
-      <c r="O10" s="207"/>
-      <c r="P10" s="207"/>
-      <c r="Q10" s="207"/>
-      <c r="R10" s="208"/>
+      <c r="B10" s="202" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="216"/>
+      <c r="D10" s="224" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="225"/>
+      <c r="F10" s="225"/>
+      <c r="G10" s="225"/>
+      <c r="H10" s="225"/>
+      <c r="I10" s="225"/>
+      <c r="J10" s="225"/>
+      <c r="K10" s="225"/>
+      <c r="L10" s="225"/>
+      <c r="M10" s="225"/>
+      <c r="N10" s="225"/>
+      <c r="O10" s="225"/>
+      <c r="P10" s="225"/>
+      <c r="Q10" s="225"/>
+      <c r="R10" s="226"/>
       <c r="S10" s="11"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
@@ -16016,25 +16190,27 @@
     </row>
     <row r="11" spans="1:26" ht="28.5" customHeight="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="191" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="199"/>
-      <c r="D11" s="209"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="162"/>
-      <c r="L11" s="162"/>
-      <c r="M11" s="162"/>
-      <c r="N11" s="162"/>
-      <c r="O11" s="162"/>
-      <c r="P11" s="162"/>
-      <c r="Q11" s="162"/>
-      <c r="R11" s="210"/>
+      <c r="B11" s="209" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="217"/>
+      <c r="D11" s="227" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="192"/>
+      <c r="F11" s="192"/>
+      <c r="G11" s="192"/>
+      <c r="H11" s="192"/>
+      <c r="I11" s="192"/>
+      <c r="J11" s="192"/>
+      <c r="K11" s="192"/>
+      <c r="L11" s="192"/>
+      <c r="M11" s="192"/>
+      <c r="N11" s="192"/>
+      <c r="O11" s="192"/>
+      <c r="P11" s="192"/>
+      <c r="Q11" s="192"/>
+      <c r="R11" s="228"/>
       <c r="S11" s="11"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
@@ -16044,7 +16220,7 @@
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
     </row>
-    <row r="12" spans="1:26" ht="24.75" customHeight="1">
+    <row r="12" spans="1:26" ht="24.75" customHeight="1" thickBot="1">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -16074,39 +16250,39 @@
     </row>
     <row r="13" spans="1:26" ht="18.75" customHeight="1">
       <c r="A13" s="9"/>
-      <c r="B13" s="179" t="s">
+      <c r="B13" s="187" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="188"/>
+      <c r="D13" s="188"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="172" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="172" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="180"/>
-      <c r="D13" s="180"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="183" t="s">
+      <c r="H13" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="183" t="s">
+      <c r="I13" s="172" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="183" t="s">
+      <c r="K13" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="183" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="183" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="183" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="188" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" s="189"/>
-      <c r="N13" s="189"/>
-      <c r="O13" s="189"/>
-      <c r="P13" s="189"/>
-      <c r="Q13" s="189"/>
-      <c r="R13" s="190"/>
+      <c r="L13" s="174" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="175"/>
+      <c r="N13" s="175"/>
+      <c r="O13" s="175"/>
+      <c r="P13" s="175"/>
+      <c r="Q13" s="175"/>
+      <c r="R13" s="176"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
@@ -16118,36 +16294,36 @@
     </row>
     <row r="14" spans="1:26" ht="171" customHeight="1">
       <c r="A14" s="9"/>
-      <c r="B14" s="182"/>
+      <c r="B14" s="190"/>
       <c r="C14" s="66"/>
       <c r="D14" s="66"/>
       <c r="E14" s="67"/>
-      <c r="F14" s="184"/>
-      <c r="G14" s="184"/>
-      <c r="H14" s="184"/>
-      <c r="I14" s="184"/>
-      <c r="J14" s="184"/>
-      <c r="K14" s="184"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="173"/>
       <c r="L14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="Q14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="R14" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="R14" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
@@ -16160,29 +16336,55 @@
     </row>
     <row r="15" spans="1:26" ht="24" customHeight="1">
       <c r="A15" s="9"/>
-      <c r="B15" s="220">
+      <c r="B15" s="177">
         <v>1</v>
       </c>
-      <c r="C15" s="223"/>
-      <c r="D15" s="225" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="227"/>
+      <c r="C15" s="180">
+        <v>43466</v>
+      </c>
+      <c r="D15" s="182" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="184">
+        <v>44134</v>
+      </c>
       <c r="F15" s="14" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G15" s="15"/>
-      <c r="H15" s="211"/>
-      <c r="I15" s="211"/>
-      <c r="J15" s="211"/>
-      <c r="K15" s="211"/>
-      <c r="L15" s="214"/>
-      <c r="M15" s="214"/>
-      <c r="N15" s="214"/>
-      <c r="O15" s="214"/>
-      <c r="P15" s="214"/>
-      <c r="Q15" s="214"/>
-      <c r="R15" s="185"/>
+      <c r="H15" s="169" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="169" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" s="169" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" s="169" t="s">
+        <v>102</v>
+      </c>
+      <c r="L15" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="M15" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="N15" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="O15" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="R15" s="164" t="s">
+        <v>103</v>
+      </c>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
@@ -16194,25 +16396,27 @@
     </row>
     <row r="16" spans="1:26" ht="294.75" customHeight="1">
       <c r="A16" s="9"/>
-      <c r="B16" s="221"/>
-      <c r="C16" s="224"/>
-      <c r="D16" s="226"/>
-      <c r="E16" s="228"/>
-      <c r="F16" s="219" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="211"/>
-      <c r="H16" s="212"/>
-      <c r="I16" s="212"/>
-      <c r="J16" s="212"/>
-      <c r="K16" s="212"/>
-      <c r="L16" s="215"/>
-      <c r="M16" s="215"/>
-      <c r="N16" s="215"/>
-      <c r="O16" s="215"/>
-      <c r="P16" s="215"/>
-      <c r="Q16" s="215"/>
-      <c r="R16" s="186"/>
+      <c r="B16" s="178"/>
+      <c r="C16" s="181"/>
+      <c r="D16" s="183"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="167" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="169" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="186"/>
+      <c r="I16" s="186"/>
+      <c r="J16" s="186"/>
+      <c r="K16" s="186"/>
+      <c r="L16" s="162"/>
+      <c r="M16" s="162"/>
+      <c r="N16" s="162"/>
+      <c r="O16" s="162"/>
+      <c r="P16" s="162"/>
+      <c r="Q16" s="162"/>
+      <c r="R16" s="165"/>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
@@ -16224,25 +16428,25 @@
     </row>
     <row r="17" spans="1:26" ht="24" customHeight="1">
       <c r="A17" s="9"/>
-      <c r="B17" s="222"/>
-      <c r="C17" s="217" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="218"/>
-      <c r="E17" s="218"/>
-      <c r="F17" s="213"/>
-      <c r="G17" s="213"/>
-      <c r="H17" s="213"/>
-      <c r="I17" s="213"/>
-      <c r="J17" s="213"/>
-      <c r="K17" s="213"/>
-      <c r="L17" s="216"/>
-      <c r="M17" s="216"/>
-      <c r="N17" s="216"/>
-      <c r="O17" s="216"/>
-      <c r="P17" s="216"/>
-      <c r="Q17" s="216"/>
-      <c r="R17" s="187"/>
+      <c r="B17" s="179"/>
+      <c r="C17" s="170" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="171"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="168"/>
+      <c r="I17" s="168"/>
+      <c r="J17" s="168"/>
+      <c r="K17" s="168"/>
+      <c r="L17" s="163"/>
+      <c r="M17" s="163"/>
+      <c r="N17" s="163"/>
+      <c r="O17" s="163"/>
+      <c r="P17" s="163"/>
+      <c r="Q17" s="163"/>
+      <c r="R17" s="166"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
@@ -16252,7 +16456,7 @@
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
     </row>
-    <row r="18" spans="1:26" ht="23.25" customHeight="1">
+    <row r="18" spans="1:26" ht="23.25" customHeight="1" thickBot="1">
       <c r="A18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
@@ -16265,6 +16469,39 @@
     </row>
     <row r="19" spans="1:26" ht="228" customHeight="1">
       <c r="A19" s="9"/>
+      <c r="B19" s="187" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="188"/>
+      <c r="D19" s="188"/>
+      <c r="E19" s="189"/>
+      <c r="F19" s="172" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="172" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="172" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="172" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="172" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="172" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="174" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="175"/>
+      <c r="N19" s="175"/>
+      <c r="O19" s="175"/>
+      <c r="P19" s="175"/>
+      <c r="Q19" s="175"/>
+      <c r="R19" s="176"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
@@ -16276,6 +16513,37 @@
     </row>
     <row r="20" spans="1:26" ht="24" customHeight="1">
       <c r="A20" s="9"/>
+      <c r="B20" s="190"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="173"/>
+      <c r="J20" s="173"/>
+      <c r="K20" s="173"/>
+      <c r="L20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
@@ -16287,6 +16555,53 @@
     </row>
     <row r="21" spans="1:26" ht="23.25" customHeight="1">
       <c r="A21" s="9"/>
+      <c r="B21" s="177">
+        <v>1</v>
+      </c>
+      <c r="C21" s="180">
+        <v>44124</v>
+      </c>
+      <c r="D21" s="182" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="184">
+        <v>44155</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="169" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="169"/>
+      <c r="J21" s="169" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" s="169" t="s">
+        <v>102</v>
+      </c>
+      <c r="L21" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="M21" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="N21" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="O21" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="P21" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q21" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="R21" s="164" t="s">
+        <v>103</v>
+      </c>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
@@ -16298,6 +16613,27 @@
     </row>
     <row r="22" spans="1:26" ht="228" customHeight="1">
       <c r="A22" s="9"/>
+      <c r="B22" s="178"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="185"/>
+      <c r="F22" s="167" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="169" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="186"/>
+      <c r="I22" s="186"/>
+      <c r="J22" s="186"/>
+      <c r="K22" s="186"/>
+      <c r="L22" s="162"/>
+      <c r="M22" s="162"/>
+      <c r="N22" s="162"/>
+      <c r="O22" s="162"/>
+      <c r="P22" s="162"/>
+      <c r="Q22" s="162"/>
+      <c r="R22" s="165"/>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
@@ -16309,6 +16645,25 @@
     </row>
     <row r="23" spans="1:26" ht="24" customHeight="1">
       <c r="A23" s="9"/>
+      <c r="B23" s="179"/>
+      <c r="C23" s="170" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="171"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="168"/>
+      <c r="I23" s="168"/>
+      <c r="J23" s="168"/>
+      <c r="K23" s="168"/>
+      <c r="L23" s="163"/>
+      <c r="M23" s="163"/>
+      <c r="N23" s="163"/>
+      <c r="O23" s="163"/>
+      <c r="P23" s="163"/>
+      <c r="Q23" s="163"/>
+      <c r="R23" s="166"/>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
@@ -16318,7 +16673,7 @@
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
     </row>
-    <row r="24" spans="1:26" ht="23.25" customHeight="1">
+    <row r="24" spans="1:26" ht="23.25" customHeight="1" thickBot="1">
       <c r="A24" s="9"/>
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
@@ -16331,6 +16686,39 @@
     </row>
     <row r="25" spans="1:26" ht="228" customHeight="1">
       <c r="A25" s="9"/>
+      <c r="B25" s="187" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="188"/>
+      <c r="D25" s="188"/>
+      <c r="E25" s="189"/>
+      <c r="F25" s="172" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="172" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="172" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="172" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="172" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" s="172" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" s="174" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" s="175"/>
+      <c r="N25" s="175"/>
+      <c r="O25" s="175"/>
+      <c r="P25" s="175"/>
+      <c r="Q25" s="175"/>
+      <c r="R25" s="176"/>
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
@@ -16342,6 +16730,37 @@
     </row>
     <row r="26" spans="1:26" ht="24" customHeight="1">
       <c r="A26" s="9"/>
+      <c r="B26" s="190"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="173"/>
+      <c r="G26" s="173"/>
+      <c r="H26" s="173"/>
+      <c r="I26" s="173"/>
+      <c r="J26" s="173"/>
+      <c r="K26" s="173"/>
+      <c r="L26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P26" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="R26" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
@@ -16353,6 +16772,55 @@
     </row>
     <row r="27" spans="1:26" ht="23.25" customHeight="1">
       <c r="A27" s="9"/>
+      <c r="B27" s="177">
+        <v>1</v>
+      </c>
+      <c r="C27" s="180">
+        <v>43666</v>
+      </c>
+      <c r="D27" s="182" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="184">
+        <v>43697</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="15"/>
+      <c r="H27" s="169" t="s">
+        <v>99</v>
+      </c>
+      <c r="I27" s="169" t="s">
+        <v>112</v>
+      </c>
+      <c r="J27" s="169" t="s">
+        <v>101</v>
+      </c>
+      <c r="K27" s="169" t="s">
+        <v>102</v>
+      </c>
+      <c r="L27" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="M27" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="N27" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="O27" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="P27" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q27" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="R27" s="164" t="s">
+        <v>103</v>
+      </c>
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
@@ -16364,6 +16832,27 @@
     </row>
     <row r="28" spans="1:26" ht="228" customHeight="1">
       <c r="A28" s="9"/>
+      <c r="B28" s="178"/>
+      <c r="C28" s="181"/>
+      <c r="D28" s="183"/>
+      <c r="E28" s="185"/>
+      <c r="F28" s="167" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="169" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="186"/>
+      <c r="I28" s="186"/>
+      <c r="J28" s="186"/>
+      <c r="K28" s="186"/>
+      <c r="L28" s="162"/>
+      <c r="M28" s="162"/>
+      <c r="N28" s="162"/>
+      <c r="O28" s="162"/>
+      <c r="P28" s="162"/>
+      <c r="Q28" s="162"/>
+      <c r="R28" s="165"/>
       <c r="S28" s="9"/>
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
@@ -16375,6 +16864,25 @@
     </row>
     <row r="29" spans="1:26" ht="24" customHeight="1">
       <c r="A29" s="9"/>
+      <c r="B29" s="179"/>
+      <c r="C29" s="170" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="171"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="168"/>
+      <c r="G29" s="168"/>
+      <c r="H29" s="168"/>
+      <c r="I29" s="168"/>
+      <c r="J29" s="168"/>
+      <c r="K29" s="168"/>
+      <c r="L29" s="163"/>
+      <c r="M29" s="163"/>
+      <c r="N29" s="163"/>
+      <c r="O29" s="163"/>
+      <c r="P29" s="163"/>
+      <c r="Q29" s="163"/>
+      <c r="R29" s="166"/>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
@@ -22270,7 +22778,9 @@
     <row r="990" ht="15.75" customHeight="1"/>
     <row r="991" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="106">
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="G16:G17"/>
@@ -22278,16 +22788,6 @@
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="N15:N17"/>
-    <mergeCell ref="O15:O17"/>
-    <mergeCell ref="P15:P17"/>
-    <mergeCell ref="Q15:Q17"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:J17"/>
     <mergeCell ref="R15:R17"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:K14"/>
@@ -22304,34 +22804,94 @@
     <mergeCell ref="D9:R9"/>
     <mergeCell ref="D10:R10"/>
     <mergeCell ref="D11:R11"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="N15:N17"/>
+    <mergeCell ref="O15:O17"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="Q15:Q17"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:R4"/>
     <mergeCell ref="B13:E14"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:R3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:R19"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="N21:N23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="Q27:Q29"/>
+    <mergeCell ref="R27:R29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:R25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="N27:N29"/>
+    <mergeCell ref="O27:O29"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt=" - " sqref="I4">
       <formula1>"Nam giới,Nữ giới"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L15:R15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L15:R15 L21:R21 L27:R27">
       <formula1>"●"</formula1>
     </dataValidation>
   </dataValidations>

--- a/TEMPLATE_HRD_SKILLSHEET_200421.xlsx
+++ b/TEMPLATE_HRD_SKILLSHEET_200421.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HoSoCaNhan_ThaoAVang_TDAVietNam\ThongTinNhanVienMoi_Skillsheet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842633E5-291F-42A8-9CF6-180513E4B58D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="①Sơ yếu lý lịch" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
     <definedName name="Z_C85CA1FF_BEC6_465F_BE85_22B8FCC780F3_.wvu.Cols" localSheetId="0">'①Sơ yếu lý lịch'!$AI:$AI</definedName>
     <definedName name="Z_C85CA1FF_BEC6_465F_BE85_22B8FCC780F3_.wvu.PrintArea" localSheetId="0">'①Sơ yếu lý lịch'!$A$1:$AF$55</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -657,7 +663,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;&quot;#&quot;歳&quot;"/>
   </numFmts>
@@ -2351,333 +2357,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="94" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="97" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2705,38 +2384,347 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="97" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="94" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2744,20 +2732,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2786,52 +2762,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2839,21 +2791,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2871,6 +2808,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2897,6 +2837,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2912,8 +2855,71 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3171,14 +3177,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00ABEA"/>
   </sheetPr>
   <dimension ref="A1:AT1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34:AB34"/>
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31:AB31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -3222,17 +3228,17 @@
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
-      <c r="L1" s="89" t="s">
+      <c r="L1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
       <c r="U1" s="16"/>
       <c r="V1" s="16"/>
       <c r="W1" s="16"/>
@@ -3272,15 +3278,15 @@
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
       <c r="U2" s="16"/>
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
@@ -3323,21 +3329,21 @@
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
       <c r="X3" s="18"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="92"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="118"/>
       <c r="AA3" s="19" t="s">
         <v>81</v>
       </c>
@@ -3420,51 +3426,51 @@
       <c r="AT4" s="1"/>
     </row>
     <row r="5" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="93" t="s">
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="94" t="s">
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="49"/>
-      <c r="L5" s="94" t="s">
+      <c r="K5" s="120"/>
+      <c r="L5" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="107" t="s">
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="95" t="s">
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="120"/>
+      <c r="Z5" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="AA5" s="92"/>
-      <c r="AB5" s="92"/>
-      <c r="AC5" s="92"/>
-      <c r="AD5" s="92"/>
-      <c r="AE5" s="96"/>
+      <c r="AA5" s="118"/>
+      <c r="AB5" s="118"/>
+      <c r="AC5" s="118"/>
+      <c r="AD5" s="118"/>
+      <c r="AE5" s="123"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
@@ -3487,25 +3493,25 @@
       <c r="AT5" s="1"/>
     </row>
     <row r="6" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A6" s="45"/>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="143"/>
+      <c r="B6" s="129" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="102" t="s">
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="106" t="s">
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="138" t="s">
         <v>80</v>
       </c>
-      <c r="K6" s="103"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="51"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="130"/>
       <c r="N6" s="31">
         <v>1998</v>
       </c>
@@ -3518,22 +3524,22 @@
         <v>19</v>
       </c>
       <c r="S6" s="25"/>
-      <c r="T6" s="68" t="s">
+      <c r="T6" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="U6" s="69"/>
-      <c r="V6" s="108" t="s">
+      <c r="U6" s="72"/>
+      <c r="V6" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="97"/>
-      <c r="AA6" s="90"/>
-      <c r="AB6" s="90"/>
-      <c r="AC6" s="90"/>
-      <c r="AD6" s="90"/>
-      <c r="AE6" s="98"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="101"/>
+      <c r="Z6" s="124"/>
+      <c r="AA6" s="116"/>
+      <c r="AB6" s="116"/>
+      <c r="AC6" s="116"/>
+      <c r="AD6" s="116"/>
+      <c r="AE6" s="125"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
@@ -3556,17 +3562,17 @@
       <c r="AT6" s="1"/>
     </row>
     <row r="7" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A7" s="46"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="105"/>
+      <c r="A7" s="144"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="137"/>
       <c r="L7" s="34"/>
       <c r="M7" s="35"/>
       <c r="N7" s="36">
@@ -3579,22 +3585,22 @@
       <c r="Q7" s="36"/>
       <c r="R7" s="35"/>
       <c r="S7" s="26"/>
-      <c r="T7" s="109" t="s">
+      <c r="T7" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="U7" s="79"/>
-      <c r="V7" s="112" t="s">
+      <c r="U7" s="88"/>
+      <c r="V7" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="W7" s="63"/>
-      <c r="X7" s="63"/>
-      <c r="Y7" s="64"/>
-      <c r="Z7" s="97"/>
-      <c r="AA7" s="90"/>
-      <c r="AB7" s="90"/>
-      <c r="AC7" s="90"/>
-      <c r="AD7" s="90"/>
-      <c r="AE7" s="98"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="106"/>
+      <c r="Z7" s="124"/>
+      <c r="AA7" s="116"/>
+      <c r="AB7" s="116"/>
+      <c r="AC7" s="116"/>
+      <c r="AD7" s="116"/>
+      <c r="AE7" s="125"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
@@ -3617,39 +3623,39 @@
       <c r="AT7" s="1"/>
     </row>
     <row r="8" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="48"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="27"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="110"/>
-      <c r="U8" s="111"/>
-      <c r="V8" s="113"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="114"/>
-      <c r="Y8" s="115"/>
-      <c r="Z8" s="97"/>
-      <c r="AA8" s="90"/>
-      <c r="AB8" s="90"/>
-      <c r="AC8" s="90"/>
-      <c r="AD8" s="90"/>
-      <c r="AE8" s="98"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="108"/>
+      <c r="X8" s="108"/>
+      <c r="Y8" s="109"/>
+      <c r="Z8" s="124"/>
+      <c r="AA8" s="116"/>
+      <c r="AB8" s="116"/>
+      <c r="AC8" s="116"/>
+      <c r="AD8" s="116"/>
+      <c r="AE8" s="125"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
@@ -3669,41 +3675,41 @@
       <c r="AT8" s="1"/>
     </row>
     <row r="9" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A9" s="57"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="68" t="s">
+      <c r="A9" s="149"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="U9" s="69"/>
-      <c r="V9" s="70">
+      <c r="U9" s="72"/>
+      <c r="V9" s="155">
         <v>948604695</v>
       </c>
-      <c r="W9" s="71"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="72"/>
-      <c r="Z9" s="97"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="90"/>
-      <c r="AC9" s="90"/>
-      <c r="AD9" s="90"/>
-      <c r="AE9" s="98"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="101"/>
+      <c r="Z9" s="124"/>
+      <c r="AA9" s="116"/>
+      <c r="AB9" s="116"/>
+      <c r="AC9" s="116"/>
+      <c r="AD9" s="116"/>
+      <c r="AE9" s="125"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
@@ -3723,39 +3729,39 @@
       <c r="AT9" s="1"/>
     </row>
     <row r="10" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A10" s="57"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="68" t="s">
+      <c r="A10" s="149"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="106"/>
+      <c r="T10" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="U10" s="69"/>
-      <c r="V10" s="70"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="72"/>
-      <c r="Z10" s="97"/>
-      <c r="AA10" s="90"/>
-      <c r="AB10" s="90"/>
-      <c r="AC10" s="90"/>
-      <c r="AD10" s="90"/>
-      <c r="AE10" s="98"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="155"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="101"/>
+      <c r="Z10" s="124"/>
+      <c r="AA10" s="116"/>
+      <c r="AB10" s="116"/>
+      <c r="AC10" s="116"/>
+      <c r="AD10" s="116"/>
+      <c r="AE10" s="125"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
@@ -3775,37 +3781,37 @@
       <c r="AT10" s="1"/>
     </row>
     <row r="11" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A11" s="58"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="75"/>
-      <c r="W11" s="76"/>
-      <c r="X11" s="76"/>
-      <c r="Y11" s="77"/>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="66"/>
-      <c r="AE11" s="99"/>
+      <c r="A11" s="150"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="127"/>
+      <c r="L11" s="127"/>
+      <c r="M11" s="127"/>
+      <c r="N11" s="127"/>
+      <c r="O11" s="127"/>
+      <c r="P11" s="127"/>
+      <c r="Q11" s="127"/>
+      <c r="R11" s="127"/>
+      <c r="S11" s="154"/>
+      <c r="T11" s="156"/>
+      <c r="U11" s="157"/>
+      <c r="V11" s="158"/>
+      <c r="W11" s="159"/>
+      <c r="X11" s="159"/>
+      <c r="Y11" s="160"/>
+      <c r="Z11" s="126"/>
+      <c r="AA11" s="127"/>
+      <c r="AB11" s="127"/>
+      <c r="AC11" s="127"/>
+      <c r="AD11" s="127"/>
+      <c r="AE11" s="128"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
@@ -3823,39 +3829,39 @@
       <c r="AT11" s="1"/>
     </row>
     <row r="12" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="87"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="87"/>
-      <c r="Y12" s="87"/>
-      <c r="Z12" s="87"/>
-      <c r="AA12" s="87"/>
-      <c r="AB12" s="87"/>
-      <c r="AC12" s="87"/>
-      <c r="AD12" s="87"/>
-      <c r="AE12" s="120"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="111"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="111"/>
+      <c r="X12" s="111"/>
+      <c r="Y12" s="111"/>
+      <c r="Z12" s="111"/>
+      <c r="AA12" s="111"/>
+      <c r="AB12" s="111"/>
+      <c r="AC12" s="111"/>
+      <c r="AD12" s="111"/>
+      <c r="AE12" s="112"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
@@ -3875,39 +3881,39 @@
       <c r="AT12" s="1"/>
     </row>
     <row r="13" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="122"/>
-      <c r="O13" s="122"/>
-      <c r="P13" s="122"/>
-      <c r="Q13" s="122"/>
-      <c r="R13" s="122"/>
-      <c r="S13" s="122"/>
-      <c r="T13" s="122"/>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="122"/>
-      <c r="X13" s="122"/>
-      <c r="Y13" s="122"/>
-      <c r="Z13" s="122"/>
-      <c r="AA13" s="122"/>
-      <c r="AB13" s="122"/>
-      <c r="AC13" s="122"/>
-      <c r="AD13" s="122"/>
-      <c r="AE13" s="123"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="66"/>
+      <c r="AD13" s="66"/>
+      <c r="AE13" s="67"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
@@ -3927,45 +3933,45 @@
       <c r="AT13" s="1"/>
     </row>
     <row r="14" spans="1:46" ht="17.25" customHeight="1">
-      <c r="A14" s="124" t="s">
+      <c r="A14" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="125" t="s">
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="116" t="s">
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="125" t="s">
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="82"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="83"/>
+      <c r="AA14" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="48"/>
-      <c r="AE14" s="126"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="91"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
@@ -3985,8 +3991,8 @@
       <c r="AT14" s="1"/>
     </row>
     <row r="15" spans="1:46" ht="17.25" customHeight="1">
-      <c r="A15" s="130"/>
-      <c r="B15" s="84"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="38">
         <v>2009</v>
       </c>
@@ -3994,8 +4000,8 @@
       <c r="E15" s="38">
         <v>8</v>
       </c>
-      <c r="F15" s="132"/>
-      <c r="G15" s="84"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="51"/>
       <c r="H15" s="38">
         <v>2013</v>
       </c>
@@ -4003,29 +4009,29 @@
       <c r="J15" s="38">
         <v>6</v>
       </c>
-      <c r="K15" s="117" t="s">
+      <c r="K15" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="L15" s="118"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="118"/>
-      <c r="P15" s="118"/>
-      <c r="Q15" s="118"/>
-      <c r="R15" s="118"/>
-      <c r="S15" s="118"/>
-      <c r="T15" s="118"/>
-      <c r="U15" s="118"/>
-      <c r="V15" s="118"/>
-      <c r="W15" s="118"/>
-      <c r="X15" s="118"/>
-      <c r="Y15" s="118"/>
-      <c r="Z15" s="84"/>
-      <c r="AA15" s="128"/>
-      <c r="AB15" s="71"/>
-      <c r="AC15" s="71"/>
-      <c r="AD15" s="71"/>
-      <c r="AE15" s="129"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="55"/>
+      <c r="AC15" s="55"/>
+      <c r="AD15" s="55"/>
+      <c r="AE15" s="56"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
@@ -4045,8 +4051,8 @@
       <c r="AT15" s="1"/>
     </row>
     <row r="16" spans="1:46" ht="17.25" customHeight="1">
-      <c r="A16" s="85"/>
-      <c r="B16" s="69"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="28">
         <v>2013</v>
       </c>
@@ -4054,8 +4060,8 @@
       <c r="E16" s="28">
         <v>8</v>
       </c>
-      <c r="F16" s="128"/>
-      <c r="G16" s="69"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="72"/>
       <c r="H16" s="28">
         <v>2016</v>
       </c>
@@ -4063,29 +4069,29 @@
       <c r="J16" s="28">
         <v>6</v>
       </c>
-      <c r="K16" s="127" t="s">
+      <c r="K16" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="71"/>
-      <c r="V16" s="71"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="71"/>
-      <c r="Y16" s="71"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="128"/>
-      <c r="AB16" s="71"/>
-      <c r="AC16" s="71"/>
-      <c r="AD16" s="71"/>
-      <c r="AE16" s="129"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="98"/>
+      <c r="AB16" s="55"/>
+      <c r="AC16" s="55"/>
+      <c r="AD16" s="55"/>
+      <c r="AE16" s="56"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
@@ -4103,8 +4109,8 @@
       <c r="AT16" s="1"/>
     </row>
     <row r="17" spans="1:46" ht="17.25" customHeight="1">
-      <c r="A17" s="85"/>
-      <c r="B17" s="69"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="28">
         <v>2016</v>
       </c>
@@ -4112,8 +4118,8 @@
       <c r="E17" s="28">
         <v>8</v>
       </c>
-      <c r="F17" s="128"/>
-      <c r="G17" s="69"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="72"/>
       <c r="H17" s="28">
         <v>2021</v>
       </c>
@@ -4121,31 +4127,31 @@
       <c r="J17" s="28">
         <v>6</v>
       </c>
-      <c r="K17" s="127" t="s">
+      <c r="K17" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="71"/>
-      <c r="Z17" s="69"/>
-      <c r="AA17" s="128" t="s">
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="72"/>
+      <c r="AA17" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="AB17" s="71"/>
-      <c r="AC17" s="71"/>
-      <c r="AD17" s="71"/>
-      <c r="AE17" s="129"/>
+      <c r="AB17" s="55"/>
+      <c r="AC17" s="55"/>
+      <c r="AD17" s="55"/>
+      <c r="AE17" s="56"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
@@ -4163,37 +4169,37 @@
       <c r="AT17" s="1"/>
     </row>
     <row r="18" spans="1:46" ht="17.25" customHeight="1">
-      <c r="A18" s="85"/>
-      <c r="B18" s="69"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="69"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="72"/>
       <c r="H18" s="28"/>
       <c r="I18" s="30"/>
       <c r="J18" s="28"/>
-      <c r="K18" s="131"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="71"/>
-      <c r="Z18" s="69"/>
-      <c r="AA18" s="128"/>
-      <c r="AB18" s="71"/>
-      <c r="AC18" s="71"/>
-      <c r="AD18" s="71"/>
-      <c r="AE18" s="129"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="55"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="98"/>
+      <c r="AB18" s="55"/>
+      <c r="AC18" s="55"/>
+      <c r="AD18" s="55"/>
+      <c r="AE18" s="56"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
@@ -4213,41 +4219,41 @@
       <c r="AT18" s="1"/>
     </row>
     <row r="19" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="133" t="s">
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="63"/>
-      <c r="S19" s="63"/>
-      <c r="T19" s="63"/>
-      <c r="U19" s="63"/>
-      <c r="V19" s="63"/>
-      <c r="W19" s="63"/>
-      <c r="X19" s="63"/>
-      <c r="Y19" s="63"/>
-      <c r="Z19" s="63"/>
-      <c r="AA19" s="63"/>
-      <c r="AB19" s="63"/>
-      <c r="AC19" s="63"/>
-      <c r="AD19" s="63"/>
-      <c r="AE19" s="134"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="58"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="58"/>
+      <c r="AC19" s="58"/>
+      <c r="AD19" s="58"/>
+      <c r="AE19" s="59"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
@@ -4267,37 +4273,37 @@
       <c r="AT19" s="1"/>
     </row>
     <row r="20" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A20" s="80"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="81"/>
-      <c r="V20" s="81"/>
-      <c r="W20" s="81"/>
-      <c r="X20" s="81"/>
-      <c r="Y20" s="81"/>
-      <c r="Z20" s="81"/>
-      <c r="AA20" s="81"/>
-      <c r="AB20" s="81"/>
-      <c r="AC20" s="81"/>
-      <c r="AD20" s="81"/>
-      <c r="AE20" s="136"/>
+      <c r="A20" s="89"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="61"/>
+      <c r="V20" s="61"/>
+      <c r="W20" s="61"/>
+      <c r="X20" s="61"/>
+      <c r="Y20" s="61"/>
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="61"/>
+      <c r="AB20" s="61"/>
+      <c r="AC20" s="61"/>
+      <c r="AD20" s="61"/>
+      <c r="AE20" s="62"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
@@ -4317,39 +4323,39 @@
       <c r="AT20" s="1"/>
     </row>
     <row r="21" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A21" s="121" t="s">
+      <c r="A21" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="122"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="122"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="122"/>
-      <c r="M21" s="122"/>
-      <c r="N21" s="122"/>
-      <c r="O21" s="122"/>
-      <c r="P21" s="122"/>
-      <c r="Q21" s="122"/>
-      <c r="R21" s="122"/>
-      <c r="S21" s="122"/>
-      <c r="T21" s="122"/>
-      <c r="U21" s="122"/>
-      <c r="V21" s="122"/>
-      <c r="W21" s="122"/>
-      <c r="X21" s="122"/>
-      <c r="Y21" s="122"/>
-      <c r="Z21" s="122"/>
-      <c r="AA21" s="122"/>
-      <c r="AB21" s="122"/>
-      <c r="AC21" s="122"/>
-      <c r="AD21" s="122"/>
-      <c r="AE21" s="123"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="66"/>
+      <c r="AE21" s="67"/>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
@@ -4369,41 +4375,41 @@
       <c r="AT21" s="3"/>
     </row>
     <row r="22" spans="1:46" ht="17.25" customHeight="1">
-      <c r="A22" s="124" t="s">
+      <c r="A22" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="116" t="s">
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="48"/>
-      <c r="AA22" s="48"/>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="48"/>
-      <c r="AD22" s="48"/>
-      <c r="AE22" s="126"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="82"/>
+      <c r="U22" s="82"/>
+      <c r="V22" s="82"/>
+      <c r="W22" s="82"/>
+      <c r="X22" s="82"/>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="82"/>
+      <c r="AB22" s="82"/>
+      <c r="AC22" s="82"/>
+      <c r="AD22" s="82"/>
+      <c r="AE22" s="91"/>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
@@ -4421,8 +4427,8 @@
       <c r="AT22" s="3"/>
     </row>
     <row r="23" spans="1:46" ht="17.25" customHeight="1">
-      <c r="A23" s="139"/>
-      <c r="B23" s="140"/>
+      <c r="A23" s="96"/>
+      <c r="B23" s="97"/>
       <c r="C23" s="38" t="s">
         <v>19</v>
       </c>
@@ -4430,32 +4436,32 @@
       <c r="E23" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="117"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="118"/>
-      <c r="O23" s="118"/>
-      <c r="P23" s="118"/>
-      <c r="Q23" s="118"/>
-      <c r="R23" s="118"/>
-      <c r="S23" s="118"/>
-      <c r="T23" s="118"/>
-      <c r="U23" s="118"/>
-      <c r="V23" s="118"/>
-      <c r="W23" s="118"/>
-      <c r="X23" s="118"/>
-      <c r="Y23" s="118"/>
-      <c r="Z23" s="118"/>
-      <c r="AA23" s="118"/>
-      <c r="AB23" s="118"/>
-      <c r="AC23" s="118"/>
-      <c r="AD23" s="118"/>
-      <c r="AE23" s="137"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="53"/>
+      <c r="AC23" s="53"/>
+      <c r="AD23" s="53"/>
+      <c r="AE23" s="94"/>
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
@@ -4475,37 +4481,37 @@
       <c r="AT23" s="3"/>
     </row>
     <row r="24" spans="1:46" ht="17.25" customHeight="1">
-      <c r="A24" s="85"/>
-      <c r="B24" s="69"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="72"/>
       <c r="C24" s="28"/>
       <c r="D24" s="29"/>
       <c r="E24" s="28"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="71"/>
-      <c r="X24" s="71"/>
-      <c r="Y24" s="71"/>
-      <c r="Z24" s="71"/>
-      <c r="AA24" s="71"/>
-      <c r="AB24" s="71"/>
-      <c r="AC24" s="71"/>
-      <c r="AD24" s="71"/>
-      <c r="AE24" s="129"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="55"/>
+      <c r="AB24" s="55"/>
+      <c r="AC24" s="55"/>
+      <c r="AD24" s="55"/>
+      <c r="AE24" s="56"/>
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
@@ -4525,37 +4531,37 @@
       <c r="AT24" s="3"/>
     </row>
     <row r="25" spans="1:46" ht="17.25" customHeight="1">
-      <c r="A25" s="85"/>
-      <c r="B25" s="69"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="72"/>
       <c r="C25" s="28"/>
       <c r="D25" s="29"/>
       <c r="E25" s="28"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="71"/>
-      <c r="U25" s="71"/>
-      <c r="V25" s="71"/>
-      <c r="W25" s="71"/>
-      <c r="X25" s="71"/>
-      <c r="Y25" s="71"/>
-      <c r="Z25" s="71"/>
-      <c r="AA25" s="71"/>
-      <c r="AB25" s="71"/>
-      <c r="AC25" s="71"/>
-      <c r="AD25" s="71"/>
-      <c r="AE25" s="129"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="55"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="55"/>
+      <c r="AD25" s="55"/>
+      <c r="AE25" s="56"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
@@ -4575,37 +4581,37 @@
       <c r="AT25" s="3"/>
     </row>
     <row r="26" spans="1:46" ht="17.25" customHeight="1">
-      <c r="A26" s="85"/>
-      <c r="B26" s="69"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="72"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
-      <c r="V26" s="71"/>
-      <c r="W26" s="71"/>
-      <c r="X26" s="71"/>
-      <c r="Y26" s="71"/>
-      <c r="Z26" s="71"/>
-      <c r="AA26" s="71"/>
-      <c r="AB26" s="71"/>
-      <c r="AC26" s="71"/>
-      <c r="AD26" s="71"/>
-      <c r="AE26" s="129"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="55"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="55"/>
+      <c r="AA26" s="55"/>
+      <c r="AB26" s="55"/>
+      <c r="AC26" s="55"/>
+      <c r="AD26" s="55"/>
+      <c r="AE26" s="56"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
@@ -4625,39 +4631,39 @@
       <c r="AT26" s="3"/>
     </row>
     <row r="27" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A27" s="78" t="s">
+      <c r="A27" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="63"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="63"/>
-      <c r="V27" s="63"/>
-      <c r="W27" s="63"/>
-      <c r="X27" s="63"/>
-      <c r="Y27" s="63"/>
-      <c r="Z27" s="63"/>
-      <c r="AA27" s="63"/>
-      <c r="AB27" s="63"/>
-      <c r="AC27" s="63"/>
-      <c r="AD27" s="63"/>
-      <c r="AE27" s="134"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="58"/>
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="59"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
@@ -4677,37 +4683,37 @@
       <c r="AT27" s="1"/>
     </row>
     <row r="28" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A28" s="80"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="81"/>
-      <c r="S28" s="81"/>
-      <c r="T28" s="81"/>
-      <c r="U28" s="81"/>
-      <c r="V28" s="81"/>
-      <c r="W28" s="81"/>
-      <c r="X28" s="81"/>
-      <c r="Y28" s="81"/>
-      <c r="Z28" s="81"/>
-      <c r="AA28" s="81"/>
-      <c r="AB28" s="81"/>
-      <c r="AC28" s="81"/>
-      <c r="AD28" s="81"/>
-      <c r="AE28" s="136"/>
+      <c r="A28" s="89"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="61"/>
+      <c r="W28" s="61"/>
+      <c r="X28" s="61"/>
+      <c r="Y28" s="61"/>
+      <c r="Z28" s="61"/>
+      <c r="AA28" s="61"/>
+      <c r="AB28" s="61"/>
+      <c r="AC28" s="61"/>
+      <c r="AD28" s="61"/>
+      <c r="AE28" s="62"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
@@ -4725,39 +4731,39 @@
       <c r="AT28" s="1"/>
     </row>
     <row r="29" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A29" s="121" t="s">
+      <c r="A29" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="122"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="122"/>
-      <c r="I29" s="122"/>
-      <c r="J29" s="122"/>
-      <c r="K29" s="122"/>
-      <c r="L29" s="122"/>
-      <c r="M29" s="122"/>
-      <c r="N29" s="122"/>
-      <c r="O29" s="122"/>
-      <c r="P29" s="122"/>
-      <c r="Q29" s="122"/>
-      <c r="R29" s="122"/>
-      <c r="S29" s="122"/>
-      <c r="T29" s="122"/>
-      <c r="U29" s="122"/>
-      <c r="V29" s="122"/>
-      <c r="W29" s="122"/>
-      <c r="X29" s="122"/>
-      <c r="Y29" s="122"/>
-      <c r="Z29" s="122"/>
-      <c r="AA29" s="122"/>
-      <c r="AB29" s="122"/>
-      <c r="AC29" s="122"/>
-      <c r="AD29" s="122"/>
-      <c r="AE29" s="123"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="66"/>
+      <c r="S29" s="66"/>
+      <c r="T29" s="66"/>
+      <c r="U29" s="66"/>
+      <c r="V29" s="66"/>
+      <c r="W29" s="66"/>
+      <c r="X29" s="66"/>
+      <c r="Y29" s="66"/>
+      <c r="Z29" s="66"/>
+      <c r="AA29" s="66"/>
+      <c r="AB29" s="66"/>
+      <c r="AC29" s="66"/>
+      <c r="AD29" s="66"/>
+      <c r="AE29" s="67"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
@@ -4777,45 +4783,45 @@
       <c r="AT29" s="1"/>
     </row>
     <row r="30" spans="1:46" ht="17.25" customHeight="1">
-      <c r="A30" s="124" t="s">
+      <c r="A30" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="125" t="s">
+      <c r="B30" s="82"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="125" t="s">
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="48"/>
-      <c r="X30" s="48"/>
-      <c r="Y30" s="48"/>
-      <c r="Z30" s="48"/>
-      <c r="AA30" s="48"/>
-      <c r="AB30" s="61"/>
-      <c r="AC30" s="125" t="s">
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="82"/>
+      <c r="Q30" s="82"/>
+      <c r="R30" s="82"/>
+      <c r="S30" s="82"/>
+      <c r="T30" s="82"/>
+      <c r="U30" s="82"/>
+      <c r="V30" s="82"/>
+      <c r="W30" s="82"/>
+      <c r="X30" s="82"/>
+      <c r="Y30" s="82"/>
+      <c r="Z30" s="82"/>
+      <c r="AA30" s="82"/>
+      <c r="AB30" s="83"/>
+      <c r="AC30" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="AD30" s="48"/>
-      <c r="AE30" s="126"/>
+      <c r="AD30" s="82"/>
+      <c r="AE30" s="91"/>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
@@ -4836,8 +4842,8 @@
       <c r="AT30" s="1"/>
     </row>
     <row r="31" spans="1:46" ht="17.25" customHeight="1">
-      <c r="A31" s="149"/>
-      <c r="B31" s="84"/>
+      <c r="A31" s="84"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="38" t="s">
         <v>77</v>
       </c>
@@ -4845,8 +4851,8 @@
       <c r="E31" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="83"/>
-      <c r="G31" s="84"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="51"/>
       <c r="H31" s="38" t="s">
         <v>77</v>
       </c>
@@ -4854,27 +4860,27 @@
       <c r="J31" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="K31" s="41"/>
-      <c r="L31" s="118"/>
-      <c r="M31" s="118"/>
-      <c r="N31" s="118"/>
-      <c r="O31" s="118"/>
-      <c r="P31" s="118"/>
-      <c r="Q31" s="118"/>
-      <c r="R31" s="118"/>
-      <c r="S31" s="118"/>
-      <c r="T31" s="118"/>
-      <c r="U31" s="118"/>
-      <c r="V31" s="118"/>
-      <c r="W31" s="118"/>
-      <c r="X31" s="118"/>
-      <c r="Y31" s="118"/>
-      <c r="Z31" s="118"/>
-      <c r="AA31" s="118"/>
-      <c r="AB31" s="84"/>
-      <c r="AC31" s="41"/>
-      <c r="AD31" s="42"/>
-      <c r="AE31" s="43"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="51"/>
+      <c r="AC31" s="52"/>
+      <c r="AD31" s="68"/>
+      <c r="AE31" s="69"/>
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
@@ -4895,8 +4901,8 @@
       <c r="AT31" s="1"/>
     </row>
     <row r="32" spans="1:46" ht="17.25" customHeight="1">
-      <c r="A32" s="149"/>
-      <c r="B32" s="84"/>
+      <c r="A32" s="84"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="38" t="s">
         <v>77</v>
       </c>
@@ -4904,8 +4910,8 @@
       <c r="E32" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F32" s="83"/>
-      <c r="G32" s="84"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="51"/>
       <c r="H32" s="38" t="s">
         <v>77</v>
       </c>
@@ -4913,27 +4919,27 @@
       <c r="J32" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K32" s="160"/>
-      <c r="L32" s="118"/>
-      <c r="M32" s="118"/>
-      <c r="N32" s="118"/>
-      <c r="O32" s="118"/>
-      <c r="P32" s="118"/>
-      <c r="Q32" s="118"/>
-      <c r="R32" s="118"/>
-      <c r="S32" s="118"/>
-      <c r="T32" s="118"/>
-      <c r="U32" s="118"/>
-      <c r="V32" s="118"/>
-      <c r="W32" s="118"/>
-      <c r="X32" s="118"/>
-      <c r="Y32" s="118"/>
-      <c r="Z32" s="118"/>
-      <c r="AA32" s="118"/>
-      <c r="AB32" s="84"/>
-      <c r="AC32" s="41"/>
-      <c r="AD32" s="42"/>
-      <c r="AE32" s="43"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="53"/>
+      <c r="AA32" s="53"/>
+      <c r="AB32" s="51"/>
+      <c r="AC32" s="52"/>
+      <c r="AD32" s="68"/>
+      <c r="AE32" s="69"/>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
@@ -4954,8 +4960,8 @@
       <c r="AT32" s="1"/>
     </row>
     <row r="33" spans="1:46" ht="17.25" customHeight="1">
-      <c r="A33" s="149"/>
-      <c r="B33" s="84"/>
+      <c r="A33" s="84"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="38" t="s">
         <v>77</v>
       </c>
@@ -4963,8 +4969,8 @@
       <c r="E33" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="83"/>
-      <c r="G33" s="84"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="51"/>
       <c r="H33" s="38" t="s">
         <v>77</v>
       </c>
@@ -4972,27 +4978,27 @@
       <c r="J33" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="K33" s="41"/>
-      <c r="L33" s="118"/>
-      <c r="M33" s="118"/>
-      <c r="N33" s="118"/>
-      <c r="O33" s="118"/>
-      <c r="P33" s="118"/>
-      <c r="Q33" s="118"/>
-      <c r="R33" s="118"/>
-      <c r="S33" s="118"/>
-      <c r="T33" s="118"/>
-      <c r="U33" s="118"/>
-      <c r="V33" s="118"/>
-      <c r="W33" s="118"/>
-      <c r="X33" s="118"/>
-      <c r="Y33" s="118"/>
-      <c r="Z33" s="118"/>
-      <c r="AA33" s="118"/>
-      <c r="AB33" s="84"/>
-      <c r="AC33" s="41"/>
-      <c r="AD33" s="42"/>
-      <c r="AE33" s="43"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="53"/>
+      <c r="AA33" s="53"/>
+      <c r="AB33" s="51"/>
+      <c r="AC33" s="52"/>
+      <c r="AD33" s="68"/>
+      <c r="AE33" s="69"/>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
@@ -5013,8 +5019,8 @@
       <c r="AT33" s="1"/>
     </row>
     <row r="34" spans="1:46" s="8" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A34" s="149"/>
-      <c r="B34" s="84"/>
+      <c r="A34" s="84"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="38" t="s">
         <v>77</v>
       </c>
@@ -5022,8 +5028,8 @@
       <c r="E34" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="83"/>
-      <c r="G34" s="84"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="51"/>
       <c r="H34" s="38" t="s">
         <v>77</v>
       </c>
@@ -5031,27 +5037,27 @@
       <c r="J34" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="K34" s="41"/>
-      <c r="L34" s="118"/>
-      <c r="M34" s="118"/>
-      <c r="N34" s="118"/>
-      <c r="O34" s="118"/>
-      <c r="P34" s="118"/>
-      <c r="Q34" s="118"/>
-      <c r="R34" s="118"/>
-      <c r="S34" s="118"/>
-      <c r="T34" s="118"/>
-      <c r="U34" s="118"/>
-      <c r="V34" s="118"/>
-      <c r="W34" s="118"/>
-      <c r="X34" s="118"/>
-      <c r="Y34" s="118"/>
-      <c r="Z34" s="118"/>
-      <c r="AA34" s="118"/>
-      <c r="AB34" s="84"/>
-      <c r="AC34" s="41"/>
-      <c r="AD34" s="42"/>
-      <c r="AE34" s="43"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="53"/>
+      <c r="T34" s="53"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="53"/>
+      <c r="W34" s="53"/>
+      <c r="X34" s="53"/>
+      <c r="Y34" s="53"/>
+      <c r="Z34" s="53"/>
+      <c r="AA34" s="53"/>
+      <c r="AB34" s="51"/>
+      <c r="AC34" s="52"/>
+      <c r="AD34" s="68"/>
+      <c r="AE34" s="69"/>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
@@ -5069,8 +5075,8 @@
       <c r="AT34" s="1"/>
     </row>
     <row r="35" spans="1:46" ht="17.25" customHeight="1">
-      <c r="A35" s="130"/>
-      <c r="B35" s="84"/>
+      <c r="A35" s="85"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="38" t="s">
         <v>77</v>
       </c>
@@ -5078,8 +5084,8 @@
       <c r="E35" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="83"/>
-      <c r="G35" s="84"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="51"/>
       <c r="H35" s="38" t="s">
         <v>77</v>
       </c>
@@ -5087,27 +5093,27 @@
       <c r="J35" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K35" s="41"/>
-      <c r="L35" s="118"/>
-      <c r="M35" s="118"/>
-      <c r="N35" s="118"/>
-      <c r="O35" s="118"/>
-      <c r="P35" s="118"/>
-      <c r="Q35" s="118"/>
-      <c r="R35" s="118"/>
-      <c r="S35" s="118"/>
-      <c r="T35" s="118"/>
-      <c r="U35" s="118"/>
-      <c r="V35" s="118"/>
-      <c r="W35" s="118"/>
-      <c r="X35" s="118"/>
-      <c r="Y35" s="118"/>
-      <c r="Z35" s="118"/>
-      <c r="AA35" s="118"/>
-      <c r="AB35" s="84"/>
-      <c r="AC35" s="41"/>
-      <c r="AD35" s="42"/>
-      <c r="AE35" s="43"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="53"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="53"/>
+      <c r="W35" s="53"/>
+      <c r="X35" s="53"/>
+      <c r="Y35" s="53"/>
+      <c r="Z35" s="53"/>
+      <c r="AA35" s="53"/>
+      <c r="AB35" s="51"/>
+      <c r="AC35" s="52"/>
+      <c r="AD35" s="68"/>
+      <c r="AE35" s="69"/>
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
@@ -5128,39 +5134,39 @@
       <c r="AT35" s="1"/>
     </row>
     <row r="36" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A36" s="78" t="s">
+      <c r="A36" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="159"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="63"/>
-      <c r="O36" s="63"/>
-      <c r="P36" s="63"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="63"/>
-      <c r="S36" s="63"/>
-      <c r="T36" s="63"/>
-      <c r="U36" s="63"/>
-      <c r="V36" s="63"/>
-      <c r="W36" s="63"/>
-      <c r="X36" s="63"/>
-      <c r="Y36" s="63"/>
-      <c r="Z36" s="63"/>
-      <c r="AA36" s="63"/>
-      <c r="AB36" s="63"/>
-      <c r="AC36" s="63"/>
-      <c r="AD36" s="63"/>
-      <c r="AE36" s="134"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="58"/>
+      <c r="P36" s="58"/>
+      <c r="Q36" s="58"/>
+      <c r="R36" s="58"/>
+      <c r="S36" s="58"/>
+      <c r="T36" s="58"/>
+      <c r="U36" s="58"/>
+      <c r="V36" s="58"/>
+      <c r="W36" s="58"/>
+      <c r="X36" s="58"/>
+      <c r="Y36" s="58"/>
+      <c r="Z36" s="58"/>
+      <c r="AA36" s="58"/>
+      <c r="AB36" s="58"/>
+      <c r="AC36" s="58"/>
+      <c r="AD36" s="58"/>
+      <c r="AE36" s="59"/>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
@@ -5178,37 +5184,37 @@
       <c r="AT36" s="1"/>
     </row>
     <row r="37" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A37" s="80"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="135"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="81"/>
-      <c r="N37" s="81"/>
-      <c r="O37" s="81"/>
-      <c r="P37" s="81"/>
-      <c r="Q37" s="81"/>
-      <c r="R37" s="81"/>
-      <c r="S37" s="81"/>
-      <c r="T37" s="81"/>
-      <c r="U37" s="81"/>
-      <c r="V37" s="81"/>
-      <c r="W37" s="81"/>
-      <c r="X37" s="81"/>
-      <c r="Y37" s="81"/>
-      <c r="Z37" s="81"/>
-      <c r="AA37" s="81"/>
-      <c r="AB37" s="81"/>
-      <c r="AC37" s="81"/>
-      <c r="AD37" s="81"/>
-      <c r="AE37" s="136"/>
+      <c r="A37" s="89"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="61"/>
+      <c r="U37" s="61"/>
+      <c r="V37" s="61"/>
+      <c r="W37" s="61"/>
+      <c r="X37" s="61"/>
+      <c r="Y37" s="61"/>
+      <c r="Z37" s="61"/>
+      <c r="AA37" s="61"/>
+      <c r="AB37" s="61"/>
+      <c r="AC37" s="61"/>
+      <c r="AD37" s="61"/>
+      <c r="AE37" s="62"/>
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
@@ -5226,41 +5232,41 @@
       <c r="AT37" s="3"/>
     </row>
     <row r="38" spans="1:46" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A38" s="141" t="s">
+      <c r="A38" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="122"/>
-      <c r="C38" s="122"/>
-      <c r="D38" s="122"/>
-      <c r="E38" s="122"/>
-      <c r="F38" s="122"/>
-      <c r="G38" s="122"/>
-      <c r="H38" s="122"/>
-      <c r="I38" s="122"/>
-      <c r="J38" s="122"/>
-      <c r="K38" s="122"/>
-      <c r="L38" s="122"/>
-      <c r="M38" s="122"/>
-      <c r="N38" s="142" t="s">
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="O38" s="122"/>
-      <c r="P38" s="122"/>
-      <c r="Q38" s="122"/>
-      <c r="R38" s="122"/>
-      <c r="S38" s="122"/>
-      <c r="T38" s="122"/>
-      <c r="U38" s="122"/>
-      <c r="V38" s="122"/>
-      <c r="W38" s="122"/>
-      <c r="X38" s="122"/>
-      <c r="Y38" s="122"/>
-      <c r="Z38" s="122"/>
-      <c r="AA38" s="122"/>
-      <c r="AB38" s="122"/>
-      <c r="AC38" s="122"/>
-      <c r="AD38" s="122"/>
-      <c r="AE38" s="123"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="66"/>
+      <c r="T38" s="66"/>
+      <c r="U38" s="66"/>
+      <c r="V38" s="66"/>
+      <c r="W38" s="66"/>
+      <c r="X38" s="66"/>
+      <c r="Y38" s="66"/>
+      <c r="Z38" s="66"/>
+      <c r="AA38" s="66"/>
+      <c r="AB38" s="66"/>
+      <c r="AC38" s="66"/>
+      <c r="AD38" s="66"/>
+      <c r="AE38" s="67"/>
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
@@ -5278,41 +5284,41 @@
       <c r="AT38" s="3"/>
     </row>
     <row r="39" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A39" s="143" t="s">
+      <c r="A39" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="144"/>
-      <c r="C39" s="144"/>
-      <c r="D39" s="144"/>
-      <c r="E39" s="144"/>
-      <c r="F39" s="144"/>
-      <c r="G39" s="144"/>
-      <c r="H39" s="144"/>
-      <c r="I39" s="144"/>
-      <c r="J39" s="144"/>
-      <c r="K39" s="144"/>
-      <c r="L39" s="144"/>
-      <c r="M39" s="145"/>
-      <c r="N39" s="150" t="s">
+      <c r="B39" s="76"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="77"/>
+      <c r="N39" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="O39" s="151"/>
-      <c r="P39" s="151"/>
-      <c r="Q39" s="151"/>
-      <c r="R39" s="151"/>
-      <c r="S39" s="151"/>
-      <c r="T39" s="151"/>
-      <c r="U39" s="151"/>
-      <c r="V39" s="151"/>
-      <c r="W39" s="151"/>
-      <c r="X39" s="151"/>
-      <c r="Y39" s="151"/>
-      <c r="Z39" s="151"/>
-      <c r="AA39" s="151"/>
-      <c r="AB39" s="151"/>
-      <c r="AC39" s="151"/>
-      <c r="AD39" s="151"/>
-      <c r="AE39" s="152"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="42"/>
+      <c r="V39" s="42"/>
+      <c r="W39" s="42"/>
+      <c r="X39" s="42"/>
+      <c r="Y39" s="42"/>
+      <c r="Z39" s="42"/>
+      <c r="AA39" s="42"/>
+      <c r="AB39" s="42"/>
+      <c r="AC39" s="42"/>
+      <c r="AD39" s="42"/>
+      <c r="AE39" s="43"/>
       <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
@@ -5330,37 +5336,37 @@
       <c r="AT39" s="3"/>
     </row>
     <row r="40" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A40" s="146"/>
-      <c r="B40" s="144"/>
-      <c r="C40" s="144"/>
-      <c r="D40" s="144"/>
-      <c r="E40" s="144"/>
-      <c r="F40" s="144"/>
-      <c r="G40" s="144"/>
-      <c r="H40" s="144"/>
-      <c r="I40" s="144"/>
-      <c r="J40" s="144"/>
-      <c r="K40" s="144"/>
-      <c r="L40" s="144"/>
-      <c r="M40" s="145"/>
-      <c r="N40" s="153"/>
-      <c r="O40" s="154"/>
-      <c r="P40" s="154"/>
-      <c r="Q40" s="154"/>
-      <c r="R40" s="154"/>
-      <c r="S40" s="154"/>
-      <c r="T40" s="154"/>
-      <c r="U40" s="154"/>
-      <c r="V40" s="154"/>
-      <c r="W40" s="154"/>
-      <c r="X40" s="154"/>
-      <c r="Y40" s="154"/>
-      <c r="Z40" s="154"/>
-      <c r="AA40" s="154"/>
-      <c r="AB40" s="154"/>
-      <c r="AC40" s="154"/>
-      <c r="AD40" s="154"/>
-      <c r="AE40" s="155"/>
+      <c r="A40" s="78"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="45"/>
+      <c r="W40" s="45"/>
+      <c r="X40" s="45"/>
+      <c r="Y40" s="45"/>
+      <c r="Z40" s="45"/>
+      <c r="AA40" s="45"/>
+      <c r="AB40" s="45"/>
+      <c r="AC40" s="45"/>
+      <c r="AD40" s="45"/>
+      <c r="AE40" s="46"/>
       <c r="AF40" s="3"/>
       <c r="AG40" s="3"/>
       <c r="AH40" s="3"/>
@@ -5378,37 +5384,37 @@
       <c r="AT40" s="3"/>
     </row>
     <row r="41" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A41" s="146"/>
-      <c r="B41" s="144"/>
-      <c r="C41" s="144"/>
-      <c r="D41" s="144"/>
-      <c r="E41" s="144"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="144"/>
-      <c r="H41" s="144"/>
-      <c r="I41" s="144"/>
-      <c r="J41" s="144"/>
-      <c r="K41" s="144"/>
-      <c r="L41" s="144"/>
-      <c r="M41" s="145"/>
-      <c r="N41" s="153"/>
-      <c r="O41" s="154"/>
-      <c r="P41" s="154"/>
-      <c r="Q41" s="154"/>
-      <c r="R41" s="154"/>
-      <c r="S41" s="154"/>
-      <c r="T41" s="154"/>
-      <c r="U41" s="154"/>
-      <c r="V41" s="154"/>
-      <c r="W41" s="154"/>
-      <c r="X41" s="154"/>
-      <c r="Y41" s="154"/>
-      <c r="Z41" s="154"/>
-      <c r="AA41" s="154"/>
-      <c r="AB41" s="154"/>
-      <c r="AC41" s="154"/>
-      <c r="AD41" s="154"/>
-      <c r="AE41" s="155"/>
+      <c r="A41" s="78"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="77"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="45"/>
+      <c r="W41" s="45"/>
+      <c r="X41" s="45"/>
+      <c r="Y41" s="45"/>
+      <c r="Z41" s="45"/>
+      <c r="AA41" s="45"/>
+      <c r="AB41" s="45"/>
+      <c r="AC41" s="45"/>
+      <c r="AD41" s="45"/>
+      <c r="AE41" s="46"/>
       <c r="AF41" s="3"/>
       <c r="AG41" s="3"/>
       <c r="AH41" s="3"/>
@@ -5426,37 +5432,37 @@
       <c r="AT41" s="3"/>
     </row>
     <row r="42" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A42" s="146"/>
-      <c r="B42" s="144"/>
-      <c r="C42" s="144"/>
-      <c r="D42" s="144"/>
-      <c r="E42" s="144"/>
-      <c r="F42" s="144"/>
-      <c r="G42" s="144"/>
-      <c r="H42" s="144"/>
-      <c r="I42" s="144"/>
-      <c r="J42" s="144"/>
-      <c r="K42" s="144"/>
-      <c r="L42" s="144"/>
-      <c r="M42" s="145"/>
-      <c r="N42" s="153"/>
-      <c r="O42" s="154"/>
-      <c r="P42" s="154"/>
-      <c r="Q42" s="154"/>
-      <c r="R42" s="154"/>
-      <c r="S42" s="154"/>
-      <c r="T42" s="154"/>
-      <c r="U42" s="154"/>
-      <c r="V42" s="154"/>
-      <c r="W42" s="154"/>
-      <c r="X42" s="154"/>
-      <c r="Y42" s="154"/>
-      <c r="Z42" s="154"/>
-      <c r="AA42" s="154"/>
-      <c r="AB42" s="154"/>
-      <c r="AC42" s="154"/>
-      <c r="AD42" s="154"/>
-      <c r="AE42" s="155"/>
+      <c r="A42" s="78"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="77"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="45"/>
+      <c r="S42" s="45"/>
+      <c r="T42" s="45"/>
+      <c r="U42" s="45"/>
+      <c r="V42" s="45"/>
+      <c r="W42" s="45"/>
+      <c r="X42" s="45"/>
+      <c r="Y42" s="45"/>
+      <c r="Z42" s="45"/>
+      <c r="AA42" s="45"/>
+      <c r="AB42" s="45"/>
+      <c r="AC42" s="45"/>
+      <c r="AD42" s="45"/>
+      <c r="AE42" s="46"/>
       <c r="AF42" s="3"/>
       <c r="AG42" s="3"/>
       <c r="AH42" s="3"/>
@@ -5474,37 +5480,37 @@
       <c r="AT42" s="3"/>
     </row>
     <row r="43" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A43" s="146"/>
-      <c r="B43" s="144"/>
-      <c r="C43" s="144"/>
-      <c r="D43" s="144"/>
-      <c r="E43" s="144"/>
-      <c r="F43" s="144"/>
-      <c r="G43" s="144"/>
-      <c r="H43" s="144"/>
-      <c r="I43" s="144"/>
-      <c r="J43" s="144"/>
-      <c r="K43" s="144"/>
-      <c r="L43" s="144"/>
-      <c r="M43" s="145"/>
-      <c r="N43" s="153"/>
-      <c r="O43" s="154"/>
-      <c r="P43" s="154"/>
-      <c r="Q43" s="154"/>
-      <c r="R43" s="154"/>
-      <c r="S43" s="154"/>
-      <c r="T43" s="154"/>
-      <c r="U43" s="154"/>
-      <c r="V43" s="154"/>
-      <c r="W43" s="154"/>
-      <c r="X43" s="154"/>
-      <c r="Y43" s="154"/>
-      <c r="Z43" s="154"/>
-      <c r="AA43" s="154"/>
-      <c r="AB43" s="154"/>
-      <c r="AC43" s="154"/>
-      <c r="AD43" s="154"/>
-      <c r="AE43" s="155"/>
+      <c r="A43" s="78"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="77"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="45"/>
+      <c r="S43" s="45"/>
+      <c r="T43" s="45"/>
+      <c r="U43" s="45"/>
+      <c r="V43" s="45"/>
+      <c r="W43" s="45"/>
+      <c r="X43" s="45"/>
+      <c r="Y43" s="45"/>
+      <c r="Z43" s="45"/>
+      <c r="AA43" s="45"/>
+      <c r="AB43" s="45"/>
+      <c r="AC43" s="45"/>
+      <c r="AD43" s="45"/>
+      <c r="AE43" s="46"/>
       <c r="AF43" s="3"/>
       <c r="AG43" s="3"/>
       <c r="AH43" s="3"/>
@@ -5522,37 +5528,37 @@
       <c r="AT43" s="3"/>
     </row>
     <row r="44" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A44" s="146"/>
-      <c r="B44" s="144"/>
-      <c r="C44" s="144"/>
-      <c r="D44" s="144"/>
-      <c r="E44" s="144"/>
-      <c r="F44" s="144"/>
-      <c r="G44" s="144"/>
-      <c r="H44" s="144"/>
-      <c r="I44" s="144"/>
-      <c r="J44" s="144"/>
-      <c r="K44" s="144"/>
-      <c r="L44" s="144"/>
-      <c r="M44" s="145"/>
-      <c r="N44" s="153"/>
-      <c r="O44" s="154"/>
-      <c r="P44" s="154"/>
-      <c r="Q44" s="154"/>
-      <c r="R44" s="154"/>
-      <c r="S44" s="154"/>
-      <c r="T44" s="154"/>
-      <c r="U44" s="154"/>
-      <c r="V44" s="154"/>
-      <c r="W44" s="154"/>
-      <c r="X44" s="154"/>
-      <c r="Y44" s="154"/>
-      <c r="Z44" s="154"/>
-      <c r="AA44" s="154"/>
-      <c r="AB44" s="154"/>
-      <c r="AC44" s="154"/>
-      <c r="AD44" s="154"/>
-      <c r="AE44" s="155"/>
+      <c r="A44" s="78"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="77"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="45"/>
+      <c r="Q44" s="45"/>
+      <c r="R44" s="45"/>
+      <c r="S44" s="45"/>
+      <c r="T44" s="45"/>
+      <c r="U44" s="45"/>
+      <c r="V44" s="45"/>
+      <c r="W44" s="45"/>
+      <c r="X44" s="45"/>
+      <c r="Y44" s="45"/>
+      <c r="Z44" s="45"/>
+      <c r="AA44" s="45"/>
+      <c r="AB44" s="45"/>
+      <c r="AC44" s="45"/>
+      <c r="AD44" s="45"/>
+      <c r="AE44" s="46"/>
       <c r="AF44" s="3"/>
       <c r="AG44" s="3"/>
       <c r="AH44" s="3"/>
@@ -5570,37 +5576,37 @@
       <c r="AT44" s="3"/>
     </row>
     <row r="45" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A45" s="146"/>
-      <c r="B45" s="144"/>
-      <c r="C45" s="144"/>
-      <c r="D45" s="144"/>
-      <c r="E45" s="144"/>
-      <c r="F45" s="144"/>
-      <c r="G45" s="144"/>
-      <c r="H45" s="144"/>
-      <c r="I45" s="144"/>
-      <c r="J45" s="144"/>
-      <c r="K45" s="144"/>
-      <c r="L45" s="144"/>
-      <c r="M45" s="145"/>
-      <c r="N45" s="153"/>
-      <c r="O45" s="154"/>
-      <c r="P45" s="154"/>
-      <c r="Q45" s="154"/>
-      <c r="R45" s="154"/>
-      <c r="S45" s="154"/>
-      <c r="T45" s="154"/>
-      <c r="U45" s="154"/>
-      <c r="V45" s="154"/>
-      <c r="W45" s="154"/>
-      <c r="X45" s="154"/>
-      <c r="Y45" s="154"/>
-      <c r="Z45" s="154"/>
-      <c r="AA45" s="154"/>
-      <c r="AB45" s="154"/>
-      <c r="AC45" s="154"/>
-      <c r="AD45" s="154"/>
-      <c r="AE45" s="155"/>
+      <c r="A45" s="78"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="77"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="45"/>
+      <c r="P45" s="45"/>
+      <c r="Q45" s="45"/>
+      <c r="R45" s="45"/>
+      <c r="S45" s="45"/>
+      <c r="T45" s="45"/>
+      <c r="U45" s="45"/>
+      <c r="V45" s="45"/>
+      <c r="W45" s="45"/>
+      <c r="X45" s="45"/>
+      <c r="Y45" s="45"/>
+      <c r="Z45" s="45"/>
+      <c r="AA45" s="45"/>
+      <c r="AB45" s="45"/>
+      <c r="AC45" s="45"/>
+      <c r="AD45" s="45"/>
+      <c r="AE45" s="46"/>
       <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
       <c r="AH45" s="3"/>
@@ -5618,37 +5624,37 @@
       <c r="AT45" s="3"/>
     </row>
     <row r="46" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A46" s="146"/>
-      <c r="B46" s="144"/>
-      <c r="C46" s="144"/>
-      <c r="D46" s="144"/>
-      <c r="E46" s="144"/>
-      <c r="F46" s="144"/>
-      <c r="G46" s="144"/>
-      <c r="H46" s="144"/>
-      <c r="I46" s="144"/>
-      <c r="J46" s="144"/>
-      <c r="K46" s="144"/>
-      <c r="L46" s="144"/>
-      <c r="M46" s="145"/>
-      <c r="N46" s="153"/>
-      <c r="O46" s="154"/>
-      <c r="P46" s="154"/>
-      <c r="Q46" s="154"/>
-      <c r="R46" s="154"/>
-      <c r="S46" s="154"/>
-      <c r="T46" s="154"/>
-      <c r="U46" s="154"/>
-      <c r="V46" s="154"/>
-      <c r="W46" s="154"/>
-      <c r="X46" s="154"/>
-      <c r="Y46" s="154"/>
-      <c r="Z46" s="154"/>
-      <c r="AA46" s="154"/>
-      <c r="AB46" s="154"/>
-      <c r="AC46" s="154"/>
-      <c r="AD46" s="154"/>
-      <c r="AE46" s="155"/>
+      <c r="A46" s="78"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="77"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="45"/>
+      <c r="P46" s="45"/>
+      <c r="Q46" s="45"/>
+      <c r="R46" s="45"/>
+      <c r="S46" s="45"/>
+      <c r="T46" s="45"/>
+      <c r="U46" s="45"/>
+      <c r="V46" s="45"/>
+      <c r="W46" s="45"/>
+      <c r="X46" s="45"/>
+      <c r="Y46" s="45"/>
+      <c r="Z46" s="45"/>
+      <c r="AA46" s="45"/>
+      <c r="AB46" s="45"/>
+      <c r="AC46" s="45"/>
+      <c r="AD46" s="45"/>
+      <c r="AE46" s="46"/>
       <c r="AF46" s="3"/>
       <c r="AG46" s="3"/>
       <c r="AH46" s="3"/>
@@ -5666,37 +5672,37 @@
       <c r="AT46" s="3"/>
     </row>
     <row r="47" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A47" s="146"/>
-      <c r="B47" s="144"/>
-      <c r="C47" s="144"/>
-      <c r="D47" s="144"/>
-      <c r="E47" s="144"/>
-      <c r="F47" s="144"/>
-      <c r="G47" s="144"/>
-      <c r="H47" s="144"/>
-      <c r="I47" s="144"/>
-      <c r="J47" s="144"/>
-      <c r="K47" s="144"/>
-      <c r="L47" s="144"/>
-      <c r="M47" s="145"/>
-      <c r="N47" s="153"/>
-      <c r="O47" s="154"/>
-      <c r="P47" s="154"/>
-      <c r="Q47" s="154"/>
-      <c r="R47" s="154"/>
-      <c r="S47" s="154"/>
-      <c r="T47" s="154"/>
-      <c r="U47" s="154"/>
-      <c r="V47" s="154"/>
-      <c r="W47" s="154"/>
-      <c r="X47" s="154"/>
-      <c r="Y47" s="154"/>
-      <c r="Z47" s="154"/>
-      <c r="AA47" s="154"/>
-      <c r="AB47" s="154"/>
-      <c r="AC47" s="154"/>
-      <c r="AD47" s="154"/>
-      <c r="AE47" s="155"/>
+      <c r="A47" s="78"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="77"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="45"/>
+      <c r="P47" s="45"/>
+      <c r="Q47" s="45"/>
+      <c r="R47" s="45"/>
+      <c r="S47" s="45"/>
+      <c r="T47" s="45"/>
+      <c r="U47" s="45"/>
+      <c r="V47" s="45"/>
+      <c r="W47" s="45"/>
+      <c r="X47" s="45"/>
+      <c r="Y47" s="45"/>
+      <c r="Z47" s="45"/>
+      <c r="AA47" s="45"/>
+      <c r="AB47" s="45"/>
+      <c r="AC47" s="45"/>
+      <c r="AD47" s="45"/>
+      <c r="AE47" s="46"/>
       <c r="AF47" s="3"/>
       <c r="AG47" s="3"/>
       <c r="AH47" s="3"/>
@@ -5714,37 +5720,37 @@
       <c r="AT47" s="3"/>
     </row>
     <row r="48" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A48" s="146"/>
-      <c r="B48" s="144"/>
-      <c r="C48" s="144"/>
-      <c r="D48" s="144"/>
-      <c r="E48" s="144"/>
-      <c r="F48" s="144"/>
-      <c r="G48" s="144"/>
-      <c r="H48" s="144"/>
-      <c r="I48" s="144"/>
-      <c r="J48" s="144"/>
-      <c r="K48" s="144"/>
-      <c r="L48" s="144"/>
-      <c r="M48" s="145"/>
-      <c r="N48" s="153"/>
-      <c r="O48" s="154"/>
-      <c r="P48" s="154"/>
-      <c r="Q48" s="154"/>
-      <c r="R48" s="154"/>
-      <c r="S48" s="154"/>
-      <c r="T48" s="154"/>
-      <c r="U48" s="154"/>
-      <c r="V48" s="154"/>
-      <c r="W48" s="154"/>
-      <c r="X48" s="154"/>
-      <c r="Y48" s="154"/>
-      <c r="Z48" s="154"/>
-      <c r="AA48" s="154"/>
-      <c r="AB48" s="154"/>
-      <c r="AC48" s="154"/>
-      <c r="AD48" s="154"/>
-      <c r="AE48" s="155"/>
+      <c r="A48" s="78"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="76"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="77"/>
+      <c r="N48" s="44"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="45"/>
+      <c r="T48" s="45"/>
+      <c r="U48" s="45"/>
+      <c r="V48" s="45"/>
+      <c r="W48" s="45"/>
+      <c r="X48" s="45"/>
+      <c r="Y48" s="45"/>
+      <c r="Z48" s="45"/>
+      <c r="AA48" s="45"/>
+      <c r="AB48" s="45"/>
+      <c r="AC48" s="45"/>
+      <c r="AD48" s="45"/>
+      <c r="AE48" s="46"/>
       <c r="AF48" s="3"/>
       <c r="AG48" s="3"/>
       <c r="AH48" s="3"/>
@@ -5762,37 +5768,37 @@
       <c r="AT48" s="3"/>
     </row>
     <row r="49" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A49" s="146"/>
-      <c r="B49" s="144"/>
-      <c r="C49" s="144"/>
-      <c r="D49" s="144"/>
-      <c r="E49" s="144"/>
-      <c r="F49" s="144"/>
-      <c r="G49" s="144"/>
-      <c r="H49" s="144"/>
-      <c r="I49" s="144"/>
-      <c r="J49" s="144"/>
-      <c r="K49" s="144"/>
-      <c r="L49" s="144"/>
-      <c r="M49" s="145"/>
-      <c r="N49" s="153"/>
-      <c r="O49" s="154"/>
-      <c r="P49" s="154"/>
-      <c r="Q49" s="154"/>
-      <c r="R49" s="154"/>
-      <c r="S49" s="154"/>
-      <c r="T49" s="154"/>
-      <c r="U49" s="154"/>
-      <c r="V49" s="154"/>
-      <c r="W49" s="154"/>
-      <c r="X49" s="154"/>
-      <c r="Y49" s="154"/>
-      <c r="Z49" s="154"/>
-      <c r="AA49" s="154"/>
-      <c r="AB49" s="154"/>
-      <c r="AC49" s="154"/>
-      <c r="AD49" s="154"/>
-      <c r="AE49" s="155"/>
+      <c r="A49" s="78"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
+      <c r="I49" s="76"/>
+      <c r="J49" s="76"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="77"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="45"/>
+      <c r="P49" s="45"/>
+      <c r="Q49" s="45"/>
+      <c r="R49" s="45"/>
+      <c r="S49" s="45"/>
+      <c r="T49" s="45"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
+      <c r="X49" s="45"/>
+      <c r="Y49" s="45"/>
+      <c r="Z49" s="45"/>
+      <c r="AA49" s="45"/>
+      <c r="AB49" s="45"/>
+      <c r="AC49" s="45"/>
+      <c r="AD49" s="45"/>
+      <c r="AE49" s="46"/>
       <c r="AF49" s="3"/>
       <c r="AG49" s="3"/>
       <c r="AH49" s="3"/>
@@ -5810,37 +5816,37 @@
       <c r="AT49" s="3"/>
     </row>
     <row r="50" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A50" s="146"/>
-      <c r="B50" s="144"/>
-      <c r="C50" s="144"/>
-      <c r="D50" s="144"/>
-      <c r="E50" s="144"/>
-      <c r="F50" s="144"/>
-      <c r="G50" s="144"/>
-      <c r="H50" s="144"/>
-      <c r="I50" s="144"/>
-      <c r="J50" s="144"/>
-      <c r="K50" s="144"/>
-      <c r="L50" s="144"/>
-      <c r="M50" s="145"/>
-      <c r="N50" s="153"/>
-      <c r="O50" s="154"/>
-      <c r="P50" s="154"/>
-      <c r="Q50" s="154"/>
-      <c r="R50" s="154"/>
-      <c r="S50" s="154"/>
-      <c r="T50" s="154"/>
-      <c r="U50" s="154"/>
-      <c r="V50" s="154"/>
-      <c r="W50" s="154"/>
-      <c r="X50" s="154"/>
-      <c r="Y50" s="154"/>
-      <c r="Z50" s="154"/>
-      <c r="AA50" s="154"/>
-      <c r="AB50" s="154"/>
-      <c r="AC50" s="154"/>
-      <c r="AD50" s="154"/>
-      <c r="AE50" s="155"/>
+      <c r="A50" s="78"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="76"/>
+      <c r="J50" s="76"/>
+      <c r="K50" s="76"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="77"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="45"/>
+      <c r="Q50" s="45"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="45"/>
+      <c r="T50" s="45"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
+      <c r="X50" s="45"/>
+      <c r="Y50" s="45"/>
+      <c r="Z50" s="45"/>
+      <c r="AA50" s="45"/>
+      <c r="AB50" s="45"/>
+      <c r="AC50" s="45"/>
+      <c r="AD50" s="45"/>
+      <c r="AE50" s="46"/>
       <c r="AF50" s="3"/>
       <c r="AG50" s="3"/>
       <c r="AH50" s="3"/>
@@ -5858,37 +5864,37 @@
       <c r="AT50" s="3"/>
     </row>
     <row r="51" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A51" s="146"/>
-      <c r="B51" s="144"/>
-      <c r="C51" s="144"/>
-      <c r="D51" s="144"/>
-      <c r="E51" s="144"/>
-      <c r="F51" s="144"/>
-      <c r="G51" s="144"/>
-      <c r="H51" s="144"/>
-      <c r="I51" s="144"/>
-      <c r="J51" s="144"/>
-      <c r="K51" s="144"/>
-      <c r="L51" s="144"/>
-      <c r="M51" s="145"/>
-      <c r="N51" s="153"/>
-      <c r="O51" s="154"/>
-      <c r="P51" s="154"/>
-      <c r="Q51" s="154"/>
-      <c r="R51" s="154"/>
-      <c r="S51" s="154"/>
-      <c r="T51" s="154"/>
-      <c r="U51" s="154"/>
-      <c r="V51" s="154"/>
-      <c r="W51" s="154"/>
-      <c r="X51" s="154"/>
-      <c r="Y51" s="154"/>
-      <c r="Z51" s="154"/>
-      <c r="AA51" s="154"/>
-      <c r="AB51" s="154"/>
-      <c r="AC51" s="154"/>
-      <c r="AD51" s="154"/>
-      <c r="AE51" s="155"/>
+      <c r="A51" s="78"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="76"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="76"/>
+      <c r="K51" s="76"/>
+      <c r="L51" s="76"/>
+      <c r="M51" s="77"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="45"/>
+      <c r="P51" s="45"/>
+      <c r="Q51" s="45"/>
+      <c r="R51" s="45"/>
+      <c r="S51" s="45"/>
+      <c r="T51" s="45"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
+      <c r="X51" s="45"/>
+      <c r="Y51" s="45"/>
+      <c r="Z51" s="45"/>
+      <c r="AA51" s="45"/>
+      <c r="AB51" s="45"/>
+      <c r="AC51" s="45"/>
+      <c r="AD51" s="45"/>
+      <c r="AE51" s="46"/>
       <c r="AF51" s="3"/>
       <c r="AG51" s="3"/>
       <c r="AH51" s="3"/>
@@ -5906,37 +5912,37 @@
       <c r="AT51" s="3"/>
     </row>
     <row r="52" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A52" s="146"/>
-      <c r="B52" s="144"/>
-      <c r="C52" s="144"/>
-      <c r="D52" s="144"/>
-      <c r="E52" s="144"/>
-      <c r="F52" s="144"/>
-      <c r="G52" s="144"/>
-      <c r="H52" s="144"/>
-      <c r="I52" s="144"/>
-      <c r="J52" s="144"/>
-      <c r="K52" s="144"/>
-      <c r="L52" s="144"/>
-      <c r="M52" s="145"/>
-      <c r="N52" s="153"/>
-      <c r="O52" s="154"/>
-      <c r="P52" s="154"/>
-      <c r="Q52" s="154"/>
-      <c r="R52" s="154"/>
-      <c r="S52" s="154"/>
-      <c r="T52" s="154"/>
-      <c r="U52" s="154"/>
-      <c r="V52" s="154"/>
-      <c r="W52" s="154"/>
-      <c r="X52" s="154"/>
-      <c r="Y52" s="154"/>
-      <c r="Z52" s="154"/>
-      <c r="AA52" s="154"/>
-      <c r="AB52" s="154"/>
-      <c r="AC52" s="154"/>
-      <c r="AD52" s="154"/>
-      <c r="AE52" s="155"/>
+      <c r="A52" s="78"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="77"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="45"/>
+      <c r="Q52" s="45"/>
+      <c r="R52" s="45"/>
+      <c r="S52" s="45"/>
+      <c r="T52" s="45"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
+      <c r="X52" s="45"/>
+      <c r="Y52" s="45"/>
+      <c r="Z52" s="45"/>
+      <c r="AA52" s="45"/>
+      <c r="AB52" s="45"/>
+      <c r="AC52" s="45"/>
+      <c r="AD52" s="45"/>
+      <c r="AE52" s="46"/>
       <c r="AF52" s="3"/>
       <c r="AG52" s="3"/>
       <c r="AH52" s="3"/>
@@ -5954,37 +5960,37 @@
       <c r="AT52" s="3"/>
     </row>
     <row r="53" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A53" s="146"/>
-      <c r="B53" s="144"/>
-      <c r="C53" s="144"/>
-      <c r="D53" s="144"/>
-      <c r="E53" s="144"/>
-      <c r="F53" s="144"/>
-      <c r="G53" s="144"/>
-      <c r="H53" s="144"/>
-      <c r="I53" s="144"/>
-      <c r="J53" s="144"/>
-      <c r="K53" s="144"/>
-      <c r="L53" s="144"/>
-      <c r="M53" s="145"/>
-      <c r="N53" s="153"/>
-      <c r="O53" s="154"/>
-      <c r="P53" s="154"/>
-      <c r="Q53" s="154"/>
-      <c r="R53" s="154"/>
-      <c r="S53" s="154"/>
-      <c r="T53" s="154"/>
-      <c r="U53" s="154"/>
-      <c r="V53" s="154"/>
-      <c r="W53" s="154"/>
-      <c r="X53" s="154"/>
-      <c r="Y53" s="154"/>
-      <c r="Z53" s="154"/>
-      <c r="AA53" s="154"/>
-      <c r="AB53" s="154"/>
-      <c r="AC53" s="154"/>
-      <c r="AD53" s="154"/>
-      <c r="AE53" s="155"/>
+      <c r="A53" s="78"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="77"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="45"/>
+      <c r="P53" s="45"/>
+      <c r="Q53" s="45"/>
+      <c r="R53" s="45"/>
+      <c r="S53" s="45"/>
+      <c r="T53" s="45"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
+      <c r="X53" s="45"/>
+      <c r="Y53" s="45"/>
+      <c r="Z53" s="45"/>
+      <c r="AA53" s="45"/>
+      <c r="AB53" s="45"/>
+      <c r="AC53" s="45"/>
+      <c r="AD53" s="45"/>
+      <c r="AE53" s="46"/>
       <c r="AF53" s="3"/>
       <c r="AG53" s="3"/>
       <c r="AH53" s="3"/>
@@ -6002,37 +6008,37 @@
       <c r="AT53" s="3"/>
     </row>
     <row r="54" spans="1:46" ht="16.5" customHeight="1">
-      <c r="A54" s="146"/>
-      <c r="B54" s="144"/>
-      <c r="C54" s="144"/>
-      <c r="D54" s="144"/>
-      <c r="E54" s="144"/>
-      <c r="F54" s="144"/>
-      <c r="G54" s="144"/>
-      <c r="H54" s="144"/>
-      <c r="I54" s="144"/>
-      <c r="J54" s="144"/>
-      <c r="K54" s="144"/>
-      <c r="L54" s="144"/>
-      <c r="M54" s="145"/>
-      <c r="N54" s="153"/>
-      <c r="O54" s="154"/>
-      <c r="P54" s="154"/>
-      <c r="Q54" s="154"/>
-      <c r="R54" s="154"/>
-      <c r="S54" s="154"/>
-      <c r="T54" s="154"/>
-      <c r="U54" s="154"/>
-      <c r="V54" s="154"/>
-      <c r="W54" s="154"/>
-      <c r="X54" s="154"/>
-      <c r="Y54" s="154"/>
-      <c r="Z54" s="154"/>
-      <c r="AA54" s="154"/>
-      <c r="AB54" s="154"/>
-      <c r="AC54" s="154"/>
-      <c r="AD54" s="154"/>
-      <c r="AE54" s="155"/>
+      <c r="A54" s="78"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="76"/>
+      <c r="M54" s="77"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="45"/>
+      <c r="P54" s="45"/>
+      <c r="Q54" s="45"/>
+      <c r="R54" s="45"/>
+      <c r="S54" s="45"/>
+      <c r="T54" s="45"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
+      <c r="X54" s="45"/>
+      <c r="Y54" s="45"/>
+      <c r="Z54" s="45"/>
+      <c r="AA54" s="45"/>
+      <c r="AB54" s="45"/>
+      <c r="AC54" s="45"/>
+      <c r="AD54" s="45"/>
+      <c r="AE54" s="46"/>
       <c r="AF54" s="3"/>
       <c r="AG54" s="3"/>
       <c r="AH54" s="3"/>
@@ -6050,37 +6056,37 @@
       <c r="AT54" s="3"/>
     </row>
     <row r="55" spans="1:46" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A55" s="147"/>
-      <c r="B55" s="148"/>
-      <c r="C55" s="148"/>
-      <c r="D55" s="148"/>
-      <c r="E55" s="148"/>
-      <c r="F55" s="148"/>
-      <c r="G55" s="148"/>
-      <c r="H55" s="148"/>
-      <c r="I55" s="148"/>
-      <c r="J55" s="148"/>
-      <c r="K55" s="148"/>
-      <c r="L55" s="148"/>
-      <c r="M55" s="148"/>
-      <c r="N55" s="156"/>
-      <c r="O55" s="157"/>
-      <c r="P55" s="157"/>
-      <c r="Q55" s="157"/>
-      <c r="R55" s="157"/>
-      <c r="S55" s="157"/>
-      <c r="T55" s="157"/>
-      <c r="U55" s="157"/>
-      <c r="V55" s="157"/>
-      <c r="W55" s="157"/>
-      <c r="X55" s="157"/>
-      <c r="Y55" s="157"/>
-      <c r="Z55" s="157"/>
-      <c r="AA55" s="157"/>
-      <c r="AB55" s="157"/>
-      <c r="AC55" s="157"/>
-      <c r="AD55" s="157"/>
-      <c r="AE55" s="158"/>
+      <c r="A55" s="79"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="80"/>
+      <c r="H55" s="80"/>
+      <c r="I55" s="80"/>
+      <c r="J55" s="80"/>
+      <c r="K55" s="80"/>
+      <c r="L55" s="80"/>
+      <c r="M55" s="80"/>
+      <c r="N55" s="47"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="48"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="48"/>
+      <c r="S55" s="48"/>
+      <c r="T55" s="48"/>
+      <c r="U55" s="48"/>
+      <c r="V55" s="48"/>
+      <c r="W55" s="48"/>
+      <c r="X55" s="48"/>
+      <c r="Y55" s="48"/>
+      <c r="Z55" s="48"/>
+      <c r="AA55" s="48"/>
+      <c r="AB55" s="48"/>
+      <c r="AC55" s="48"/>
+      <c r="AD55" s="48"/>
+      <c r="AE55" s="49"/>
       <c r="AF55" s="3"/>
       <c r="AG55" s="3"/>
       <c r="AH55" s="3"/>
@@ -15693,6 +15699,88 @@
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="G8:S8"/>
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B10:S11"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="A27:E28"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="L1:T3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:S5"/>
+    <mergeCell ref="Z5:AE11"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B9:S9"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F6:I7"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="T5:Y5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="T7:U8"/>
+    <mergeCell ref="V7:Y8"/>
+    <mergeCell ref="K14:Z14"/>
+    <mergeCell ref="K15:Z15"/>
+    <mergeCell ref="E12:AE12"/>
+    <mergeCell ref="A13:AE13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="AA14:AE14"/>
+    <mergeCell ref="K17:Z17"/>
+    <mergeCell ref="AA17:AE17"/>
+    <mergeCell ref="AA18:AE18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:Z18"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="AA15:AE15"/>
+    <mergeCell ref="K16:Z16"/>
+    <mergeCell ref="AA16:AE16"/>
+    <mergeCell ref="F19:AE20"/>
+    <mergeCell ref="A21:AE21"/>
+    <mergeCell ref="F22:AE22"/>
+    <mergeCell ref="F23:AE23"/>
+    <mergeCell ref="F24:AE24"/>
+    <mergeCell ref="A19:E20"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A38:M38"/>
+    <mergeCell ref="N38:AE38"/>
+    <mergeCell ref="A39:M55"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="K30:AB30"/>
+    <mergeCell ref="K31:AB31"/>
+    <mergeCell ref="A36:E37"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="N39:AE55"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="K34:AB34"/>
@@ -15709,88 +15797,6 @@
     <mergeCell ref="K33:AB33"/>
     <mergeCell ref="K35:AB35"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A38:M38"/>
-    <mergeCell ref="N38:AE38"/>
-    <mergeCell ref="A39:M55"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="K30:AB30"/>
-    <mergeCell ref="K31:AB31"/>
-    <mergeCell ref="A36:E37"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="F19:AE20"/>
-    <mergeCell ref="A21:AE21"/>
-    <mergeCell ref="F22:AE22"/>
-    <mergeCell ref="F23:AE23"/>
-    <mergeCell ref="F24:AE24"/>
-    <mergeCell ref="A19:E20"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="K17:Z17"/>
-    <mergeCell ref="AA17:AE17"/>
-    <mergeCell ref="AA18:AE18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:Z18"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="AA15:AE15"/>
-    <mergeCell ref="K16:Z16"/>
-    <mergeCell ref="AA16:AE16"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="T7:U8"/>
-    <mergeCell ref="V7:Y8"/>
-    <mergeCell ref="K14:Z14"/>
-    <mergeCell ref="K15:Z15"/>
-    <mergeCell ref="E12:AE12"/>
-    <mergeCell ref="A13:AE13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="AA14:AE14"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="L1:T3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:S5"/>
-    <mergeCell ref="Z5:AE11"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="B9:S9"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F6:I7"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="T5:Y5"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="G8:S8"/>
-    <mergeCell ref="B6:E7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B10:S11"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="A27:E28"/>
-    <mergeCell ref="F33:G33"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="F26:AE26 K18:Z18">
@@ -15819,16 +15825,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="配偶者の有無 - 選択してください" sqref="V6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="配偶者の有無 - 選択してください" sqref="V6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$AI$8:$AI$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="J6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="J6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$AI$5:$AI$7</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="AC31:AE35"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="AC31:AE35" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1"/>
+    <hyperlink ref="A12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId2"/>
@@ -15836,14 +15842,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF99CC00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="F28" sqref="F28:F29"/>
     </sheetView>
   </sheetViews>
@@ -15902,14 +15908,14 @@
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="191" t="s">
+      <c r="F2" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="192"/>
-      <c r="K2" s="192"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -15928,27 +15934,27 @@
     </row>
     <row r="3" spans="1:26" ht="21" customHeight="1">
       <c r="A3" s="9"/>
-      <c r="B3" s="193"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="197"/>
-      <c r="G3" s="198" t="s">
+      <c r="B3" s="192"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="222"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="224" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="194"/>
-      <c r="I3" s="199" t="s">
+      <c r="H3" s="220"/>
+      <c r="I3" s="225" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="200"/>
-      <c r="K3" s="200"/>
-      <c r="L3" s="200"/>
-      <c r="M3" s="200"/>
-      <c r="N3" s="200"/>
-      <c r="O3" s="200"/>
-      <c r="P3" s="200"/>
-      <c r="Q3" s="200"/>
-      <c r="R3" s="201"/>
+      <c r="J3" s="226"/>
+      <c r="K3" s="226"/>
+      <c r="L3" s="226"/>
+      <c r="M3" s="226"/>
+      <c r="N3" s="226"/>
+      <c r="O3" s="226"/>
+      <c r="P3" s="226"/>
+      <c r="Q3" s="226"/>
+      <c r="R3" s="227"/>
       <c r="S3" s="11"/>
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
@@ -15960,31 +15966,31 @@
     </row>
     <row r="4" spans="1:26" ht="21" customHeight="1">
       <c r="A4" s="9"/>
-      <c r="B4" s="202" t="s">
+      <c r="B4" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="203"/>
-      <c r="D4" s="204" t="s">
+      <c r="C4" s="185"/>
+      <c r="D4" s="212" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="118"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="206" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="203"/>
-      <c r="I4" s="208" t="s">
+      <c r="H4" s="185"/>
+      <c r="I4" s="215" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="137"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="94"/>
       <c r="S4" s="11"/>
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
@@ -15996,31 +16002,31 @@
     </row>
     <row r="5" spans="1:26" ht="21" customHeight="1">
       <c r="A5" s="9"/>
-      <c r="B5" s="202" t="s">
+      <c r="B5" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="203"/>
-      <c r="D5" s="204" t="s">
+      <c r="C5" s="185"/>
+      <c r="D5" s="212" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="118"/>
-      <c r="F5" s="205"/>
-      <c r="G5" s="206" t="s">
+      <c r="E5" s="53"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="203"/>
-      <c r="I5" s="207">
+      <c r="H5" s="185"/>
+      <c r="I5" s="228">
         <v>22</v>
       </c>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="118"/>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="137"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="94"/>
       <c r="S5" s="11"/>
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
@@ -16032,27 +16038,27 @@
     </row>
     <row r="6" spans="1:26" ht="21" customHeight="1">
       <c r="A6" s="9"/>
-      <c r="B6" s="202"/>
-      <c r="C6" s="203"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="205"/>
-      <c r="G6" s="206" t="s">
+      <c r="B6" s="184"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="212"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="213"/>
+      <c r="G6" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="203"/>
-      <c r="I6" s="204" t="s">
+      <c r="H6" s="185"/>
+      <c r="I6" s="212" t="s">
         <v>94</v>
       </c>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="137"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="94"/>
       <c r="S6" s="11"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
@@ -16064,29 +16070,29 @@
     </row>
     <row r="7" spans="1:26" ht="21" customHeight="1">
       <c r="A7" s="9"/>
-      <c r="B7" s="209" t="s">
+      <c r="B7" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="210"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="212"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="214" t="s">
+      <c r="C7" s="187"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="191" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="210"/>
-      <c r="I7" s="218" t="s">
+      <c r="H7" s="187"/>
+      <c r="I7" s="196" t="s">
         <v>95</v>
       </c>
-      <c r="J7" s="148"/>
-      <c r="K7" s="148"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="148"/>
-      <c r="N7" s="148"/>
-      <c r="O7" s="148"/>
-      <c r="P7" s="148"/>
-      <c r="Q7" s="148"/>
-      <c r="R7" s="219"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="197"/>
       <c r="S7" s="11"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
@@ -16098,23 +16104,23 @@
     </row>
     <row r="8" spans="1:26" ht="25.5" customHeight="1">
       <c r="A8" s="9"/>
-      <c r="B8" s="220"/>
-      <c r="C8" s="221"/>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="221"/>
-      <c r="I8" s="221"/>
-      <c r="J8" s="221"/>
-      <c r="K8" s="221"/>
-      <c r="L8" s="221"/>
-      <c r="M8" s="221"/>
-      <c r="N8" s="221"/>
-      <c r="O8" s="221"/>
-      <c r="P8" s="221"/>
-      <c r="Q8" s="221"/>
-      <c r="R8" s="221"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
+      <c r="G8" s="199"/>
+      <c r="H8" s="199"/>
+      <c r="I8" s="199"/>
+      <c r="J8" s="199"/>
+      <c r="K8" s="199"/>
+      <c r="L8" s="199"/>
+      <c r="M8" s="199"/>
+      <c r="N8" s="199"/>
+      <c r="O8" s="199"/>
+      <c r="P8" s="199"/>
+      <c r="Q8" s="199"/>
+      <c r="R8" s="199"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
@@ -16126,27 +16132,27 @@
     </row>
     <row r="9" spans="1:26" ht="28.5" customHeight="1">
       <c r="A9" s="9"/>
-      <c r="B9" s="193" t="s">
+      <c r="B9" s="192" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="215"/>
-      <c r="D9" s="222" t="s">
+      <c r="C9" s="193"/>
+      <c r="D9" s="200" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="188"/>
-      <c r="F9" s="188"/>
-      <c r="G9" s="188"/>
-      <c r="H9" s="188"/>
-      <c r="I9" s="188"/>
-      <c r="J9" s="188"/>
-      <c r="K9" s="188"/>
-      <c r="L9" s="188"/>
-      <c r="M9" s="188"/>
-      <c r="N9" s="188"/>
-      <c r="O9" s="188"/>
-      <c r="P9" s="188"/>
-      <c r="Q9" s="188"/>
-      <c r="R9" s="223"/>
+      <c r="E9" s="201"/>
+      <c r="F9" s="201"/>
+      <c r="G9" s="201"/>
+      <c r="H9" s="201"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="201"/>
+      <c r="L9" s="201"/>
+      <c r="M9" s="201"/>
+      <c r="N9" s="201"/>
+      <c r="O9" s="201"/>
+      <c r="P9" s="201"/>
+      <c r="Q9" s="201"/>
+      <c r="R9" s="202"/>
       <c r="S9" s="11"/>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
@@ -16158,27 +16164,27 @@
     </row>
     <row r="10" spans="1:26" ht="28.5" customHeight="1">
       <c r="A10" s="9"/>
-      <c r="B10" s="202" t="s">
+      <c r="B10" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="216"/>
-      <c r="D10" s="224" t="s">
+      <c r="C10" s="194"/>
+      <c r="D10" s="203" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="225"/>
-      <c r="F10" s="225"/>
-      <c r="G10" s="225"/>
-      <c r="H10" s="225"/>
-      <c r="I10" s="225"/>
-      <c r="J10" s="225"/>
-      <c r="K10" s="225"/>
-      <c r="L10" s="225"/>
-      <c r="M10" s="225"/>
-      <c r="N10" s="225"/>
-      <c r="O10" s="225"/>
-      <c r="P10" s="225"/>
-      <c r="Q10" s="225"/>
-      <c r="R10" s="226"/>
+      <c r="E10" s="204"/>
+      <c r="F10" s="204"/>
+      <c r="G10" s="204"/>
+      <c r="H10" s="204"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="204"/>
+      <c r="K10" s="204"/>
+      <c r="L10" s="204"/>
+      <c r="M10" s="204"/>
+      <c r="N10" s="204"/>
+      <c r="O10" s="204"/>
+      <c r="P10" s="204"/>
+      <c r="Q10" s="204"/>
+      <c r="R10" s="205"/>
       <c r="S10" s="11"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
@@ -16190,27 +16196,27 @@
     </row>
     <row r="11" spans="1:26" ht="28.5" customHeight="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="209" t="s">
+      <c r="B11" s="186" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="217"/>
-      <c r="D11" s="227" t="s">
+      <c r="C11" s="195"/>
+      <c r="D11" s="206" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="192"/>
-      <c r="F11" s="192"/>
-      <c r="G11" s="192"/>
-      <c r="H11" s="192"/>
-      <c r="I11" s="192"/>
-      <c r="J11" s="192"/>
-      <c r="K11" s="192"/>
-      <c r="L11" s="192"/>
-      <c r="M11" s="192"/>
-      <c r="N11" s="192"/>
-      <c r="O11" s="192"/>
-      <c r="P11" s="192"/>
-      <c r="Q11" s="192"/>
-      <c r="R11" s="228"/>
+      <c r="E11" s="207"/>
+      <c r="F11" s="207"/>
+      <c r="G11" s="207"/>
+      <c r="H11" s="207"/>
+      <c r="I11" s="207"/>
+      <c r="J11" s="207"/>
+      <c r="K11" s="207"/>
+      <c r="L11" s="207"/>
+      <c r="M11" s="207"/>
+      <c r="N11" s="207"/>
+      <c r="O11" s="207"/>
+      <c r="P11" s="207"/>
+      <c r="Q11" s="207"/>
+      <c r="R11" s="208"/>
       <c r="S11" s="11"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
@@ -16250,39 +16256,39 @@
     </row>
     <row r="13" spans="1:26" ht="18.75" customHeight="1">
       <c r="A13" s="9"/>
-      <c r="B13" s="187" t="s">
+      <c r="B13" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="188"/>
-      <c r="D13" s="188"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="172" t="s">
+      <c r="C13" s="201"/>
+      <c r="D13" s="201"/>
+      <c r="E13" s="217"/>
+      <c r="F13" s="179" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="172" t="s">
+      <c r="G13" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="172" t="s">
+      <c r="H13" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="172" t="s">
+      <c r="I13" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="172" t="s">
+      <c r="J13" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="172" t="s">
+      <c r="K13" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="174" t="s">
+      <c r="L13" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="175"/>
-      <c r="N13" s="175"/>
-      <c r="O13" s="175"/>
-      <c r="P13" s="175"/>
-      <c r="Q13" s="175"/>
-      <c r="R13" s="176"/>
+      <c r="M13" s="182"/>
+      <c r="N13" s="182"/>
+      <c r="O13" s="182"/>
+      <c r="P13" s="182"/>
+      <c r="Q13" s="182"/>
+      <c r="R13" s="183"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
@@ -16294,16 +16300,16 @@
     </row>
     <row r="14" spans="1:26" ht="171" customHeight="1">
       <c r="A14" s="9"/>
-      <c r="B14" s="190"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="173"/>
-      <c r="K14" s="173"/>
+      <c r="B14" s="218"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="180"/>
       <c r="L14" s="12" t="s">
         <v>31</v>
       </c>
@@ -16336,53 +16342,53 @@
     </row>
     <row r="15" spans="1:26" ht="24" customHeight="1">
       <c r="A15" s="9"/>
-      <c r="B15" s="177">
+      <c r="B15" s="167">
         <v>1</v>
       </c>
-      <c r="C15" s="180">
+      <c r="C15" s="170">
         <v>43466</v>
       </c>
-      <c r="D15" s="182" t="s">
+      <c r="D15" s="172" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="184">
+      <c r="E15" s="174">
         <v>44134</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>98</v>
       </c>
       <c r="G15" s="15"/>
-      <c r="H15" s="169" t="s">
+      <c r="H15" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="169" t="s">
+      <c r="I15" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="J15" s="169" t="s">
+      <c r="J15" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="169" t="s">
+      <c r="K15" s="161" t="s">
         <v>102</v>
       </c>
-      <c r="L15" s="161" t="s">
+      <c r="L15" s="209" t="s">
         <v>103</v>
       </c>
-      <c r="M15" s="161" t="s">
+      <c r="M15" s="209" t="s">
         <v>103</v>
       </c>
-      <c r="N15" s="161" t="s">
+      <c r="N15" s="209" t="s">
         <v>103</v>
       </c>
-      <c r="O15" s="161" t="s">
+      <c r="O15" s="209" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="161" t="s">
+      <c r="P15" s="209" t="s">
         <v>103</v>
       </c>
-      <c r="Q15" s="161" t="s">
+      <c r="Q15" s="209" t="s">
         <v>103</v>
       </c>
-      <c r="R15" s="164" t="s">
+      <c r="R15" s="176" t="s">
         <v>103</v>
       </c>
       <c r="S15" s="9"/>
@@ -16396,27 +16402,27 @@
     </row>
     <row r="16" spans="1:26" ht="294.75" customHeight="1">
       <c r="A16" s="9"/>
-      <c r="B16" s="178"/>
-      <c r="C16" s="181"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="167" t="s">
+      <c r="B16" s="168"/>
+      <c r="C16" s="171"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="166" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="169" t="s">
+      <c r="G16" s="161" t="s">
         <v>104</v>
       </c>
-      <c r="H16" s="186"/>
-      <c r="I16" s="186"/>
-      <c r="J16" s="186"/>
-      <c r="K16" s="186"/>
-      <c r="L16" s="162"/>
-      <c r="M16" s="162"/>
-      <c r="N16" s="162"/>
-      <c r="O16" s="162"/>
-      <c r="P16" s="162"/>
-      <c r="Q16" s="162"/>
-      <c r="R16" s="165"/>
+      <c r="H16" s="162"/>
+      <c r="I16" s="162"/>
+      <c r="J16" s="162"/>
+      <c r="K16" s="162"/>
+      <c r="L16" s="210"/>
+      <c r="M16" s="210"/>
+      <c r="N16" s="210"/>
+      <c r="O16" s="210"/>
+      <c r="P16" s="210"/>
+      <c r="Q16" s="210"/>
+      <c r="R16" s="177"/>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
@@ -16428,25 +16434,25 @@
     </row>
     <row r="17" spans="1:26" ht="24" customHeight="1">
       <c r="A17" s="9"/>
-      <c r="B17" s="179"/>
-      <c r="C17" s="170" t="s">
+      <c r="B17" s="169"/>
+      <c r="C17" s="164" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="171"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="168"/>
-      <c r="I17" s="168"/>
-      <c r="J17" s="168"/>
-      <c r="K17" s="168"/>
-      <c r="L17" s="163"/>
-      <c r="M17" s="163"/>
-      <c r="N17" s="163"/>
-      <c r="O17" s="163"/>
-      <c r="P17" s="163"/>
-      <c r="Q17" s="163"/>
-      <c r="R17" s="166"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
+      <c r="L17" s="211"/>
+      <c r="M17" s="211"/>
+      <c r="N17" s="211"/>
+      <c r="O17" s="211"/>
+      <c r="P17" s="211"/>
+      <c r="Q17" s="211"/>
+      <c r="R17" s="178"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
@@ -16469,39 +16475,39 @@
     </row>
     <row r="19" spans="1:26" ht="228" customHeight="1">
       <c r="A19" s="9"/>
-      <c r="B19" s="187" t="s">
+      <c r="B19" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="188"/>
-      <c r="D19" s="188"/>
-      <c r="E19" s="189"/>
-      <c r="F19" s="172" t="s">
+      <c r="C19" s="201"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="217"/>
+      <c r="F19" s="179" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="172" t="s">
+      <c r="G19" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="172" t="s">
+      <c r="H19" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="172" t="s">
+      <c r="I19" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="172" t="s">
+      <c r="J19" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="172" t="s">
+      <c r="K19" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="L19" s="174" t="s">
+      <c r="L19" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="M19" s="175"/>
-      <c r="N19" s="175"/>
-      <c r="O19" s="175"/>
-      <c r="P19" s="175"/>
-      <c r="Q19" s="175"/>
-      <c r="R19" s="176"/>
+      <c r="M19" s="182"/>
+      <c r="N19" s="182"/>
+      <c r="O19" s="182"/>
+      <c r="P19" s="182"/>
+      <c r="Q19" s="182"/>
+      <c r="R19" s="183"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
@@ -16513,16 +16519,16 @@
     </row>
     <row r="20" spans="1:26" ht="24" customHeight="1">
       <c r="A20" s="9"/>
-      <c r="B20" s="190"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="173"/>
-      <c r="I20" s="173"/>
-      <c r="J20" s="173"/>
-      <c r="K20" s="173"/>
+      <c r="B20" s="218"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="180"/>
+      <c r="J20" s="180"/>
+      <c r="K20" s="180"/>
       <c r="L20" s="12" t="s">
         <v>31</v>
       </c>
@@ -16555,51 +16561,51 @@
     </row>
     <row r="21" spans="1:26" ht="23.25" customHeight="1">
       <c r="A21" s="9"/>
-      <c r="B21" s="177">
+      <c r="B21" s="167">
         <v>1</v>
       </c>
-      <c r="C21" s="180">
+      <c r="C21" s="170">
         <v>44124</v>
       </c>
-      <c r="D21" s="182" t="s">
+      <c r="D21" s="172" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="184">
+      <c r="E21" s="174">
         <v>44155</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>107</v>
       </c>
       <c r="G21" s="15"/>
-      <c r="H21" s="169" t="s">
+      <c r="H21" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="I21" s="169"/>
-      <c r="J21" s="169" t="s">
+      <c r="I21" s="161"/>
+      <c r="J21" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="K21" s="169" t="s">
+      <c r="K21" s="161" t="s">
         <v>102</v>
       </c>
-      <c r="L21" s="161" t="s">
+      <c r="L21" s="209" t="s">
         <v>103</v>
       </c>
-      <c r="M21" s="161" t="s">
+      <c r="M21" s="209" t="s">
         <v>103</v>
       </c>
-      <c r="N21" s="161" t="s">
+      <c r="N21" s="209" t="s">
         <v>103</v>
       </c>
-      <c r="O21" s="161" t="s">
+      <c r="O21" s="209" t="s">
         <v>103</v>
       </c>
-      <c r="P21" s="161" t="s">
+      <c r="P21" s="209" t="s">
         <v>103</v>
       </c>
-      <c r="Q21" s="161" t="s">
+      <c r="Q21" s="209" t="s">
         <v>103</v>
       </c>
-      <c r="R21" s="164" t="s">
+      <c r="R21" s="176" t="s">
         <v>103</v>
       </c>
       <c r="S21" s="9"/>
@@ -16613,27 +16619,27 @@
     </row>
     <row r="22" spans="1:26" ht="228" customHeight="1">
       <c r="A22" s="9"/>
-      <c r="B22" s="178"/>
-      <c r="C22" s="181"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="185"/>
-      <c r="F22" s="167" t="s">
+      <c r="B22" s="168"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="166" t="s">
         <v>114</v>
       </c>
-      <c r="G22" s="169" t="s">
+      <c r="G22" s="161" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="186"/>
-      <c r="I22" s="186"/>
-      <c r="J22" s="186"/>
-      <c r="K22" s="186"/>
-      <c r="L22" s="162"/>
-      <c r="M22" s="162"/>
-      <c r="N22" s="162"/>
-      <c r="O22" s="162"/>
-      <c r="P22" s="162"/>
-      <c r="Q22" s="162"/>
-      <c r="R22" s="165"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="162"/>
+      <c r="K22" s="162"/>
+      <c r="L22" s="210"/>
+      <c r="M22" s="210"/>
+      <c r="N22" s="210"/>
+      <c r="O22" s="210"/>
+      <c r="P22" s="210"/>
+      <c r="Q22" s="210"/>
+      <c r="R22" s="177"/>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
@@ -16645,25 +16651,25 @@
     </row>
     <row r="23" spans="1:26" ht="24" customHeight="1">
       <c r="A23" s="9"/>
-      <c r="B23" s="179"/>
-      <c r="C23" s="170" t="s">
+      <c r="B23" s="169"/>
+      <c r="C23" s="164" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="171"/>
-      <c r="E23" s="171"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="168"/>
-      <c r="I23" s="168"/>
-      <c r="J23" s="168"/>
-      <c r="K23" s="168"/>
-      <c r="L23" s="163"/>
-      <c r="M23" s="163"/>
-      <c r="N23" s="163"/>
-      <c r="O23" s="163"/>
-      <c r="P23" s="163"/>
-      <c r="Q23" s="163"/>
-      <c r="R23" s="166"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="163"/>
+      <c r="K23" s="163"/>
+      <c r="L23" s="211"/>
+      <c r="M23" s="211"/>
+      <c r="N23" s="211"/>
+      <c r="O23" s="211"/>
+      <c r="P23" s="211"/>
+      <c r="Q23" s="211"/>
+      <c r="R23" s="178"/>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
@@ -16686,39 +16692,39 @@
     </row>
     <row r="25" spans="1:26" ht="228" customHeight="1">
       <c r="A25" s="9"/>
-      <c r="B25" s="187" t="s">
+      <c r="B25" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="188"/>
-      <c r="D25" s="188"/>
-      <c r="E25" s="189"/>
-      <c r="F25" s="172" t="s">
+      <c r="C25" s="201"/>
+      <c r="D25" s="201"/>
+      <c r="E25" s="217"/>
+      <c r="F25" s="179" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="172" t="s">
+      <c r="G25" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="172" t="s">
+      <c r="H25" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="172" t="s">
+      <c r="I25" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="J25" s="172" t="s">
+      <c r="J25" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="K25" s="172" t="s">
+      <c r="K25" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="L25" s="174" t="s">
+      <c r="L25" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="M25" s="175"/>
-      <c r="N25" s="175"/>
-      <c r="O25" s="175"/>
-      <c r="P25" s="175"/>
-      <c r="Q25" s="175"/>
-      <c r="R25" s="176"/>
+      <c r="M25" s="182"/>
+      <c r="N25" s="182"/>
+      <c r="O25" s="182"/>
+      <c r="P25" s="182"/>
+      <c r="Q25" s="182"/>
+      <c r="R25" s="183"/>
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
@@ -16730,16 +16736,16 @@
     </row>
     <row r="26" spans="1:26" ht="24" customHeight="1">
       <c r="A26" s="9"/>
-      <c r="B26" s="190"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="173"/>
-      <c r="G26" s="173"/>
-      <c r="H26" s="173"/>
-      <c r="I26" s="173"/>
-      <c r="J26" s="173"/>
-      <c r="K26" s="173"/>
+      <c r="B26" s="218"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="180"/>
+      <c r="H26" s="180"/>
+      <c r="I26" s="180"/>
+      <c r="J26" s="180"/>
+      <c r="K26" s="180"/>
       <c r="L26" s="12" t="s">
         <v>31</v>
       </c>
@@ -16772,53 +16778,53 @@
     </row>
     <row r="27" spans="1:26" ht="23.25" customHeight="1">
       <c r="A27" s="9"/>
-      <c r="B27" s="177">
+      <c r="B27" s="167">
         <v>1</v>
       </c>
-      <c r="C27" s="180">
+      <c r="C27" s="170">
         <v>43666</v>
       </c>
-      <c r="D27" s="182" t="s">
+      <c r="D27" s="172" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="184">
+      <c r="E27" s="174">
         <v>43697</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>110</v>
       </c>
       <c r="G27" s="15"/>
-      <c r="H27" s="169" t="s">
+      <c r="H27" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="I27" s="169" t="s">
+      <c r="I27" s="161" t="s">
         <v>112</v>
       </c>
-      <c r="J27" s="169" t="s">
+      <c r="J27" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="K27" s="169" t="s">
+      <c r="K27" s="161" t="s">
         <v>102</v>
       </c>
-      <c r="L27" s="161" t="s">
+      <c r="L27" s="209" t="s">
         <v>103</v>
       </c>
-      <c r="M27" s="161" t="s">
+      <c r="M27" s="209" t="s">
         <v>103</v>
       </c>
-      <c r="N27" s="161" t="s">
+      <c r="N27" s="209" t="s">
         <v>103</v>
       </c>
-      <c r="O27" s="161" t="s">
+      <c r="O27" s="209" t="s">
         <v>103</v>
       </c>
-      <c r="P27" s="161" t="s">
+      <c r="P27" s="209" t="s">
         <v>103</v>
       </c>
-      <c r="Q27" s="161" t="s">
+      <c r="Q27" s="209" t="s">
         <v>103</v>
       </c>
-      <c r="R27" s="164" t="s">
+      <c r="R27" s="176" t="s">
         <v>103</v>
       </c>
       <c r="S27" s="9"/>
@@ -16832,27 +16838,27 @@
     </row>
     <row r="28" spans="1:26" ht="228" customHeight="1">
       <c r="A28" s="9"/>
-      <c r="B28" s="178"/>
-      <c r="C28" s="181"/>
-      <c r="D28" s="183"/>
-      <c r="E28" s="185"/>
-      <c r="F28" s="167" t="s">
+      <c r="B28" s="168"/>
+      <c r="C28" s="171"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="175"/>
+      <c r="F28" s="166" t="s">
         <v>115</v>
       </c>
-      <c r="G28" s="169" t="s">
+      <c r="G28" s="161" t="s">
         <v>111</v>
       </c>
-      <c r="H28" s="186"/>
-      <c r="I28" s="186"/>
-      <c r="J28" s="186"/>
-      <c r="K28" s="186"/>
-      <c r="L28" s="162"/>
-      <c r="M28" s="162"/>
-      <c r="N28" s="162"/>
-      <c r="O28" s="162"/>
-      <c r="P28" s="162"/>
-      <c r="Q28" s="162"/>
-      <c r="R28" s="165"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="162"/>
+      <c r="K28" s="162"/>
+      <c r="L28" s="210"/>
+      <c r="M28" s="210"/>
+      <c r="N28" s="210"/>
+      <c r="O28" s="210"/>
+      <c r="P28" s="210"/>
+      <c r="Q28" s="210"/>
+      <c r="R28" s="177"/>
       <c r="S28" s="9"/>
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
@@ -16864,25 +16870,25 @@
     </row>
     <row r="29" spans="1:26" ht="24" customHeight="1">
       <c r="A29" s="9"/>
-      <c r="B29" s="179"/>
-      <c r="C29" s="170" t="s">
+      <c r="B29" s="169"/>
+      <c r="C29" s="164" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="171"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="168"/>
-      <c r="I29" s="168"/>
-      <c r="J29" s="168"/>
-      <c r="K29" s="168"/>
-      <c r="L29" s="163"/>
-      <c r="M29" s="163"/>
-      <c r="N29" s="163"/>
-      <c r="O29" s="163"/>
-      <c r="P29" s="163"/>
-      <c r="Q29" s="163"/>
-      <c r="R29" s="166"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="163"/>
+      <c r="H29" s="163"/>
+      <c r="I29" s="163"/>
+      <c r="J29" s="163"/>
+      <c r="K29" s="163"/>
+      <c r="L29" s="211"/>
+      <c r="M29" s="211"/>
+      <c r="N29" s="211"/>
+      <c r="O29" s="211"/>
+      <c r="P29" s="211"/>
+      <c r="Q29" s="211"/>
+      <c r="R29" s="178"/>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
@@ -22779,15 +22785,79 @@
     <row r="991" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="Q27:Q29"/>
+    <mergeCell ref="R27:R29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:R25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="N27:N29"/>
+    <mergeCell ref="O27:O29"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:R19"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="N21:N23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
     <mergeCell ref="R15:R17"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:K14"/>
@@ -22812,86 +22882,22 @@
     <mergeCell ref="K15:K17"/>
     <mergeCell ref="L15:L17"/>
     <mergeCell ref="M15:M17"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="Q21:Q23"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:R19"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="N21:N23"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="B19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="Q27:Q29"/>
-    <mergeCell ref="R27:R29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:R25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="N27:N29"/>
-    <mergeCell ref="O27:O29"/>
-    <mergeCell ref="P27:P29"/>
-    <mergeCell ref="B25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt=" - " sqref="I4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt=" - " sqref="I4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Nam giới,Nữ giới"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L15:R15 L21:R21 L27:R27">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L15:R15 L21:R21 L27:R27" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"●"</formula1>
     </dataValidation>
   </dataValidations>
